--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983691.9379876076</v>
+        <v>932983.4870126889</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6643280.471408681</v>
+        <v>6643280.471408686</v>
       </c>
     </row>
     <row r="8">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.05642446854166</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.0674482973184</v>
+        <v>196.9057669475614</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="X11" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>17.55121167947832</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>75.17106991779237</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>51.40293372813255</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>27.95130333549407</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>8.693616733572085</v>
       </c>
       <c r="R13" t="n">
-        <v>126.5367317682478</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>223.5533230558146</v>
       </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>86.51244506493559</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>223.5533230558146</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>130.9630535135678</v>
+        <v>24.05642446854166</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>20.31336441140823</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="Y14" t="n">
-        <v>45.62934902258552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.2400059020503</v>
+        <v>28.94004912372274</v>
       </c>
       <c r="H15" t="n">
         <v>101.5778486352903</v>
       </c>
       <c r="I15" t="n">
-        <v>51.40293372813255</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>124.4447215767951</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>57.43769769485458</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>8.693616733572085</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="V16" t="n">
-        <v>127.0143278319886</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="G17" t="n">
-        <v>223.5533230558146</v>
+        <v>196.9057669475615</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>65.94271343399373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>93.55672705256444</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>101.5778486352903</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>195.7168039184781</v>
+        <v>147.1256499656067</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.48792353077975</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.693616733572085</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>135.6954283374743</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>36.62999387027881</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>24.05642446854166</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.8839141214536</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>20.31336441140823</v>
       </c>
       <c r="S20" t="n">
         <v>162.0218528261079</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>114.3449954434453</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="W21" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>42.06789523775603</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0658325864478</v>
+        <v>156.4812334594142</v>
       </c>
       <c r="H22" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>106.2014693799299</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>133.1694570803722</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>66.83920765485399</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>159.2628396201088</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>17.59138012665876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.2402814861658</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.9758194482964</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>88.52577195319712</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I27" t="n">
-        <v>51.40293372813235</v>
+        <v>51.40293372813255</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,13 +2730,13 @@
         <v>167.0658325864478</v>
       </c>
       <c r="H28" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>27.95130333549407</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>7.891776517016849</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>26.91233379096871</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>276.4822344897364</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>20.31336441140823</v>
       </c>
       <c r="S29" t="n">
-        <v>66.48692902232335</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,7 +2888,7 @@
         <v>136.2400059020503</v>
       </c>
       <c r="H30" t="n">
-        <v>101.5778486352901</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I30" t="n">
         <v>51.40293372813255</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>31.64333672726892</v>
+        <v>31.64333672726874</v>
       </c>
       <c r="S30" t="n">
         <v>151.1859334239523</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>105.1668364016526</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.9926895842344</v>
+        <v>122.376326053767</v>
       </c>
       <c r="U31" t="n">
         <v>286.2685668052903</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>260.3021936391217</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.2402814861658</v>
       </c>
       <c r="H32" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>162.0218528261079</v>
+        <v>29.03654481847655</v>
       </c>
       <c r="T32" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3119,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.2400059020503</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.9911247284146</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>15.65973075287027</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H34" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>278.4599346967278</v>
       </c>
       <c r="H35" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>94.17563538808849</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>103.9997075686343</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.2400059020503</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>49.0700198856478</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>132.9179726784687</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>223.9926895842344</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>5.784917268400462</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>167.0684992414168</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.2402814861658</v>
@@ -3553,25 +3553,25 @@
         <v>20.31336441140823</v>
       </c>
       <c r="S38" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>264.3606591162255</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>65.58534820209582</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>69.54759234047592</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.2400059020503</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>31.64333672726892</v>
       </c>
       <c r="S39" t="n">
         <v>151.1859334239523</v>
       </c>
       <c r="T39" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.8687826558985</v>
@@ -3647,10 +3647,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>140.5466769444586</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9926895842344</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>183.5415902785626</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>56.50343613926246</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>80.6978831816637</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.2402814861658</v>
       </c>
       <c r="H41" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>20.31336441140823</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>61.80353312756047</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>79.90711413878907</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.64333672726892</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>195.7168039184781</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8687826558985</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>27.95130333549407</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.693616733572085</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>104.912404870352</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U43" t="n">
-        <v>209.7792637534779</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>162.0218528261079</v>
       </c>
       <c r="T44" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>209.8095276320282</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>108.1963237346065</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.89911536739866</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>60.72531587241974</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.44946905598026</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.693616733572085</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.2685668052903</v>
       </c>
       <c r="V46" t="n">
-        <v>181.5450304054609</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.88426584446517</v>
+        <v>469.5071407046968</v>
       </c>
       <c r="C11" t="n">
-        <v>17.88426584446517</v>
+        <v>243.695703274581</v>
       </c>
       <c r="D11" t="n">
         <v>17.88426584446517</v>
@@ -5041,52 +5041,52 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J11" t="n">
-        <v>104.3412368063083</v>
+        <v>179.3523629982428</v>
       </c>
       <c r="K11" t="n">
-        <v>146.1809039558284</v>
+        <v>221.1920301477629</v>
       </c>
       <c r="L11" t="n">
-        <v>234.9884726291947</v>
+        <v>442.5098199730194</v>
       </c>
       <c r="M11" t="n">
-        <v>365.473441608979</v>
+        <v>572.9947889528037</v>
       </c>
       <c r="N11" t="n">
-        <v>502.6836021835242</v>
+        <v>710.2049495273488</v>
       </c>
       <c r="O11" t="n">
-        <v>618.9120047445418</v>
+        <v>826.4333520883665</v>
       </c>
       <c r="P11" t="n">
-        <v>683.6092564322853</v>
+        <v>891.13060377611</v>
       </c>
       <c r="Q11" t="n">
         <v>894.2132922232586</v>
       </c>
       <c r="R11" t="n">
-        <v>873.6947423127452</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="S11" t="n">
-        <v>710.0363051146564</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="T11" t="n">
-        <v>493.8065593597894</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="U11" t="n">
-        <v>493.8065593597894</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="V11" t="n">
-        <v>493.8065593597894</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="W11" t="n">
-        <v>493.8065593597894</v>
+        <v>469.5071407046968</v>
       </c>
       <c r="X11" t="n">
-        <v>267.9951219296736</v>
+        <v>469.5071407046968</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.18368449955776</v>
+        <v>469.5071407046968</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>518.2376564382366</v>
+        <v>442.590417363027</v>
       </c>
       <c r="C12" t="n">
-        <v>343.7846271571096</v>
+        <v>442.590417363027</v>
       </c>
       <c r="D12" t="n">
-        <v>194.8502174958584</v>
+        <v>442.590417363027</v>
       </c>
       <c r="E12" t="n">
-        <v>35.61276249040287</v>
+        <v>283.3529623575715</v>
       </c>
       <c r="F12" t="n">
-        <v>35.61276249040287</v>
+        <v>283.3529623575715</v>
       </c>
       <c r="G12" t="n">
-        <v>17.88426584446517</v>
+        <v>145.7367947797429</v>
       </c>
       <c r="H12" t="n">
-        <v>17.88426584446517</v>
+        <v>69.80642112540714</v>
       </c>
       <c r="I12" t="n">
         <v>17.88426584446517</v>
@@ -5126,19 +5126,19 @@
         <v>160.3080942547725</v>
       </c>
       <c r="L12" t="n">
-        <v>381.625884080029</v>
+        <v>260.3455378073621</v>
       </c>
       <c r="M12" t="n">
-        <v>517.7217304167864</v>
+        <v>396.4413841441195</v>
       </c>
       <c r="N12" t="n">
-        <v>671.8282737559954</v>
+        <v>550.5479274833285</v>
       </c>
       <c r="O12" t="n">
-        <v>790.5858585556515</v>
+        <v>669.3055122829846</v>
       </c>
       <c r="P12" t="n">
-        <v>893.3416265185888</v>
+        <v>745.28587769505</v>
       </c>
       <c r="Q12" t="n">
         <v>894.2132922232586</v>
@@ -5156,16 +5156,16 @@
         <v>894.2132922232586</v>
       </c>
       <c r="V12" t="n">
-        <v>894.2132922232586</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="W12" t="n">
-        <v>894.2132922232586</v>
+        <v>442.590417363027</v>
       </c>
       <c r="X12" t="n">
-        <v>894.2132922232586</v>
+        <v>442.590417363027</v>
       </c>
       <c r="Y12" t="n">
-        <v>686.4529934583047</v>
+        <v>442.590417363027</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>330.5932237864478</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="C13" t="n">
-        <v>330.5932237864478</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="D13" t="n">
-        <v>330.5932237864478</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="E13" t="n">
-        <v>330.5932237864478</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="F13" t="n">
-        <v>330.5932237864478</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G13" t="n">
-        <v>330.5932237864478</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H13" t="n">
-        <v>175.0358736230724</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I13" t="n">
-        <v>46.11790557728747</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="J13" t="n">
         <v>17.88426584446517</v>
@@ -5220,31 +5220,31 @@
         <v>894.2132922232586</v>
       </c>
       <c r="Q13" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="R13" t="n">
-        <v>766.3984116492709</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="S13" t="n">
-        <v>556.4046612165636</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="T13" t="n">
-        <v>330.5932237864478</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="U13" t="n">
-        <v>330.5932237864478</v>
+        <v>659.6204237491306</v>
       </c>
       <c r="V13" t="n">
-        <v>330.5932237864478</v>
+        <v>433.8089863190148</v>
       </c>
       <c r="W13" t="n">
-        <v>330.5932237864478</v>
+        <v>346.4226781726152</v>
       </c>
       <c r="X13" t="n">
-        <v>330.5932237864478</v>
+        <v>346.4226781726152</v>
       </c>
       <c r="Y13" t="n">
-        <v>330.5932237864478</v>
+        <v>346.4226781726152</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>827.6044907747801</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="C14" t="n">
-        <v>827.6044907747801</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="D14" t="n">
-        <v>827.6044907747801</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="E14" t="n">
-        <v>601.7930533446643</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="F14" t="n">
-        <v>375.9816159145485</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="G14" t="n">
-        <v>150.1701784844327</v>
+        <v>42.18368449955776</v>
       </c>
       <c r="H14" t="n">
-        <v>150.1701784844327</v>
+        <v>42.18368449955776</v>
       </c>
       <c r="I14" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J14" t="n">
-        <v>17.88426584446517</v>
+        <v>179.3523629982428</v>
       </c>
       <c r="K14" t="n">
-        <v>59.72393299398526</v>
+        <v>356.3727447091341</v>
       </c>
       <c r="L14" t="n">
-        <v>234.9884726291947</v>
+        <v>445.1803133825004</v>
       </c>
       <c r="M14" t="n">
-        <v>365.473441608979</v>
+        <v>575.6652823622846</v>
       </c>
       <c r="N14" t="n">
-        <v>502.6836021835242</v>
+        <v>712.8754429368298</v>
       </c>
       <c r="O14" t="n">
-        <v>618.9120047445418</v>
+        <v>829.1038454978475</v>
       </c>
       <c r="P14" t="n">
-        <v>683.6092564322853</v>
+        <v>893.8010971855909</v>
       </c>
       <c r="Q14" t="n">
         <v>894.2132922232586</v>
@@ -5305,25 +5305,25 @@
         <v>873.6947423127452</v>
       </c>
       <c r="S14" t="n">
-        <v>873.6947423127452</v>
+        <v>710.0363051146564</v>
       </c>
       <c r="T14" t="n">
-        <v>873.6947423127452</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="U14" t="n">
-        <v>873.6947423127452</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="V14" t="n">
-        <v>873.6947423127452</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="W14" t="n">
-        <v>873.6947423127452</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="X14" t="n">
-        <v>873.6947423127452</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="Y14" t="n">
-        <v>827.6044907747801</v>
+        <v>267.9951219296736</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>615.7984891922006</v>
+        <v>470.7081134613467</v>
       </c>
       <c r="C15" t="n">
-        <v>615.7984891922006</v>
+        <v>296.2550841802197</v>
       </c>
       <c r="D15" t="n">
-        <v>615.7984891922006</v>
+        <v>296.2550841802197</v>
       </c>
       <c r="E15" t="n">
-        <v>456.561034186745</v>
+        <v>296.2550841802197</v>
       </c>
       <c r="F15" t="n">
-        <v>310.02647621363</v>
+        <v>149.7205262071047</v>
       </c>
       <c r="G15" t="n">
-        <v>172.4103086358014</v>
+        <v>120.4881533548595</v>
       </c>
       <c r="H15" t="n">
-        <v>69.80642112540714</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I15" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J15" t="n">
-        <v>17.88426584446517</v>
+        <v>120.3601786590473</v>
       </c>
       <c r="K15" t="n">
-        <v>239.2020556697217</v>
+        <v>160.3080942547725</v>
       </c>
       <c r="L15" t="n">
-        <v>339.2394992223113</v>
+        <v>260.3455378073621</v>
       </c>
       <c r="M15" t="n">
-        <v>475.3353455590686</v>
+        <v>396.4413841441195</v>
       </c>
       <c r="N15" t="n">
-        <v>629.4418888982776</v>
+        <v>550.5479274833285</v>
       </c>
       <c r="O15" t="n">
-        <v>748.1994736979337</v>
+        <v>669.3055122829846</v>
       </c>
       <c r="P15" t="n">
-        <v>893.3416265185888</v>
+        <v>745.28587769505</v>
       </c>
       <c r="Q15" t="n">
         <v>894.2132922232586</v>
@@ -5384,25 +5384,25 @@
         <v>894.2132922232586</v>
       </c>
       <c r="S15" t="n">
-        <v>741.5002281586603</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="T15" t="n">
-        <v>741.5002281586603</v>
+        <v>696.5195508914625</v>
       </c>
       <c r="U15" t="n">
-        <v>741.5002281586603</v>
+        <v>696.5195508914625</v>
       </c>
       <c r="V15" t="n">
-        <v>741.5002281586603</v>
+        <v>470.7081134613467</v>
       </c>
       <c r="W15" t="n">
-        <v>741.5002281586603</v>
+        <v>470.7081134613467</v>
       </c>
       <c r="X15" t="n">
-        <v>615.7984891922006</v>
+        <v>470.7081134613467</v>
       </c>
       <c r="Y15" t="n">
-        <v>615.7984891922006</v>
+        <v>470.7081134613467</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.9159913828661</v>
+        <v>223.8152358863074</v>
       </c>
       <c r="C16" t="n">
-        <v>765.9159913828661</v>
+        <v>223.8152358863074</v>
       </c>
       <c r="D16" t="n">
-        <v>765.9159913828661</v>
+        <v>165.7973594268583</v>
       </c>
       <c r="E16" t="n">
-        <v>618.002897800473</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="F16" t="n">
-        <v>471.1129503025626</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G16" t="n">
-        <v>302.3595840536255</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H16" t="n">
-        <v>146.8022338902501</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I16" t="n">
         <v>17.88426584446517</v>
@@ -5457,31 +5457,31 @@
         <v>894.2132922232586</v>
       </c>
       <c r="Q16" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="R16" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="S16" t="n">
-        <v>894.2132922232586</v>
+        <v>675.438110746539</v>
       </c>
       <c r="T16" t="n">
-        <v>894.2132922232586</v>
+        <v>675.438110746539</v>
       </c>
       <c r="U16" t="n">
-        <v>894.2132922232586</v>
+        <v>449.6266733164232</v>
       </c>
       <c r="V16" t="n">
-        <v>765.9159913828661</v>
+        <v>449.6266733164232</v>
       </c>
       <c r="W16" t="n">
-        <v>765.9159913828661</v>
+        <v>223.8152358863074</v>
       </c>
       <c r="X16" t="n">
-        <v>765.9159913828661</v>
+        <v>223.8152358863074</v>
       </c>
       <c r="Y16" t="n">
-        <v>765.9159913828661</v>
+        <v>223.8152358863074</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>375.9816159145485</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="C17" t="n">
-        <v>375.9816159145485</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="D17" t="n">
-        <v>375.9816159145485</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="E17" t="n">
-        <v>375.9816159145485</v>
+        <v>442.590417363027</v>
       </c>
       <c r="F17" t="n">
-        <v>375.9816159145485</v>
+        <v>216.7789799329111</v>
       </c>
       <c r="G17" t="n">
-        <v>150.1701784844327</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H17" t="n">
-        <v>150.1701784844327</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I17" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J17" t="n">
-        <v>17.88426584446517</v>
+        <v>179.3523629982428</v>
       </c>
       <c r="K17" t="n">
-        <v>59.72393299398526</v>
+        <v>356.3727447091341</v>
       </c>
       <c r="L17" t="n">
-        <v>148.5315016673516</v>
+        <v>445.1803133825004</v>
       </c>
       <c r="M17" t="n">
-        <v>279.0164706471359</v>
+        <v>575.6652823622846</v>
       </c>
       <c r="N17" t="n">
-        <v>500.3342604723923</v>
+        <v>712.8754429368298</v>
       </c>
       <c r="O17" t="n">
-        <v>721.6520502976488</v>
+        <v>829.1038454978475</v>
       </c>
       <c r="P17" t="n">
         <v>893.8010971855909</v>
@@ -5548,19 +5548,19 @@
         <v>894.2132922232586</v>
       </c>
       <c r="U17" t="n">
-        <v>668.4018547931428</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="V17" t="n">
-        <v>442.590417363027</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="W17" t="n">
-        <v>442.590417363027</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="X17" t="n">
-        <v>442.590417363027</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="Y17" t="n">
-        <v>375.9816159145485</v>
+        <v>894.2132922232586</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>511.8435204356834</v>
+        <v>351.5747501310477</v>
       </c>
       <c r="C18" t="n">
-        <v>417.3417759381436</v>
+        <v>177.1217208499207</v>
       </c>
       <c r="D18" t="n">
-        <v>417.3417759381436</v>
+        <v>177.1217208499207</v>
       </c>
       <c r="E18" t="n">
-        <v>258.1043209326881</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="F18" t="n">
-        <v>258.1043209326881</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G18" t="n">
-        <v>120.4881533548595</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H18" t="n">
         <v>17.88426584446517</v>
@@ -5594,22 +5594,22 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J18" t="n">
-        <v>17.88426584446517</v>
+        <v>120.3601786590473</v>
       </c>
       <c r="K18" t="n">
-        <v>57.83218144019041</v>
+        <v>308.3638430783113</v>
       </c>
       <c r="L18" t="n">
-        <v>177.8419187292107</v>
+        <v>408.4012866309009</v>
       </c>
       <c r="M18" t="n">
-        <v>399.1597085544672</v>
+        <v>544.4971329676583</v>
       </c>
       <c r="N18" t="n">
-        <v>553.2662518936762</v>
+        <v>698.6036763068673</v>
       </c>
       <c r="O18" t="n">
-        <v>672.0238366933323</v>
+        <v>817.3612611065234</v>
       </c>
       <c r="P18" t="n">
         <v>893.3416265185888</v>
@@ -5618,28 +5618,28 @@
         <v>894.2132922232586</v>
       </c>
       <c r="R18" t="n">
-        <v>862.2503258320778</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="S18" t="n">
-        <v>709.5372617674795</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="T18" t="n">
-        <v>511.8435204356834</v>
+        <v>745.6015245812316</v>
       </c>
       <c r="U18" t="n">
-        <v>511.8435204356834</v>
+        <v>745.6015245812316</v>
       </c>
       <c r="V18" t="n">
-        <v>511.8435204356834</v>
+        <v>519.7900871511158</v>
       </c>
       <c r="W18" t="n">
-        <v>511.8435204356834</v>
+        <v>519.7900871511158</v>
       </c>
       <c r="X18" t="n">
-        <v>511.8435204356834</v>
+        <v>519.7900871511158</v>
       </c>
       <c r="Y18" t="n">
-        <v>511.8435204356834</v>
+        <v>519.7900871511158</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>566.7173071192348</v>
+        <v>312.6873069247687</v>
       </c>
       <c r="C19" t="n">
-        <v>566.7173071192348</v>
+        <v>312.6873069247687</v>
       </c>
       <c r="D19" t="n">
-        <v>566.7173071192348</v>
+        <v>312.6873069247687</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8042135368416</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="F19" t="n">
-        <v>271.9142660389313</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G19" t="n">
-        <v>271.9142660389313</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3569158755558</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I19" t="n">
         <v>17.88426584446517</v>
@@ -5676,13 +5676,13 @@
         <v>17.88426584446517</v>
       </c>
       <c r="K19" t="n">
-        <v>102.2478506535481</v>
+        <v>102.247850653548</v>
       </c>
       <c r="L19" t="n">
         <v>265.7306284464742</v>
       </c>
       <c r="M19" t="n">
-        <v>448.4894187467697</v>
+        <v>448.4894187467696</v>
       </c>
       <c r="N19" t="n">
         <v>632.3372299215587</v>
@@ -5694,31 +5694,31 @@
         <v>894.2132922232586</v>
       </c>
       <c r="Q19" t="n">
-        <v>885.4318611792464</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="R19" t="n">
-        <v>748.3657719494745</v>
+        <v>757.1472029934866</v>
       </c>
       <c r="S19" t="n">
-        <v>748.3657719494745</v>
+        <v>757.1472029934866</v>
       </c>
       <c r="T19" t="n">
-        <v>748.3657719494745</v>
+        <v>531.3357655633708</v>
       </c>
       <c r="U19" t="n">
-        <v>748.3657719494745</v>
+        <v>531.3357655633708</v>
       </c>
       <c r="V19" t="n">
-        <v>748.3657719494745</v>
+        <v>494.3357717550084</v>
       </c>
       <c r="W19" t="n">
-        <v>748.3657719494745</v>
+        <v>494.3357717550084</v>
       </c>
       <c r="X19" t="n">
-        <v>748.3657719494745</v>
+        <v>494.3357717550084</v>
       </c>
       <c r="Y19" t="n">
-        <v>748.3657719494745</v>
+        <v>494.3357717550084</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>278.9319801649382</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="C20" t="n">
-        <v>278.9319801649382</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="D20" t="n">
-        <v>278.9319801649382</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="E20" t="n">
-        <v>278.9319801649382</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="F20" t="n">
-        <v>278.9319801649382</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G20" t="n">
-        <v>278.9319801649382</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H20" t="n">
-        <v>53.12054273482235</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I20" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J20" t="n">
-        <v>179.3523629982428</v>
+        <v>104.3412368063083</v>
       </c>
       <c r="K20" t="n">
-        <v>221.1920301477629</v>
+        <v>146.1809039558284</v>
       </c>
       <c r="L20" t="n">
-        <v>442.5098199730194</v>
+        <v>234.9884726291947</v>
       </c>
       <c r="M20" t="n">
-        <v>572.9947889528037</v>
+        <v>365.473441608979</v>
       </c>
       <c r="N20" t="n">
-        <v>710.2049495273488</v>
+        <v>502.6836021835242</v>
       </c>
       <c r="O20" t="n">
-        <v>829.1038454978475</v>
+        <v>618.9120047445418</v>
       </c>
       <c r="P20" t="n">
-        <v>893.8010971855909</v>
+        <v>683.6092564322853</v>
       </c>
       <c r="Q20" t="n">
         <v>894.2132922232586</v>
       </c>
       <c r="R20" t="n">
-        <v>894.2132922232586</v>
+        <v>873.6947423127452</v>
       </c>
       <c r="S20" t="n">
-        <v>730.5548550251698</v>
+        <v>710.0363051146564</v>
       </c>
       <c r="T20" t="n">
-        <v>730.5548550251698</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="U20" t="n">
-        <v>730.5548550251698</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="V20" t="n">
-        <v>504.743417595054</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="W20" t="n">
-        <v>504.743417595054</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="X20" t="n">
-        <v>504.743417595054</v>
+        <v>42.18368449955776</v>
       </c>
       <c r="Y20" t="n">
-        <v>278.9319801649382</v>
+        <v>42.18368449955776</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>307.8372905230117</v>
+        <v>192.3372951255922</v>
       </c>
       <c r="C21" t="n">
-        <v>133.3842612418847</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="D21" t="n">
-        <v>133.3842612418847</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="E21" t="n">
         <v>17.88426584446517</v>
@@ -5831,25 +5831,25 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J21" t="n">
-        <v>60.43941262409558</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="K21" t="n">
-        <v>100.3873282198208</v>
+        <v>205.803638052711</v>
       </c>
       <c r="L21" t="n">
-        <v>200.4247717724104</v>
+        <v>305.8410816053006</v>
       </c>
       <c r="M21" t="n">
-        <v>336.5206181091678</v>
+        <v>441.936927942058</v>
       </c>
       <c r="N21" t="n">
-        <v>490.6271614483767</v>
+        <v>596.043471281267</v>
       </c>
       <c r="O21" t="n">
-        <v>609.3847462480328</v>
+        <v>817.3612611065234</v>
       </c>
       <c r="P21" t="n">
-        <v>685.3651116600981</v>
+        <v>893.3416265185888</v>
       </c>
       <c r="Q21" t="n">
         <v>894.2132922232586</v>
@@ -5858,25 +5858,25 @@
         <v>894.2132922232586</v>
       </c>
       <c r="S21" t="n">
-        <v>741.5002281586603</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="T21" t="n">
-        <v>741.5002281586603</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="U21" t="n">
-        <v>741.5002281586603</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="V21" t="n">
-        <v>741.5002281586603</v>
+        <v>442.590417363027</v>
       </c>
       <c r="W21" t="n">
-        <v>515.6887907285445</v>
+        <v>442.590417363027</v>
       </c>
       <c r="X21" t="n">
-        <v>307.8372905230117</v>
+        <v>400.0975938905461</v>
       </c>
       <c r="Y21" t="n">
-        <v>307.8372905230117</v>
+        <v>192.3372951255922</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>786.9390807283798</v>
+        <v>491.7722482494887</v>
       </c>
       <c r="C22" t="n">
-        <v>618.002897800473</v>
+        <v>322.8360653215818</v>
       </c>
       <c r="D22" t="n">
-        <v>618.002897800473</v>
+        <v>322.8360653215818</v>
       </c>
       <c r="E22" t="n">
-        <v>618.002897800473</v>
+        <v>322.8360653215818</v>
       </c>
       <c r="F22" t="n">
-        <v>471.1129503025626</v>
+        <v>175.9461178236715</v>
       </c>
       <c r="G22" t="n">
-        <v>302.3595840536255</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H22" t="n">
-        <v>146.8022338902501</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I22" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J22" t="n">
-        <v>17.88426584446517</v>
+        <v>17.8842658444652</v>
       </c>
       <c r="K22" t="n">
         <v>102.247850653548</v>
@@ -5946,16 +5946,16 @@
         <v>894.2132922232586</v>
       </c>
       <c r="V22" t="n">
-        <v>786.9390807283798</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="W22" t="n">
-        <v>786.9390807283798</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="X22" t="n">
-        <v>786.9390807283798</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="Y22" t="n">
-        <v>786.9390807283798</v>
+        <v>673.4207130797284</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.1265642983545</v>
+        <v>1218.900721686206</v>
       </c>
       <c r="C23" t="n">
-        <v>53.16404735794277</v>
+        <v>849.9382047457946</v>
       </c>
       <c r="D23" t="n">
-        <v>53.16404735794277</v>
+        <v>849.9382047457946</v>
       </c>
       <c r="E23" t="n">
-        <v>53.16404735794277</v>
+        <v>464.1499521475503</v>
       </c>
       <c r="F23" t="n">
         <v>53.16404735794277</v>
@@ -5989,25 +5989,25 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J23" t="n">
-        <v>53.16404735794277</v>
+        <v>214.6321445117204</v>
       </c>
       <c r="K23" t="n">
-        <v>415.907672952916</v>
+        <v>577.3757701066936</v>
       </c>
       <c r="L23" t="n">
-        <v>918.1998440312283</v>
+        <v>1079.667941185006</v>
       </c>
       <c r="M23" t="n">
-        <v>1493.703211168917</v>
+        <v>1433.889616742973</v>
       </c>
       <c r="N23" t="n">
-        <v>2063.886826911326</v>
+        <v>1571.099777317518</v>
       </c>
       <c r="O23" t="n">
-        <v>2557.107408922462</v>
+        <v>2064.320359328654</v>
       </c>
       <c r="P23" t="n">
-        <v>2657.790172859471</v>
+        <v>2447.598332106165</v>
       </c>
       <c r="Q23" t="n">
         <v>2658.202367897139</v>
@@ -6028,13 +6028,13 @@
         <v>1673.014912916847</v>
       </c>
       <c r="W23" t="n">
-        <v>1320.246257646733</v>
+        <v>1673.014912916847</v>
       </c>
       <c r="X23" t="n">
-        <v>946.7804993856532</v>
+        <v>1605.500561750328</v>
       </c>
       <c r="Y23" t="n">
-        <v>556.6411674098415</v>
+        <v>1605.500561750328</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>155.6399601725249</v>
       </c>
       <c r="K24" t="n">
-        <v>195.5878757682501</v>
+        <v>457.408460410703</v>
       </c>
       <c r="L24" t="n">
-        <v>662.7572611712643</v>
+        <v>924.5778458137172</v>
       </c>
       <c r="M24" t="n">
-        <v>1259.901120620522</v>
+        <v>1310.682602229392</v>
       </c>
       <c r="N24" t="n">
-        <v>1888.556614559849</v>
+        <v>1939.338096168719</v>
       </c>
       <c r="O24" t="n">
-        <v>2397.237895443467</v>
+        <v>2058.095680968375</v>
       </c>
       <c r="P24" t="n">
-        <v>2657.330702192469</v>
+        <v>2449.354187333978</v>
       </c>
       <c r="Q24" t="n">
         <v>2658.202367897139</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>372.2168696981854</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="C25" t="n">
-        <v>203.2806867702785</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="D25" t="n">
-        <v>53.16404735794277</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="E25" t="n">
-        <v>53.16404735794277</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="F25" t="n">
-        <v>53.16404735794277</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="G25" t="n">
         <v>53.16404735794277</v>
@@ -6183,16 +6183,16 @@
         <v>792.4269845069641</v>
       </c>
       <c r="V25" t="n">
-        <v>792.4269845069641</v>
+        <v>631.555429335137</v>
       </c>
       <c r="W25" t="n">
-        <v>792.4269845069641</v>
+        <v>631.555429335137</v>
       </c>
       <c r="X25" t="n">
-        <v>774.6579136719553</v>
+        <v>403.5658784371196</v>
       </c>
       <c r="Y25" t="n">
-        <v>553.8653345284251</v>
+        <v>403.5658784371196</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1583.594941246951</v>
+        <v>1528.694540587091</v>
       </c>
       <c r="C26" t="n">
-        <v>1214.632424306539</v>
+        <v>1528.694540587091</v>
       </c>
       <c r="D26" t="n">
-        <v>856.3667256997888</v>
+        <v>1170.42884198034</v>
       </c>
       <c r="E26" t="n">
-        <v>470.5784731015446</v>
+        <v>1170.42884198034</v>
       </c>
       <c r="F26" t="n">
-        <v>470.5784731015446</v>
+        <v>759.4429371907329</v>
       </c>
       <c r="G26" t="n">
-        <v>53.16404735794277</v>
+        <v>342.0285114471311</v>
       </c>
       <c r="H26" t="n">
         <v>53.16404735794277</v>
@@ -6226,22 +6226,22 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J26" t="n">
-        <v>53.16404735794277</v>
+        <v>89.14955960720829</v>
       </c>
       <c r="K26" t="n">
-        <v>415.907672952916</v>
+        <v>451.8931852021815</v>
       </c>
       <c r="L26" t="n">
-        <v>918.1998440312283</v>
+        <v>954.1853562804938</v>
       </c>
       <c r="M26" t="n">
-        <v>1493.703211168917</v>
+        <v>1529.688723418182</v>
       </c>
       <c r="N26" t="n">
-        <v>2063.886826911326</v>
+        <v>2099.872339160592</v>
       </c>
       <c r="O26" t="n">
-        <v>2557.107408922462</v>
+        <v>2593.092921171728</v>
       </c>
       <c r="P26" t="n">
         <v>2657.790172859471</v>
@@ -6250,28 +6250,28 @@
         <v>2658.202367897139</v>
       </c>
       <c r="R26" t="n">
-        <v>2637.683817986625</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="S26" t="n">
-        <v>2474.025380788536</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="T26" t="n">
-        <v>2257.795635033669</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="U26" t="n">
-        <v>2004.077800260418</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="V26" t="n">
-        <v>1673.014912916847</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="W26" t="n">
-        <v>1583.594941246951</v>
+        <v>2305.433712627024</v>
       </c>
       <c r="X26" t="n">
-        <v>1583.594941246951</v>
+        <v>2305.433712627024</v>
       </c>
       <c r="Y26" t="n">
-        <v>1583.594941246951</v>
+        <v>1915.294380651213</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>974.4657096480562</v>
+        <v>974.4657096480555</v>
       </c>
       <c r="C27" t="n">
-        <v>800.0126803669292</v>
+        <v>800.0126803669285</v>
       </c>
       <c r="D27" t="n">
-        <v>651.0782707056779</v>
+        <v>651.0782707056774</v>
       </c>
       <c r="E27" t="n">
-        <v>491.8408157002224</v>
+        <v>491.8408157002218</v>
       </c>
       <c r="F27" t="n">
-        <v>345.3062577271074</v>
+        <v>345.3062577271069</v>
       </c>
       <c r="G27" t="n">
-        <v>207.6900901492788</v>
+        <v>207.6900901492786</v>
       </c>
       <c r="H27" t="n">
-        <v>105.0862026388845</v>
+        <v>105.0862026388847</v>
       </c>
       <c r="I27" t="n">
         <v>53.16404735794277</v>
       </c>
       <c r="J27" t="n">
-        <v>53.16404735794277</v>
+        <v>155.6399601725249</v>
       </c>
       <c r="K27" t="n">
-        <v>93.11196295366801</v>
+        <v>457.408460410703</v>
       </c>
       <c r="L27" t="n">
-        <v>531.5915615546634</v>
+        <v>924.5778458137172</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.735421003921</v>
+        <v>1060.673692150475</v>
       </c>
       <c r="N27" t="n">
-        <v>1757.390914943248</v>
+        <v>1689.329186089802</v>
       </c>
       <c r="O27" t="n">
-        <v>2266.072195826866</v>
+        <v>2198.01046697342</v>
       </c>
       <c r="P27" t="n">
-        <v>2657.330702192469</v>
+        <v>2589.268973339023</v>
       </c>
       <c r="Q27" t="n">
         <v>2658.202367897139</v>
@@ -6332,22 +6332,22 @@
         <v>2626.239401505958</v>
       </c>
       <c r="S27" t="n">
-        <v>2473.52633744136</v>
+        <v>2473.526337441359</v>
       </c>
       <c r="T27" t="n">
-        <v>2275.832596109564</v>
+        <v>2275.832596109563</v>
       </c>
       <c r="U27" t="n">
         <v>2047.682310598555</v>
       </c>
       <c r="V27" t="n">
-        <v>1812.530202366813</v>
+        <v>1812.530202366812</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.292845638611</v>
+        <v>1558.29284563861</v>
       </c>
       <c r="X27" t="n">
-        <v>1350.441345433078</v>
+        <v>1350.441345433077</v>
       </c>
       <c r="Y27" t="n">
         <v>1142.681046668124</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>681.516319046773</v>
+        <v>666.8370940995192</v>
       </c>
       <c r="C28" t="n">
-        <v>681.516319046773</v>
+        <v>666.8370940995192</v>
       </c>
       <c r="D28" t="n">
-        <v>681.516319046773</v>
+        <v>516.7204546871834</v>
       </c>
       <c r="E28" t="n">
-        <v>681.516319046773</v>
+        <v>368.8073611047903</v>
       </c>
       <c r="F28" t="n">
-        <v>534.6263715488626</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="G28" t="n">
-        <v>365.8730052999254</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="H28" t="n">
-        <v>210.31565513655</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="I28" t="n">
-        <v>81.39768709076507</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="J28" t="n">
         <v>53.16404735794277</v>
@@ -6414,22 +6414,22 @@
         <v>929.4930737367362</v>
       </c>
       <c r="T28" t="n">
-        <v>929.4930737367362</v>
+        <v>921.521582305406</v>
       </c>
       <c r="U28" t="n">
-        <v>929.4930737367362</v>
+        <v>921.521582305406</v>
       </c>
       <c r="V28" t="n">
-        <v>929.4930737367362</v>
+        <v>666.8370940995192</v>
       </c>
       <c r="W28" t="n">
-        <v>902.3088981903031</v>
+        <v>666.8370940995192</v>
       </c>
       <c r="X28" t="n">
-        <v>902.3088981903031</v>
+        <v>666.8370940995192</v>
       </c>
       <c r="Y28" t="n">
-        <v>681.516319046773</v>
+        <v>666.8370940995192</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1947.186686984112</v>
+        <v>1487.478887685612</v>
       </c>
       <c r="C29" t="n">
-        <v>1947.186686984112</v>
+        <v>1208.203903352545</v>
       </c>
       <c r="D29" t="n">
-        <v>1588.920988377362</v>
+        <v>849.9382047457946</v>
       </c>
       <c r="E29" t="n">
-        <v>1203.132735779117</v>
+        <v>464.1499521475503</v>
       </c>
       <c r="F29" t="n">
-        <v>792.1468309895099</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="G29" t="n">
-        <v>374.732405245908</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="H29" t="n">
         <v>53.16404735794277</v>
@@ -6463,52 +6463,52 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J29" t="n">
-        <v>214.6321445117204</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="K29" t="n">
-        <v>577.3757701066936</v>
+        <v>415.907672952916</v>
       </c>
       <c r="L29" t="n">
-        <v>1079.667941185006</v>
+        <v>918.1998440312283</v>
       </c>
       <c r="M29" t="n">
-        <v>1655.171308322694</v>
+        <v>1493.703211168917</v>
       </c>
       <c r="N29" t="n">
-        <v>2225.354924065104</v>
+        <v>2063.886826911326</v>
       </c>
       <c r="O29" t="n">
-        <v>2382.901080418422</v>
+        <v>2557.107408922462</v>
       </c>
       <c r="P29" t="n">
-        <v>2447.598332106165</v>
+        <v>2621.804660610206</v>
       </c>
       <c r="Q29" t="n">
         <v>2658.202367897139</v>
       </c>
       <c r="R29" t="n">
-        <v>2658.202367897139</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="S29" t="n">
-        <v>2591.043853733176</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="T29" t="n">
-        <v>2591.043853733176</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="U29" t="n">
-        <v>2337.326018959924</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="V29" t="n">
-        <v>2337.326018959924</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="W29" t="n">
-        <v>2337.326018959924</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="X29" t="n">
-        <v>2337.326018959924</v>
+        <v>2264.218059725546</v>
       </c>
       <c r="Y29" t="n">
-        <v>1947.186686984112</v>
+        <v>1874.078727749734</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>974.4657096480562</v>
+        <v>974.4657096480565</v>
       </c>
       <c r="C30" t="n">
-        <v>800.0126803669292</v>
+        <v>800.0126803669295</v>
       </c>
       <c r="D30" t="n">
-        <v>651.0782707056779</v>
+        <v>651.0782707056783</v>
       </c>
       <c r="E30" t="n">
-        <v>491.8408157002224</v>
+        <v>491.8408157002227</v>
       </c>
       <c r="F30" t="n">
-        <v>345.3062577271074</v>
+        <v>345.3062577271077</v>
       </c>
       <c r="G30" t="n">
-        <v>207.6900901492788</v>
+        <v>207.690090149279</v>
       </c>
       <c r="H30" t="n">
         <v>105.0862026388847</v>
@@ -6542,25 +6542,25 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J30" t="n">
-        <v>53.16404735794277</v>
+        <v>155.6399601725249</v>
       </c>
       <c r="K30" t="n">
-        <v>93.11196295366801</v>
+        <v>195.5878757682501</v>
       </c>
       <c r="L30" t="n">
-        <v>560.2813483566822</v>
+        <v>662.7572611712643</v>
       </c>
       <c r="M30" t="n">
-        <v>1157.425207805939</v>
+        <v>1259.901120620522</v>
       </c>
       <c r="N30" t="n">
-        <v>1786.080701745266</v>
+        <v>1888.556614559849</v>
       </c>
       <c r="O30" t="n">
-        <v>2266.072195826866</v>
+        <v>2397.237895443467</v>
       </c>
       <c r="P30" t="n">
-        <v>2657.330702192469</v>
+        <v>2473.218260855532</v>
       </c>
       <c r="Q30" t="n">
         <v>2658.202367897139</v>
@@ -6587,7 +6587,7 @@
         <v>1350.441345433078</v>
       </c>
       <c r="Y30" t="n">
-        <v>1142.681046668124</v>
+        <v>1142.681046668125</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1888.102469196783</v>
+        <v>516.7204546871834</v>
       </c>
       <c r="C31" t="n">
-        <v>1888.102469196783</v>
+        <v>516.7204546871834</v>
       </c>
       <c r="D31" t="n">
-        <v>1781.873341518346</v>
+        <v>516.7204546871834</v>
       </c>
       <c r="E31" t="n">
-        <v>1781.873341518346</v>
+        <v>368.8073611047903</v>
       </c>
       <c r="F31" t="n">
-        <v>1781.873341518346</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="G31" t="n">
-        <v>1781.873341518346</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="H31" t="n">
-        <v>1781.873341518346</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="I31" t="n">
-        <v>1781.873341518346</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="J31" t="n">
-        <v>1781.873341518346</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="K31" t="n">
-        <v>1866.236926327428</v>
+        <v>137.5276321670256</v>
       </c>
       <c r="L31" t="n">
-        <v>2029.719704120354</v>
+        <v>301.0104099599517</v>
       </c>
       <c r="M31" t="n">
-        <v>2212.47849442065</v>
+        <v>483.7692002602472</v>
       </c>
       <c r="N31" t="n">
-        <v>2396.326305595439</v>
+        <v>667.6170114350363</v>
       </c>
       <c r="O31" t="n">
-        <v>2550.123220331383</v>
+        <v>821.4139261709809</v>
       </c>
       <c r="P31" t="n">
-        <v>2658.202367897139</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2658.202367897139</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="R31" t="n">
-        <v>2658.202367897139</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="S31" t="n">
-        <v>2658.202367897139</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="T31" t="n">
-        <v>2431.947125892862</v>
+        <v>805.8806231773756</v>
       </c>
       <c r="U31" t="n">
-        <v>2142.786957402669</v>
+        <v>516.7204546871834</v>
       </c>
       <c r="V31" t="n">
-        <v>1888.102469196783</v>
+        <v>516.7204546871834</v>
       </c>
       <c r="W31" t="n">
-        <v>1888.102469196783</v>
+        <v>516.7204546871834</v>
       </c>
       <c r="X31" t="n">
-        <v>1888.102469196783</v>
+        <v>516.7204546871834</v>
       </c>
       <c r="Y31" t="n">
-        <v>1888.102469196783</v>
+        <v>516.7204546871834</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1187.364252355863</v>
+        <v>1267.352630489396</v>
       </c>
       <c r="C32" t="n">
-        <v>924.4327436294773</v>
+        <v>1267.352630489396</v>
       </c>
       <c r="D32" t="n">
-        <v>924.4327436294773</v>
+        <v>1267.352630489396</v>
       </c>
       <c r="E32" t="n">
-        <v>924.4327436294773</v>
+        <v>881.5643778911522</v>
       </c>
       <c r="F32" t="n">
-        <v>924.4327436294773</v>
+        <v>470.5784731015446</v>
       </c>
       <c r="G32" t="n">
-        <v>507.0183178858755</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="H32" t="n">
-        <v>185.4499599979102</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="I32" t="n">
         <v>53.16404735794277</v>
@@ -6709,43 +6709,43 @@
         <v>1079.667941185006</v>
       </c>
       <c r="M32" t="n">
-        <v>1655.171308322694</v>
+        <v>1433.889616742973</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.354924065104</v>
+        <v>1571.099777317518</v>
       </c>
       <c r="O32" t="n">
-        <v>2593.092921171728</v>
+        <v>2064.320359328654</v>
       </c>
       <c r="P32" t="n">
-        <v>2657.790172859471</v>
+        <v>2447.598332106165</v>
       </c>
       <c r="Q32" t="n">
         <v>2658.202367897139</v>
       </c>
       <c r="R32" t="n">
-        <v>2637.683817986625</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="S32" t="n">
-        <v>2474.025380788536</v>
+        <v>2628.872524646152</v>
       </c>
       <c r="T32" t="n">
-        <v>2257.795635033669</v>
+        <v>2628.872524646152</v>
       </c>
       <c r="U32" t="n">
-        <v>2257.795635033669</v>
+        <v>2375.154689872901</v>
       </c>
       <c r="V32" t="n">
-        <v>1926.732747690099</v>
+        <v>2044.09180252933</v>
       </c>
       <c r="W32" t="n">
-        <v>1573.964092419985</v>
+        <v>2044.09180252933</v>
       </c>
       <c r="X32" t="n">
-        <v>1573.964092419985</v>
+        <v>2044.09180252933</v>
       </c>
       <c r="Y32" t="n">
-        <v>1573.964092419985</v>
+        <v>1653.952470553518</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>974.4657096480562</v>
+        <v>974.4657096480555</v>
       </c>
       <c r="C33" t="n">
-        <v>800.0126803669292</v>
+        <v>800.0126803669285</v>
       </c>
       <c r="D33" t="n">
-        <v>651.0782707056779</v>
+        <v>651.0782707056774</v>
       </c>
       <c r="E33" t="n">
-        <v>491.8408157002224</v>
+        <v>491.8408157002218</v>
       </c>
       <c r="F33" t="n">
-        <v>345.3062577271077</v>
+        <v>345.3062577271069</v>
       </c>
       <c r="G33" t="n">
-        <v>207.690090149279</v>
+        <v>207.6900901492786</v>
       </c>
       <c r="H33" t="n">
         <v>105.0862026388847</v>
@@ -6791,13 +6791,13 @@
         <v>1157.425207805939</v>
       </c>
       <c r="N33" t="n">
-        <v>1549.414400084757</v>
+        <v>1786.080701745266</v>
       </c>
       <c r="O33" t="n">
-        <v>2058.095680968375</v>
+        <v>2294.761982628885</v>
       </c>
       <c r="P33" t="n">
-        <v>2449.354187333978</v>
+        <v>2657.330702192469</v>
       </c>
       <c r="Q33" t="n">
         <v>2658.202367897139</v>
@@ -6806,22 +6806,22 @@
         <v>2626.239401505958</v>
       </c>
       <c r="S33" t="n">
-        <v>2473.52633744136</v>
+        <v>2473.526337441359</v>
       </c>
       <c r="T33" t="n">
-        <v>2275.832596109564</v>
+        <v>2275.832596109563</v>
       </c>
       <c r="U33" t="n">
         <v>2047.682310598555</v>
       </c>
       <c r="V33" t="n">
-        <v>1812.530202366813</v>
+        <v>1812.530202366812</v>
       </c>
       <c r="W33" t="n">
-        <v>1558.292845638611</v>
+        <v>1558.29284563861</v>
       </c>
       <c r="X33" t="n">
-        <v>1350.441345433078</v>
+        <v>1350.441345433077</v>
       </c>
       <c r="Y33" t="n">
         <v>1142.681046668124</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>484.5293130650134</v>
+        <v>385.6484170406571</v>
       </c>
       <c r="C34" t="n">
-        <v>484.5293130650134</v>
+        <v>385.6484170406571</v>
       </c>
       <c r="D34" t="n">
-        <v>484.5293130650134</v>
+        <v>385.6484170406571</v>
       </c>
       <c r="E34" t="n">
-        <v>484.5293130650134</v>
+        <v>237.735323458264</v>
       </c>
       <c r="F34" t="n">
-        <v>337.6393655671031</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="G34" t="n">
-        <v>337.6393655671031</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="H34" t="n">
-        <v>182.0820154037277</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="I34" t="n">
         <v>53.16404735794277</v>
@@ -6891,19 +6891,19 @@
         <v>929.4930737367362</v>
       </c>
       <c r="U34" t="n">
-        <v>929.4930737367362</v>
+        <v>640.332905246544</v>
       </c>
       <c r="V34" t="n">
-        <v>929.4930737367362</v>
+        <v>385.6484170406571</v>
       </c>
       <c r="W34" t="n">
-        <v>640.0759036997756</v>
+        <v>385.6484170406571</v>
       </c>
       <c r="X34" t="n">
-        <v>640.0759036997756</v>
+        <v>385.6484170406571</v>
       </c>
       <c r="Y34" t="n">
-        <v>640.0759036997756</v>
+        <v>385.6484170406571</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1153.622296789295</v>
+        <v>316.5524428233036</v>
       </c>
       <c r="C35" t="n">
-        <v>1153.622296789295</v>
+        <v>316.5524428233036</v>
       </c>
       <c r="D35" t="n">
-        <v>1153.622296789295</v>
+        <v>316.5524428233036</v>
       </c>
       <c r="E35" t="n">
-        <v>767.8340441910505</v>
+        <v>316.5524428233036</v>
       </c>
       <c r="F35" t="n">
-        <v>356.8481394014428</v>
+        <v>316.5524428233036</v>
       </c>
       <c r="G35" t="n">
-        <v>356.8481394014428</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="H35" t="n">
         <v>35.2797815134776</v>
@@ -6943,46 +6943,46 @@
         <v>77.11944866299768</v>
       </c>
       <c r="L35" t="n">
-        <v>465.8246413217808</v>
+        <v>513.706744892283</v>
       </c>
       <c r="M35" t="n">
-        <v>596.309610301565</v>
+        <v>644.1917138720673</v>
       </c>
       <c r="N35" t="n">
-        <v>733.5197708761102</v>
+        <v>1080.779010101353</v>
       </c>
       <c r="O35" t="n">
-        <v>1170.107067105396</v>
+        <v>1197.00741266237</v>
       </c>
       <c r="P35" t="n">
-        <v>1553.385039882907</v>
+        <v>1580.285385439882</v>
       </c>
       <c r="Q35" t="n">
         <v>1763.98907567388</v>
       </c>
       <c r="R35" t="n">
-        <v>1743.470525763367</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="S35" t="n">
-        <v>1579.812088565278</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="T35" t="n">
-        <v>1484.685184132865</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="U35" t="n">
-        <v>1484.685184132865</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="V35" t="n">
-        <v>1153.622296789295</v>
+        <v>1432.926188330309</v>
       </c>
       <c r="W35" t="n">
-        <v>1153.622296789295</v>
+        <v>1080.157533060195</v>
       </c>
       <c r="X35" t="n">
-        <v>1153.622296789295</v>
+        <v>706.6917747991154</v>
       </c>
       <c r="Y35" t="n">
-        <v>1153.622296789295</v>
+        <v>316.5524428233036</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>277.9461587565934</v>
+        <v>630.8375262324405</v>
       </c>
       <c r="C36" t="n">
-        <v>277.9461587565934</v>
+        <v>630.8375262324405</v>
       </c>
       <c r="D36" t="n">
-        <v>172.8959490913062</v>
+        <v>630.8375262324405</v>
       </c>
       <c r="E36" t="n">
-        <v>172.8959490913062</v>
+        <v>471.600071226985</v>
       </c>
       <c r="F36" t="n">
-        <v>172.8959490913062</v>
+        <v>325.06551325387</v>
       </c>
       <c r="G36" t="n">
-        <v>35.2797815134776</v>
+        <v>187.4493456760414</v>
       </c>
       <c r="H36" t="n">
-        <v>35.2797815134776</v>
+        <v>84.8454581656471</v>
       </c>
       <c r="I36" t="n">
         <v>35.2797815134776</v>
       </c>
       <c r="J36" t="n">
-        <v>137.7556943280597</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="K36" t="n">
-        <v>177.703609923785</v>
+        <v>75.22769710920284</v>
       </c>
       <c r="L36" t="n">
-        <v>614.2909061530703</v>
+        <v>511.8149933384881</v>
       </c>
       <c r="M36" t="n">
-        <v>781.1650640351128</v>
+        <v>948.4022895677734</v>
       </c>
       <c r="N36" t="n">
-        <v>935.2716073743218</v>
+        <v>1253.101318803951</v>
       </c>
       <c r="O36" t="n">
         <v>1371.858903603607</v>
@@ -7040,28 +7040,28 @@
         <v>1763.98907567388</v>
       </c>
       <c r="R36" t="n">
-        <v>1732.026109282699</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="S36" t="n">
-        <v>1579.313045218101</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="T36" t="n">
-        <v>1579.313045218101</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="U36" t="n">
-        <v>1351.162759707092</v>
+        <v>1535.838790162871</v>
       </c>
       <c r="V36" t="n">
-        <v>1116.01065147535</v>
+        <v>1300.686681931129</v>
       </c>
       <c r="W36" t="n">
-        <v>861.7732947471482</v>
+        <v>1046.449325202927</v>
       </c>
       <c r="X36" t="n">
-        <v>653.9217945416153</v>
+        <v>838.5978249973944</v>
       </c>
       <c r="Y36" t="n">
-        <v>446.1614957766614</v>
+        <v>630.8375262324405</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>338.2937262255144</v>
+        <v>204.0331477624147</v>
       </c>
       <c r="C37" t="n">
         <v>204.0331477624147</v>
@@ -7119,28 +7119,28 @@
         <v>911.608807892271</v>
       </c>
       <c r="R37" t="n">
-        <v>774.5427186624991</v>
+        <v>911.608807892271</v>
       </c>
       <c r="S37" t="n">
-        <v>564.5489682297916</v>
+        <v>911.608807892271</v>
       </c>
       <c r="T37" t="n">
-        <v>338.2937262255144</v>
+        <v>685.3535658879938</v>
       </c>
       <c r="U37" t="n">
-        <v>338.2937262255144</v>
+        <v>679.5102151118317</v>
       </c>
       <c r="V37" t="n">
-        <v>338.2937262255144</v>
+        <v>424.8257269059449</v>
       </c>
       <c r="W37" t="n">
-        <v>338.2937262255144</v>
+        <v>424.8257269059449</v>
       </c>
       <c r="X37" t="n">
-        <v>338.2937262255144</v>
+        <v>424.8257269059449</v>
       </c>
       <c r="Y37" t="n">
-        <v>338.2937262255144</v>
+        <v>204.0331477624147</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>452.6942072570794</v>
+        <v>1390.701870493252</v>
       </c>
       <c r="C38" t="n">
-        <v>452.6942072570794</v>
+        <v>1221.945810653438</v>
       </c>
       <c r="D38" t="n">
-        <v>452.6942072570794</v>
+        <v>863.680112046687</v>
       </c>
       <c r="E38" t="n">
-        <v>452.6942072570794</v>
+        <v>863.680112046687</v>
       </c>
       <c r="F38" t="n">
         <v>452.6942072570794</v>
@@ -7177,22 +7177,22 @@
         <v>196.7478786672552</v>
       </c>
       <c r="K38" t="n">
-        <v>238.5875458167753</v>
+        <v>559.4915042622283</v>
       </c>
       <c r="L38" t="n">
-        <v>675.1748420460606</v>
+        <v>648.2990729355947</v>
       </c>
       <c r="M38" t="n">
-        <v>805.6598110258449</v>
+        <v>778.784041915379</v>
       </c>
       <c r="N38" t="n">
-        <v>1242.24710725513</v>
+        <v>915.9942024899242</v>
       </c>
       <c r="O38" t="n">
-        <v>1380.298907858701</v>
+        <v>1170.107067105396</v>
       </c>
       <c r="P38" t="n">
-        <v>1763.576880636213</v>
+        <v>1553.385039882907</v>
       </c>
       <c r="Q38" t="n">
         <v>1763.98907567388</v>
@@ -7201,25 +7201,25 @@
         <v>1743.470525763367</v>
       </c>
       <c r="S38" t="n">
-        <v>1579.812088565278</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="T38" t="n">
-        <v>1363.582342810411</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="U38" t="n">
-        <v>1109.864508037159</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="V38" t="n">
-        <v>842.8335392328911</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="W38" t="n">
-        <v>842.8335392328911</v>
+        <v>1390.701870493252</v>
       </c>
       <c r="X38" t="n">
-        <v>842.8335392328911</v>
+        <v>1390.701870493252</v>
       </c>
       <c r="Y38" t="n">
-        <v>452.6942072570794</v>
+        <v>1390.701870493252</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>422.0343945748156</v>
+        <v>653.9217945416153</v>
       </c>
       <c r="C39" t="n">
-        <v>422.0343945748156</v>
+        <v>583.6717012684073</v>
       </c>
       <c r="D39" t="n">
-        <v>422.0343945748156</v>
+        <v>434.737291607156</v>
       </c>
       <c r="E39" t="n">
-        <v>422.0343945748156</v>
+        <v>275.4998366017005</v>
       </c>
       <c r="F39" t="n">
         <v>275.4998366017005</v>
@@ -7253,52 +7253,52 @@
         <v>35.2797815134776</v>
       </c>
       <c r="J39" t="n">
-        <v>35.2797815134776</v>
+        <v>137.7556943280597</v>
       </c>
       <c r="K39" t="n">
-        <v>75.22769710920284</v>
+        <v>439.5241945662378</v>
       </c>
       <c r="L39" t="n">
-        <v>511.8149933384881</v>
+        <v>876.1114907955232</v>
       </c>
       <c r="M39" t="n">
-        <v>647.9108396752455</v>
+        <v>1206.296401559789</v>
       </c>
       <c r="N39" t="n">
-        <v>935.2716073743218</v>
+        <v>1360.402944898998</v>
       </c>
       <c r="O39" t="n">
-        <v>1371.858903603607</v>
+        <v>1479.160529698654</v>
       </c>
       <c r="P39" t="n">
-        <v>1763.11740996921</v>
+        <v>1555.14089511072</v>
       </c>
       <c r="Q39" t="n">
         <v>1763.98907567388</v>
       </c>
       <c r="R39" t="n">
-        <v>1763.98907567388</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="S39" t="n">
-        <v>1611.276011609282</v>
+        <v>1579.313045218101</v>
       </c>
       <c r="T39" t="n">
-        <v>1413.582270277486</v>
+        <v>1579.313045218101</v>
       </c>
       <c r="U39" t="n">
-        <v>1185.431984766477</v>
+        <v>1351.162759707092</v>
       </c>
       <c r="V39" t="n">
-        <v>950.2798765347345</v>
+        <v>1116.01065147535</v>
       </c>
       <c r="W39" t="n">
-        <v>696.0425198065329</v>
+        <v>861.7732947471482</v>
       </c>
       <c r="X39" t="n">
-        <v>696.0425198065329</v>
+        <v>653.9217945416153</v>
       </c>
       <c r="Y39" t="n">
-        <v>488.282221041579</v>
+        <v>653.9217945416153</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.2797815134776</v>
+        <v>475.2758548561444</v>
       </c>
       <c r="C40" t="n">
-        <v>35.2797815134776</v>
+        <v>475.2758548561444</v>
       </c>
       <c r="D40" t="n">
-        <v>35.2797815134776</v>
+        <v>325.1592154438086</v>
       </c>
       <c r="E40" t="n">
-        <v>35.2797815134776</v>
+        <v>177.2461218614155</v>
       </c>
       <c r="F40" t="n">
         <v>35.2797815134776</v>
@@ -7359,25 +7359,25 @@
         <v>911.608807892271</v>
       </c>
       <c r="S40" t="n">
-        <v>701.6150574595636</v>
+        <v>911.608807892271</v>
       </c>
       <c r="T40" t="n">
-        <v>475.3598154552864</v>
+        <v>911.608807892271</v>
       </c>
       <c r="U40" t="n">
-        <v>475.3598154552864</v>
+        <v>911.608807892271</v>
       </c>
       <c r="V40" t="n">
-        <v>220.6753272493995</v>
+        <v>656.9243196863841</v>
       </c>
       <c r="W40" t="n">
-        <v>35.2797815134776</v>
+        <v>656.9243196863841</v>
       </c>
       <c r="X40" t="n">
-        <v>35.2797815134776</v>
+        <v>656.9243196863841</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.2797815134776</v>
+        <v>656.9243196863841</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1373.849743698068</v>
+        <v>920.7542899651339</v>
       </c>
       <c r="C41" t="n">
-        <v>1373.849743698068</v>
+        <v>863.680112046687</v>
       </c>
       <c r="D41" t="n">
-        <v>1373.849743698068</v>
+        <v>863.680112046687</v>
       </c>
       <c r="E41" t="n">
-        <v>988.061491099824</v>
+        <v>863.680112046687</v>
       </c>
       <c r="F41" t="n">
-        <v>906.5484777850122</v>
+        <v>452.6942072570794</v>
       </c>
       <c r="G41" t="n">
-        <v>489.1340520414103</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="H41" t="n">
-        <v>167.5656941534451</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="I41" t="n">
         <v>35.2797815134776</v>
@@ -7414,49 +7414,49 @@
         <v>196.7478786672552</v>
       </c>
       <c r="K41" t="n">
-        <v>559.4915042622283</v>
+        <v>238.5875458167753</v>
       </c>
       <c r="L41" t="n">
-        <v>996.0788004915137</v>
+        <v>327.3951144901416</v>
       </c>
       <c r="M41" t="n">
-        <v>1126.563769471298</v>
+        <v>763.982410719427</v>
       </c>
       <c r="N41" t="n">
-        <v>1563.151065700583</v>
+        <v>1200.569706948712</v>
       </c>
       <c r="O41" t="n">
-        <v>1698.879628948469</v>
+        <v>1316.79810950973</v>
       </c>
       <c r="P41" t="n">
-        <v>1763.576880636213</v>
+        <v>1553.385039882907</v>
       </c>
       <c r="Q41" t="n">
         <v>1763.98907567388</v>
       </c>
       <c r="R41" t="n">
-        <v>1763.98907567388</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="S41" t="n">
-        <v>1763.98907567388</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="T41" t="n">
-        <v>1763.98907567388</v>
+        <v>1527.2407800085</v>
       </c>
       <c r="U41" t="n">
-        <v>1763.98907567388</v>
+        <v>1273.522945235248</v>
       </c>
       <c r="V41" t="n">
-        <v>1763.98907567388</v>
+        <v>1273.522945235248</v>
       </c>
       <c r="W41" t="n">
-        <v>1763.98907567388</v>
+        <v>920.7542899651339</v>
       </c>
       <c r="X41" t="n">
-        <v>1763.98907567388</v>
+        <v>920.7542899651339</v>
       </c>
       <c r="Y41" t="n">
-        <v>1373.849743698068</v>
+        <v>920.7542899651339</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>264.9284478805764</v>
+        <v>802.0554010122549</v>
       </c>
       <c r="C42" t="n">
-        <v>264.9284478805764</v>
+        <v>627.602371731128</v>
       </c>
       <c r="D42" t="n">
-        <v>115.9940382193251</v>
+        <v>478.6679620698768</v>
       </c>
       <c r="E42" t="n">
-        <v>115.9940382193251</v>
+        <v>319.4305070644212</v>
       </c>
       <c r="F42" t="n">
-        <v>35.2797815134776</v>
+        <v>172.8959490913062</v>
       </c>
       <c r="G42" t="n">
         <v>35.2797815134776</v>
@@ -7490,52 +7490,52 @@
         <v>35.2797815134776</v>
       </c>
       <c r="J42" t="n">
-        <v>35.2797815134776</v>
+        <v>137.7556943280597</v>
       </c>
       <c r="K42" t="n">
-        <v>75.22769710920284</v>
+        <v>439.5241945662378</v>
       </c>
       <c r="L42" t="n">
-        <v>511.8149933384881</v>
+        <v>876.1114907955232</v>
       </c>
       <c r="M42" t="n">
-        <v>948.4022895677734</v>
+        <v>1206.296401559789</v>
       </c>
       <c r="N42" t="n">
-        <v>1384.989585797059</v>
+        <v>1360.402944898998</v>
       </c>
       <c r="O42" t="n">
-        <v>1687.137044557145</v>
+        <v>1479.160529698654</v>
       </c>
       <c r="P42" t="n">
-        <v>1763.11740996921</v>
+        <v>1555.14089511072</v>
       </c>
       <c r="Q42" t="n">
         <v>1763.98907567388</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.98907567388</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="S42" t="n">
-        <v>1763.98907567388</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="T42" t="n">
-        <v>1566.295334342084</v>
+        <v>1534.332367950903</v>
       </c>
       <c r="U42" t="n">
-        <v>1338.145048831075</v>
+        <v>1534.332367950903</v>
       </c>
       <c r="V42" t="n">
-        <v>1102.992940599333</v>
+        <v>1534.332367950903</v>
       </c>
       <c r="W42" t="n">
-        <v>848.7555838711312</v>
+        <v>1280.095011222702</v>
       </c>
       <c r="X42" t="n">
-        <v>640.9040836655984</v>
+        <v>1072.243511017169</v>
       </c>
       <c r="Y42" t="n">
-        <v>433.1437849006444</v>
+        <v>864.483212252215</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>509.2806658023849</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="C43" t="n">
-        <v>340.3444828744779</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="D43" t="n">
-        <v>340.3444828744779</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="E43" t="n">
-        <v>192.4313892920848</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="F43" t="n">
-        <v>192.4313892920848</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="G43" t="n">
-        <v>192.4313892920848</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="H43" t="n">
-        <v>192.4313892920848</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="I43" t="n">
-        <v>63.5134212462999</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="J43" t="n">
         <v>35.2797815134776</v>
@@ -7590,31 +7590,31 @@
         <v>911.608807892271</v>
       </c>
       <c r="Q43" t="n">
-        <v>902.8273768482588</v>
+        <v>911.608807892271</v>
       </c>
       <c r="R43" t="n">
-        <v>902.8273768482588</v>
+        <v>805.6366817606023</v>
       </c>
       <c r="S43" t="n">
-        <v>902.8273768482588</v>
+        <v>805.6366817606023</v>
       </c>
       <c r="T43" t="n">
-        <v>902.8273768482588</v>
+        <v>579.3814397563251</v>
       </c>
       <c r="U43" t="n">
-        <v>690.9291306326246</v>
+        <v>579.3814397563251</v>
       </c>
       <c r="V43" t="n">
-        <v>690.9291306326246</v>
+        <v>324.6969515504382</v>
       </c>
       <c r="W43" t="n">
-        <v>690.9291306326246</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="X43" t="n">
-        <v>690.9291306326246</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="Y43" t="n">
-        <v>690.9291306326246</v>
+        <v>35.2797815134776</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.2797815134776</v>
+        <v>1100.902090606437</v>
       </c>
       <c r="C44" t="n">
-        <v>35.2797815134776</v>
+        <v>1100.902090606437</v>
       </c>
       <c r="D44" t="n">
-        <v>35.2797815134776</v>
+        <v>742.636391999687</v>
       </c>
       <c r="E44" t="n">
-        <v>35.2797815134776</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="F44" t="n">
-        <v>35.2797815134776</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="G44" t="n">
-        <v>35.2797815134776</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="H44" t="n">
         <v>35.2797815134776</v>
@@ -7651,16 +7651,16 @@
         <v>196.7478786672552</v>
       </c>
       <c r="K44" t="n">
-        <v>559.4915042622283</v>
+        <v>253.6857522645678</v>
       </c>
       <c r="L44" t="n">
-        <v>996.0788004915137</v>
+        <v>690.2730484938531</v>
       </c>
       <c r="M44" t="n">
-        <v>1126.563769471298</v>
+        <v>1126.860344723138</v>
       </c>
       <c r="N44" t="n">
-        <v>1263.773930045843</v>
+        <v>1264.070505297684</v>
       </c>
       <c r="O44" t="n">
         <v>1380.298907858701</v>
@@ -7672,28 +7672,28 @@
         <v>1763.98907567388</v>
       </c>
       <c r="R44" t="n">
-        <v>1743.470525763367</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="S44" t="n">
-        <v>1579.812088565278</v>
+        <v>1600.330638475791</v>
       </c>
       <c r="T44" t="n">
-        <v>1363.582342810411</v>
+        <v>1600.330638475791</v>
       </c>
       <c r="U44" t="n">
-        <v>1151.653527020483</v>
+        <v>1600.330638475791</v>
       </c>
       <c r="V44" t="n">
-        <v>1151.653527020483</v>
+        <v>1600.330638475791</v>
       </c>
       <c r="W44" t="n">
-        <v>798.8848717503693</v>
+        <v>1600.330638475791</v>
       </c>
       <c r="X44" t="n">
-        <v>425.4191134892893</v>
+        <v>1491.041422582249</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.2797815134776</v>
+        <v>1100.902090606437</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>690.772474723381</v>
+        <v>655.52084303914</v>
       </c>
       <c r="C45" t="n">
-        <v>516.3194454422541</v>
+        <v>481.067813758013</v>
       </c>
       <c r="D45" t="n">
-        <v>367.3850357810028</v>
+        <v>332.1334040967617</v>
       </c>
       <c r="E45" t="n">
-        <v>208.1475807755473</v>
+        <v>172.8959490913062</v>
       </c>
       <c r="F45" t="n">
-        <v>208.1475807755473</v>
+        <v>172.8959490913062</v>
       </c>
       <c r="G45" t="n">
-        <v>70.53141319771868</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="H45" t="n">
-        <v>70.53141319771868</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="I45" t="n">
         <v>35.2797815134776</v>
@@ -7730,22 +7730,22 @@
         <v>35.2797815134776</v>
       </c>
       <c r="K45" t="n">
-        <v>337.0482817516557</v>
+        <v>75.22769710920284</v>
       </c>
       <c r="L45" t="n">
-        <v>773.635577980941</v>
+        <v>511.8149933384881</v>
       </c>
       <c r="M45" t="n">
-        <v>909.7314243176984</v>
+        <v>813.9624520985742</v>
       </c>
       <c r="N45" t="n">
-        <v>1063.837967656907</v>
+        <v>1250.54974832786</v>
       </c>
       <c r="O45" t="n">
-        <v>1182.595552456563</v>
+        <v>1687.137044557145</v>
       </c>
       <c r="P45" t="n">
-        <v>1555.14089511072</v>
+        <v>1763.11740996921</v>
       </c>
       <c r="Q45" t="n">
         <v>1763.98907567388</v>
@@ -7760,19 +7760,19 @@
         <v>1763.98907567388</v>
       </c>
       <c r="U45" t="n">
-        <v>1763.98907567388</v>
+        <v>1535.838790162871</v>
       </c>
       <c r="V45" t="n">
-        <v>1528.836967442137</v>
+        <v>1300.686681931129</v>
       </c>
       <c r="W45" t="n">
-        <v>1274.599610713936</v>
+        <v>1239.347979029695</v>
       </c>
       <c r="X45" t="n">
-        <v>1066.748110508403</v>
+        <v>1031.496478824162</v>
       </c>
       <c r="Y45" t="n">
-        <v>858.9878117434491</v>
+        <v>823.736180059208</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>204.0331477624147</v>
+        <v>396.1933973978016</v>
       </c>
       <c r="C46" t="n">
-        <v>204.0331477624147</v>
+        <v>396.1933973978016</v>
       </c>
       <c r="D46" t="n">
-        <v>204.0331477624147</v>
+        <v>330.0828225937811</v>
       </c>
       <c r="E46" t="n">
-        <v>204.0331477624147</v>
+        <v>182.169729011388</v>
       </c>
       <c r="F46" t="n">
-        <v>204.0331477624147</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="G46" t="n">
         <v>35.2797815134776</v>
@@ -7827,31 +7827,31 @@
         <v>911.608807892271</v>
       </c>
       <c r="Q46" t="n">
-        <v>902.8273768482588</v>
+        <v>911.608807892271</v>
       </c>
       <c r="R46" t="n">
-        <v>902.8273768482588</v>
+        <v>911.608807892271</v>
       </c>
       <c r="S46" t="n">
-        <v>902.8273768482588</v>
+        <v>911.608807892271</v>
       </c>
       <c r="T46" t="n">
-        <v>676.5721348439816</v>
+        <v>685.3535658879938</v>
       </c>
       <c r="U46" t="n">
-        <v>387.4119663537894</v>
+        <v>396.1933973978016</v>
       </c>
       <c r="V46" t="n">
-        <v>204.0331477624147</v>
+        <v>396.1933973978016</v>
       </c>
       <c r="W46" t="n">
-        <v>204.0331477624147</v>
+        <v>396.1933973978016</v>
       </c>
       <c r="X46" t="n">
-        <v>204.0331477624147</v>
+        <v>396.1933973978016</v>
       </c>
       <c r="Y46" t="n">
-        <v>204.0331477624147</v>
+        <v>396.1933973978016</v>
       </c>
     </row>
   </sheetData>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>93.32780083678642</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>133.8487082342324</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>2.697468090384853</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>122.5054002754211</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>27.04586116249696</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>149.5512614379179</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,7 +8850,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
         <v>162.4747015415544</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.997527137954989</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>136.5461763246174</v>
       </c>
       <c r="L14" t="n">
-        <v>87.33027369883141</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>22.58001229537638</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>183.2018931611427</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>69.86039132180784</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>149.5512614379179</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.997527137954989</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>136.5461763246174</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,13 +9175,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>84.95720126334481</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>106.1508962265039</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>108.5371668688876</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>22.58001229537638</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>149.551261437918</v>
       </c>
       <c r="L18" t="n">
-        <v>20.17403407720273</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>86.08277120050417</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>146.8054792052436</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>93.32780083678642</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>133.8487082342324</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.697468090384831</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.5650090424778</v>
+        <v>22.58001229537638</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>149.4661177904248</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>103.5961666925257</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.997527137954989</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,19 +9646,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>225.996673311296</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>36.34900227198541</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>252.5342526049668</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>185.9721629666025</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.997527137954989</v>
+        <v>42.34652940994036</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>36.34900227198541</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>22.58001229537638</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>341.8607626751573</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>68.74922106408621</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954989</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10126,13 +10126,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>41.73510484070752</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>36.34900227198519</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>22.58001229537638</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>364.8827366484277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>185.9721629666026</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10357,19 +10357,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>225.996673311296</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>254.0500955006123</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>240.2855039794023</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>289.4831860116352</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>302.9268929145624</v>
+        <v>351.2926540968878</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>302.4011471260002</v>
       </c>
       <c r="O35" t="n">
-        <v>323.5948420891593</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>185.1429244407383</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537638</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,13 +10673,13 @@
         <v>339.9493461380765</v>
       </c>
       <c r="M36" t="n">
-        <v>31.08920358109609</v>
+        <v>303.5267170631595</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>152.1136221181501</v>
       </c>
       <c r="O36" t="n">
-        <v>321.0401125551811</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10825,25 +10825,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>351.2926540968878</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>302.4011471260002</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>22.04383640661965</v>
+        <v>139.2772343984381</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>22.58001229537638</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>339.9493461380765</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>196.0495600277866</v>
       </c>
       <c r="N39" t="n">
-        <v>134.6002266261286</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>321.0401125551811</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,25 +11062,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>351.2926540968878</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>309.194269948991</v>
       </c>
       <c r="N41" t="n">
         <v>302.4011471260002</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69713200693758</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>173.6259380660943</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>22.58001229537638</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>339.9493461380765</v>
       </c>
       <c r="M42" t="n">
-        <v>303.5267170631595</v>
+        <v>196.0495600277866</v>
       </c>
       <c r="N42" t="n">
-        <v>285.33409382836</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>185.2422969297274</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>15.25071358362887</v>
       </c>
       <c r="L44" t="n">
-        <v>351.2926540968878</v>
+        <v>351.2926540968879</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>309.194269948991</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0.299570961455089</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11378,25 +11378,25 @@
         <v>22.58001229537638</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>339.9493461380765</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>167.7289014377058</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>285.3340938283599</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>321.0401125551811</v>
       </c>
       <c r="P45" t="n">
-        <v>299.5605830728191</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.6774171949389</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>141.7195687151929</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>131.1297185648683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>20.31336441140823</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17.16168134975695</v>
       </c>
       <c r="U11" t="n">
         <v>251.1806564255189</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>125.6876456615984</v>
       </c>
       <c r="X11" t="n">
-        <v>146.1777776226544</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>162.6846156002389</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>118.688794222572</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>101.5778486352903</v>
+        <v>26.40677871749797</v>
       </c>
       <c r="I12" t="n">
-        <v>51.40293372813255</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>225.8687826558985</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>9.247264093610625</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>28.14166010510496</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.0658325864478</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>27.95130333549407</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.693616733572085</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.15869656922645</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4393665284197823</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2685668052903</v>
+        <v>62.71524374947563</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>28.58432026801336</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>200.0105532716554</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>158.3770470164471</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>183.3227226858968</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>189.6869584303511</v>
@@ -23515,7 +23515,7 @@
         <v>318.3526743090856</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>106.9066290450261</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.1806564255189</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>146.1777776226544</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.6085896334681</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>107.2999567783276</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>51.40293372813255</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>31.64333672726892</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T15" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.8687826558985</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>9.247264093610625</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>81.32826362668234</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>91.17777532335778</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J16" t="n">
         <v>27.95130333549407</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.693616733572085</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>135.6954283374743</v>
       </c>
       <c r="S16" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>223.9926895842344</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2685668052903</v>
+        <v>62.71524374947563</v>
       </c>
       <c r="V16" t="n">
-        <v>125.1233154918394</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>62.96967528077636</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>159.1805186076659</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>158.3770470164471</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>183.3227226858968</v>
       </c>
       <c r="G17" t="n">
-        <v>189.6869584303511</v>
+        <v>216.3345145386043</v>
       </c>
       <c r="H17" t="n">
         <v>318.3526743090856</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>214.0674482973184</v>
       </c>
       <c r="U17" t="n">
-        <v>27.6273333697043</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V17" t="n">
-        <v>104.1989354143203</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.2952252220599</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>79.1517719357513</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23825,10 +23825,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I18" t="n">
         <v>51.40293372813255</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.64333672726892</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>48.59115395287142</v>
       </c>
       <c r="U18" t="n">
         <v>225.8687826558985</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>9.247264093610625</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23907,10 +23907,10 @@
         <v>167.0658325864478</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I19" t="n">
-        <v>30.14086483454729</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J19" t="n">
         <v>27.95130333549407</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>8.693616733572085</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>207.8938129283803</v>
       </c>
       <c r="T19" t="n">
-        <v>223.9926895842344</v>
+        <v>0.4393665284197823</v>
       </c>
       <c r="U19" t="n">
         <v>286.2685668052903</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>215.5076494535492</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>358.6774171949389</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23986,10 +23986,10 @@
         <v>413.2402814861658</v>
       </c>
       <c r="H20" t="n">
-        <v>94.79935125327091</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I20" t="n">
-        <v>96.07913939211419</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.1806564255189</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>146.1777776226544</v>
       </c>
       <c r="Y20" t="n">
-        <v>162.6846156002389</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24056,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>43.30008501195564</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24098,25 +24098,25 @@
         <v>31.64333672726892</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T21" t="n">
         <v>195.7168039184781</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8687826558985</v>
+        <v>2.315459600083841</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>9.247264093610625</v>
       </c>
       <c r="W21" t="n">
-        <v>28.14166010510496</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>163.7050899657214</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>10.58459912703353</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J22" t="n">
         <v>27.95130333549407</v>
@@ -24186,7 +24186,7 @@
         <v>286.2685668052903</v>
       </c>
       <c r="V22" t="n">
-        <v>145.9361739438981</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>249.5643845831084</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.2402814861658</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>302.891893023615</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>154.0017766617416</v>
@@ -24423,16 +24423,16 @@
         <v>286.2685668052903</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>92.87480370371915</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>208.1182752623784</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>318.3526743090856</v>
+        <v>32.37685486078919</v>
       </c>
       <c r="I26" t="n">
         <v>130.9630535135678</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>20.31336441140823</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>260.7151967642159</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,13 +24618,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>27.95130333549407</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>207.8938129283803</v>
       </c>
       <c r="T28" t="n">
-        <v>223.9926895842344</v>
+        <v>216.1009130672176</v>
       </c>
       <c r="U28" t="n">
         <v>286.2685668052903</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>259.6106645456223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>88.79065728127114</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I29" t="n">
         <v>130.9630535135678</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>95.53492380378455</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T29" t="n">
         <v>214.0674482973184</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>43.44863661655978</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>154.0017766617416</v>
@@ -24891,13 +24891,13 @@
         <v>207.8938129283803</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>101.6163635304675</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>104.9706981318859</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>20.31336441140823</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>132.9853080076313</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.84085545352272</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>129.761317270061</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J34" t="n">
         <v>27.95130333549407</v>
@@ -25131,13 +25131,13 @@
         <v>223.9926895842344</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2685668052903</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.2402814861658</v>
+        <v>134.780346789438</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I35" t="n">
         <v>130.9630535135678</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>20.31336441140823</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T35" t="n">
-        <v>119.8918129092299</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U35" t="n">
         <v>251.1806564255189</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>43.44535799600445</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>101.5778486352903</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>51.40293372813255</v>
+        <v>2.332913842484743</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.64333672726892</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T36" t="n">
         <v>195.7168039184781</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.32884842015915</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,19 +25359,19 @@
         <v>8.693616733572085</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2685668052903</v>
+        <v>280.4836495368898</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>198.2043925295908</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V38" t="n">
-        <v>63.39159935390938</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.9478354477715</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>103.1609066478398</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>4.874371078472677</v>
       </c>
       <c r="G40" t="n">
         <v>167.0658325864478</v>
@@ -25599,10 +25599,10 @@
         <v>135.6954283374743</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U40" t="n">
         <v>286.2685668052903</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>102.9814080580284</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>308.7694556317451</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1781625600477</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>162.0218528261079</v>
       </c>
       <c r="T41" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>104.7296505223069</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>65.16209825459481</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>101.5778486352903</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>151.1859334239523</v>
@@ -25763,10 +25763,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,10 +25806,10 @@
         <v>154.0017766617416</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>27.95130333549407</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>8.693616733572085</v>
       </c>
       <c r="R43" t="n">
-        <v>135.6954283374743</v>
+        <v>30.78302346712226</v>
       </c>
       <c r="S43" t="n">
         <v>207.8938129283803</v>
       </c>
       <c r="T43" t="n">
-        <v>223.9926895842344</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>76.48930305181241</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,10 +25870,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>413.2402814861658</v>
       </c>
       <c r="H44" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>130.9630535135678</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>20.31336441140823</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U44" t="n">
-        <v>41.37112879349073</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>261.5347769438625</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I45" t="n">
-        <v>16.50381836073388</v>
+        <v>51.40293372813255</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,13 +26000,13 @@
         <v>195.7168039184781</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8687826558985</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>190.9696672884999</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.1660039622321</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H46" t="n">
         <v>154.0017766617416</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>8.693616733572085</v>
       </c>
       <c r="R46" t="n">
         <v>135.6954283374743</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>70.59261291836708</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>446653.304006144</v>
+        <v>446653.3040061438</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>446653.3040061437</v>
+        <v>446653.3040061439</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>446653.3040061439</v>
+        <v>446653.3040061438</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>745455.859877233</v>
+        <v>745455.8598772328</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>593984.8440444749</v>
+        <v>593984.8440444747</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>593984.8440444748</v>
+        <v>593984.844044475</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>593984.844044475</v>
+        <v>593984.8440444749</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.7116981492</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="D2" t="n">
         <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
-        <v>236806.6184998544</v>
+        <v>236806.6184998543</v>
       </c>
       <c r="F2" t="n">
-        <v>236806.6184998543</v>
+        <v>236806.6184998545</v>
       </c>
       <c r="G2" t="n">
         <v>236806.6184998544</v>
       </c>
       <c r="H2" t="n">
-        <v>236806.6184998543</v>
+        <v>236806.6184998544</v>
       </c>
       <c r="I2" t="n">
+        <v>367302.5613427878</v>
+      </c>
+      <c r="J2" t="n">
         <v>367302.5613427879</v>
-      </c>
-      <c r="J2" t="n">
-        <v>367302.5613427877</v>
       </c>
       <c r="K2" t="n">
         <v>367302.5613427878</v>
@@ -26346,16 +26346,16 @@
         <v>367302.5613427878</v>
       </c>
       <c r="M2" t="n">
+        <v>301150.6739640187</v>
+      </c>
+      <c r="N2" t="n">
         <v>301150.6739640186</v>
-      </c>
-      <c r="N2" t="n">
-        <v>301150.6739640185</v>
       </c>
       <c r="O2" t="n">
         <v>301150.6739640187</v>
       </c>
       <c r="P2" t="n">
-        <v>301150.6739640186</v>
+        <v>301150.6739640187</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>117270.4347480686</v>
+        <v>117270.4347480685</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>20595.24530921082</v>
       </c>
       <c r="G4" t="n">
-        <v>20595.24530921083</v>
+        <v>20595.24530921082</v>
       </c>
       <c r="H4" t="n">
         <v>20595.24530921082</v>
       </c>
       <c r="I4" t="n">
-        <v>84824.65335678868</v>
+        <v>84824.65335678867</v>
       </c>
       <c r="J4" t="n">
-        <v>84824.65335678868</v>
+        <v>84824.65335678865</v>
       </c>
       <c r="K4" t="n">
-        <v>84824.65335678868</v>
+        <v>84824.65335678867</v>
       </c>
       <c r="L4" t="n">
         <v>84824.65335678868</v>
       </c>
       <c r="M4" t="n">
+        <v>52265.04671306024</v>
+      </c>
+      <c r="N4" t="n">
+        <v>52265.04671306024</v>
+      </c>
+      <c r="O4" t="n">
         <v>52265.04671306023</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>52265.04671306023</v>
-      </c>
-      <c r="O4" t="n">
-        <v>52265.04671306025</v>
-      </c>
-      <c r="P4" t="n">
-        <v>52265.04671306025</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69023.08336176255</v>
+        <v>68978.94758308148</v>
       </c>
       <c r="C6" t="n">
-        <v>69023.08336176243</v>
+        <v>68978.94758308124</v>
       </c>
       <c r="D6" t="n">
-        <v>69023.08336176249</v>
+        <v>68978.9475830813</v>
       </c>
       <c r="E6" t="n">
-        <v>-287487.5674328009</v>
+        <v>-298541.3469394139</v>
       </c>
       <c r="F6" t="n">
-        <v>191435.1477177568</v>
+        <v>180381.3682111441</v>
       </c>
       <c r="G6" t="n">
-        <v>191435.1477177569</v>
+        <v>180381.3682111439</v>
       </c>
       <c r="H6" t="n">
-        <v>191435.1477177569</v>
+        <v>180381.368211144</v>
       </c>
       <c r="I6" t="n">
-        <v>113618.6138148009</v>
+        <v>107784.6720219054</v>
       </c>
       <c r="J6" t="n">
-        <v>230889.0485628694</v>
+        <v>225055.106769974</v>
       </c>
       <c r="K6" t="n">
-        <v>230889.0485628695</v>
+        <v>225055.1067699739</v>
       </c>
       <c r="L6" t="n">
-        <v>230889.0485628694</v>
+        <v>225055.1067699739</v>
       </c>
       <c r="M6" t="n">
-        <v>210888.8098696223</v>
+        <v>202408.792581576</v>
       </c>
       <c r="N6" t="n">
-        <v>210888.8098696222</v>
+        <v>202408.792581576</v>
       </c>
       <c r="O6" t="n">
-        <v>210888.8098696223</v>
+        <v>202408.792581576</v>
       </c>
       <c r="P6" t="n">
-        <v>210888.8098696223</v>
+        <v>202408.792581576</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>440.9972689184706</v>
+        <v>440.99726891847</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>87.33027369883143</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K11" t="n">
         <v>42.26229005002028</v>
       </c>
       <c r="L11" t="n">
-        <v>89.7046148215822</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="M11" t="n">
         <v>131.802998969479</v>
@@ -35430,7 +35430,7 @@
         <v>65.35075928054891</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.7313492838113</v>
+        <v>3.113826714291513</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>40.35142989467195</v>
       </c>
       <c r="L12" t="n">
-        <v>223.5533230558146</v>
+        <v>101.0479227803935</v>
       </c>
       <c r="M12" t="n">
         <v>137.4705518553105</v>
@@ -35506,10 +35506,10 @@
         <v>119.957156363289</v>
       </c>
       <c r="P12" t="n">
-        <v>103.793705013068</v>
+        <v>76.747843850571</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.880470408757418</v>
+        <v>150.4317318466753</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>85.21574223139682</v>
+        <v>85.21574223139679</v>
       </c>
       <c r="L13" t="n">
         <v>165.1341189827537</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K14" t="n">
-        <v>42.26229005002028</v>
+        <v>178.8084663746377</v>
       </c>
       <c r="L14" t="n">
-        <v>177.0348885204136</v>
+        <v>89.7046148215822</v>
       </c>
       <c r="M14" t="n">
         <v>131.802998969479</v>
@@ -35667,7 +35667,7 @@
         <v>65.35075928054891</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.7313492838113</v>
+        <v>0.4163586239066603</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K15" t="n">
-        <v>223.5533230558146</v>
+        <v>40.35142989467195</v>
       </c>
       <c r="L15" t="n">
         <v>101.0479227803935</v>
@@ -35743,10 +35743,10 @@
         <v>119.957156363289</v>
       </c>
       <c r="P15" t="n">
-        <v>146.6082351723788</v>
+        <v>76.747843850571</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.880470408757418</v>
+        <v>150.4317318466753</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K17" t="n">
-        <v>42.26229005002028</v>
+        <v>178.8084663746377</v>
       </c>
       <c r="L17" t="n">
         <v>89.7046148215822</v>
@@ -35895,13 +35895,13 @@
         <v>131.802998969479</v>
       </c>
       <c r="N17" t="n">
-        <v>223.5533230558146</v>
+        <v>138.5961217924698</v>
       </c>
       <c r="O17" t="n">
-        <v>223.5533230558146</v>
+        <v>117.4024268293108</v>
       </c>
       <c r="P17" t="n">
-        <v>173.8879261494365</v>
+        <v>65.35075928054891</v>
       </c>
       <c r="Q17" t="n">
         <v>0.4163586239066603</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K18" t="n">
-        <v>40.35142989467195</v>
+        <v>189.9026913325899</v>
       </c>
       <c r="L18" t="n">
-        <v>121.2219568575963</v>
+        <v>101.0479227803935</v>
       </c>
       <c r="M18" t="n">
-        <v>223.5533230558146</v>
+        <v>137.4705518553105</v>
       </c>
       <c r="N18" t="n">
         <v>155.6631750901101</v>
@@ -35980,7 +35980,7 @@
         <v>119.957156363289</v>
       </c>
       <c r="P18" t="n">
-        <v>223.5533230558146</v>
+        <v>76.747843850571</v>
       </c>
       <c r="Q18" t="n">
         <v>0.880470408757418</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>163.0990880341188</v>
+        <v>87.33027369883143</v>
       </c>
       <c r="K20" t="n">
         <v>42.26229005002028</v>
       </c>
       <c r="L20" t="n">
-        <v>223.5533230558146</v>
+        <v>89.7046148215822</v>
       </c>
       <c r="M20" t="n">
         <v>131.802998969479</v>
@@ -36135,13 +36135,13 @@
         <v>138.5961217924698</v>
       </c>
       <c r="O20" t="n">
-        <v>120.0998949196956</v>
+        <v>117.4024268293108</v>
       </c>
       <c r="P20" t="n">
         <v>65.35075928054891</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4163586239066603</v>
+        <v>212.7313492838113</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>42.98499674710142</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>40.35142989467195</v>
+        <v>189.8175476850968</v>
       </c>
       <c r="L21" t="n">
         <v>101.0479227803935</v>
@@ -36214,13 +36214,13 @@
         <v>155.6631750901101</v>
       </c>
       <c r="O21" t="n">
-        <v>119.957156363289</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="P21" t="n">
         <v>76.747843850571</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9577581446065</v>
+        <v>0.880470408757418</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K23" t="n">
         <v>366.407702621185</v>
@@ -36366,19 +36366,19 @@
         <v>507.3658293720326</v>
       </c>
       <c r="M23" t="n">
-        <v>581.3165324623116</v>
+        <v>357.799672280775</v>
       </c>
       <c r="N23" t="n">
-        <v>575.943046204454</v>
+        <v>138.5961217924698</v>
       </c>
       <c r="O23" t="n">
         <v>498.2026080920562</v>
       </c>
       <c r="P23" t="n">
-        <v>101.6997615525343</v>
+        <v>387.1494674520316</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.4163586239066603</v>
+        <v>212.7313492838113</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>103.5110230450325</v>
       </c>
       <c r="K24" t="n">
-        <v>40.35142989467195</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L24" t="n">
         <v>471.8882680838527</v>
       </c>
       <c r="M24" t="n">
-        <v>603.1756156053104</v>
+        <v>390.0048044602773</v>
       </c>
       <c r="N24" t="n">
         <v>635.0055494336636</v>
       </c>
       <c r="O24" t="n">
-        <v>513.8194756400185</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P24" t="n">
-        <v>262.7200068171735</v>
+        <v>395.2106124905082</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.880470408757418</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>36.34900227198537</v>
       </c>
       <c r="K26" t="n">
         <v>366.407702621185</v>
@@ -36612,7 +36612,7 @@
         <v>498.2026080920562</v>
       </c>
       <c r="P26" t="n">
-        <v>101.6997615525343</v>
+        <v>65.35075928054891</v>
       </c>
       <c r="Q26" t="n">
         <v>0.4163586239066603</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K27" t="n">
-        <v>40.35142989467195</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L27" t="n">
-        <v>442.9086854555509</v>
+        <v>471.8882680838527</v>
       </c>
       <c r="M27" t="n">
-        <v>603.1756156053104</v>
+        <v>137.4705518553105</v>
       </c>
       <c r="N27" t="n">
         <v>635.0055494336636</v>
@@ -36694,7 +36694,7 @@
         <v>395.2106124905082</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.880470408757418</v>
+        <v>69.62969147284363</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>366.407702621185</v>
@@ -36846,13 +36846,13 @@
         <v>575.943046204454</v>
       </c>
       <c r="O29" t="n">
-        <v>159.1375316700183</v>
+        <v>498.2026080920562</v>
       </c>
       <c r="P29" t="n">
         <v>65.35075928054891</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.7313492838113</v>
+        <v>36.76536089589185</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K30" t="n">
         <v>40.35142989467195</v>
@@ -36925,13 +36925,13 @@
         <v>635.0055494336636</v>
       </c>
       <c r="O30" t="n">
-        <v>484.8398930117167</v>
+        <v>513.8194756400185</v>
       </c>
       <c r="P30" t="n">
-        <v>395.2106124905082</v>
+        <v>76.747843850571</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.880470408757418</v>
+        <v>186.85263337536</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,19 +37077,19 @@
         <v>507.3658293720326</v>
       </c>
       <c r="M32" t="n">
-        <v>581.3165324623116</v>
+        <v>357.799672280775</v>
       </c>
       <c r="N32" t="n">
-        <v>575.943046204454</v>
+        <v>138.5961217924698</v>
       </c>
       <c r="O32" t="n">
-        <v>371.4525223299231</v>
+        <v>498.2026080920562</v>
       </c>
       <c r="P32" t="n">
-        <v>65.35075928054891</v>
+        <v>387.1494674520316</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.4163586239066603</v>
+        <v>212.7313492838113</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>603.1756156053104</v>
       </c>
       <c r="N33" t="n">
-        <v>395.9486790695123</v>
+        <v>635.0055494336636</v>
       </c>
       <c r="O33" t="n">
         <v>513.8194756400185</v>
       </c>
       <c r="P33" t="n">
-        <v>395.2106124905082</v>
+        <v>366.2310298622062</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9577581446065</v>
+        <v>0.880470408757418</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,22 +37311,22 @@
         <v>42.26229005002028</v>
       </c>
       <c r="L35" t="n">
-        <v>392.6315077361446</v>
+        <v>440.99726891847</v>
       </c>
       <c r="M35" t="n">
         <v>131.802998969479</v>
       </c>
       <c r="N35" t="n">
-        <v>138.5961217924698</v>
+        <v>440.99726891847</v>
       </c>
       <c r="O35" t="n">
-        <v>440.99726891847</v>
+        <v>117.4024268293108</v>
       </c>
       <c r="P35" t="n">
         <v>387.1494674520316</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.7313492838113</v>
+        <v>185.5592830646449</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>40.35142989467195</v>
@@ -37393,13 +37393,13 @@
         <v>440.99726891847</v>
       </c>
       <c r="M36" t="n">
-        <v>168.5597554364066</v>
+        <v>440.99726891847</v>
       </c>
       <c r="N36" t="n">
-        <v>155.6631750901101</v>
+        <v>307.7767972082602</v>
       </c>
       <c r="O36" t="n">
-        <v>440.99726891847</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P36" t="n">
         <v>395.2106124905082</v>
@@ -37545,25 +37545,25 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K38" t="n">
-        <v>42.26229005002028</v>
+        <v>366.407702621185</v>
       </c>
       <c r="L38" t="n">
-        <v>440.99726891847</v>
+        <v>89.7046148215822</v>
       </c>
       <c r="M38" t="n">
         <v>131.802998969479</v>
       </c>
       <c r="N38" t="n">
-        <v>440.99726891847</v>
+        <v>138.5961217924698</v>
       </c>
       <c r="O38" t="n">
-        <v>139.4462632359304</v>
+        <v>256.6796612277489</v>
       </c>
       <c r="P38" t="n">
         <v>387.1494674520316</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.4163586239066603</v>
+        <v>212.7313492838113</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K39" t="n">
-        <v>40.35142989467195</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L39" t="n">
         <v>440.99726891847</v>
       </c>
       <c r="M39" t="n">
-        <v>137.4705518553105</v>
+        <v>333.5201118830971</v>
       </c>
       <c r="N39" t="n">
-        <v>290.2634017162387</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O39" t="n">
-        <v>440.99726891847</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P39" t="n">
-        <v>395.2106124905082</v>
+        <v>76.747843850571</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.880470408757418</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K41" t="n">
-        <v>366.407702621185</v>
+        <v>42.26229005002028</v>
       </c>
       <c r="L41" t="n">
+        <v>89.7046148215822</v>
+      </c>
+      <c r="M41" t="n">
         <v>440.99726891847</v>
-      </c>
-      <c r="M41" t="n">
-        <v>131.802998969479</v>
       </c>
       <c r="N41" t="n">
         <v>440.99726891847</v>
       </c>
       <c r="O41" t="n">
-        <v>137.0995588362483</v>
+        <v>117.4024268293108</v>
       </c>
       <c r="P41" t="n">
-        <v>65.35075928054891</v>
+        <v>238.9766973466432</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.4163586239066603</v>
+        <v>212.7313492838113</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K42" t="n">
-        <v>40.35142989467195</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L42" t="n">
         <v>440.99726891847</v>
       </c>
       <c r="M42" t="n">
-        <v>440.99726891847</v>
+        <v>333.5201118830971</v>
       </c>
       <c r="N42" t="n">
-        <v>440.99726891847</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O42" t="n">
-        <v>305.1994532930164</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P42" t="n">
         <v>76.747843850571</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.880470408757418</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K44" t="n">
-        <v>366.407702621185</v>
+        <v>57.51300363364915</v>
       </c>
       <c r="L44" t="n">
         <v>440.99726891847</v>
       </c>
       <c r="M44" t="n">
-        <v>131.802998969479</v>
+        <v>440.99726891847</v>
       </c>
       <c r="N44" t="n">
         <v>138.5961217924698</v>
       </c>
       <c r="O44" t="n">
-        <v>117.7019977907659</v>
+        <v>117.4024268293108</v>
       </c>
       <c r="P44" t="n">
         <v>387.1494674520316</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>304.8166669072506</v>
+        <v>40.35142989467195</v>
       </c>
       <c r="L45" t="n">
         <v>440.99726891847</v>
       </c>
       <c r="M45" t="n">
-        <v>137.4705518553105</v>
+        <v>305.1994532930162</v>
       </c>
       <c r="N45" t="n">
-        <v>155.6631750901101</v>
+        <v>440.99726891847</v>
       </c>
       <c r="O45" t="n">
-        <v>119.957156363289</v>
+        <v>440.99726891847</v>
       </c>
       <c r="P45" t="n">
-        <v>376.3084269233901</v>
+        <v>76.747843850571</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9577581446065</v>
+        <v>0.880470408757418</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>932983.4870126889</v>
+        <v>977876.2900243537</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6643280.471408686</v>
+        <v>6643280.471408688</v>
       </c>
     </row>
     <row r="8">
@@ -1372,70 +1372,70 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>223.5533230558146</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>130.9630535135678</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>20.31336441140823</v>
+      </c>
+      <c r="S11" t="n">
+        <v>162.0218528261079</v>
+      </c>
+      <c r="T11" t="n">
+        <v>107.1608192522921</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>223.5533230558146</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>196.9057669475614</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>223.5533230558146</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>90.51539857962558</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>75.17106991779237</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>51.40293372813255</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.64333672726892</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>8.693616733572085</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>86.51244506493559</v>
+        <v>97.00902668938294</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>24.05642446854166</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>162.0218528261079</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="X14" t="n">
-        <v>223.5533230558146</v>
+        <v>44.36978887994986</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>28.94004912372274</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>101.5778486352903</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.7168039184781</v>
+        <v>86.10146042732252</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="V15" t="n">
         <v>223.5533230558146</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>57.43769769485458</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.693616733572085</v>
+        <v>1.884176113844087</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="U16" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>223.5533230558146</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="G17" t="n">
-        <v>196.9057669475615</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>14.57054971004536</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T18" t="n">
-        <v>147.1256499656067</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>42.78049047681652</v>
       </c>
       <c r="V18" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>130.3783240423144</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.5533230558146</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>36.62999387027881</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.05642446854166</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>20.31336441140823</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S20" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>176.5924025361532</v>
       </c>
       <c r="V20" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>223.5533230558146</v>
+        <v>145.8385191526922</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>42.06789523775603</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>156.4812334594142</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>64.68667198923899</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>20.31336441140823</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S23" t="n">
         <v>162.0218528261079</v>
       </c>
       <c r="T23" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1806564255189</v>
+        <v>124.7425180600016</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>66.83920765485399</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I24" t="n">
-        <v>51.40293372813255</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.64333672726892</v>
+        <v>31.64333672726874</v>
       </c>
       <c r="S24" t="n">
         <v>151.1859334239523</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0658325864478</v>
+        <v>146.1618064271908</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>159.2628396201088</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>285.9758194482964</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>123.9241519955568</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I27" t="n">
-        <v>51.40293372813255</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>31.64333672726892</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S27" t="n">
         <v>151.1859334239523</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>103.9207839304868</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.0658325864478</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>7.891776517016849</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>276.4822344897364</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>102.7966655593058</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2873,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883156</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2891,7 +2891,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I30" t="n">
-        <v>51.40293372813255</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>31.64333672726874</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S30" t="n">
         <v>151.1859334239523</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.0658325864478</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>122.376326053767</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2685668052903</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>155.2586161839538</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>16.33958822594694</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.03654481847655</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I33" t="n">
-        <v>51.40293372813255</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.64333672726892</v>
+        <v>31.64333672726874</v>
       </c>
       <c r="S33" t="n">
         <v>151.1859334239523</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>92.782598742217</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>15.65973075287027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.0658325864478</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2685668052903</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>278.4599346967278</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>98.3055107979488</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3362,10 +3362,10 @@
         <v>136.2400059020503</v>
       </c>
       <c r="H36" t="n">
-        <v>101.5778486352903</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>49.0700198856478</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>10.70897835646736</v>
       </c>
     </row>
     <row r="37">
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.7951937788879933</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T37" t="n">
         <v>223.9926895842344</v>
       </c>
       <c r="U37" t="n">
-        <v>5.784917268400462</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>167.0684992414168</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>230.891044460522</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>69.54759234047592</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>101.5778486352903</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>192.1447222722312</v>
       </c>
     </row>
     <row r="40">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>140.5466769444586</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>16.67264537650806</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>56.50343613926246</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>211.7539970335794</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.80353312756047</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>110.1164285992027</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.64333672726892</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>104.912404870352</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T43" t="n">
         <v>223.9926895842344</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>47.84616194108845</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>16.35448806180785</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>108.1963237346065</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.88844718230952</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U45" t="n">
         <v>225.8687826558985</v>
@@ -4118,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>60.72531587241974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.44946905598026</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.9926895842344</v>
+        <v>188.5216813342302</v>
       </c>
       <c r="U46" t="n">
         <v>286.2685668052903</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>469.5071407046968</v>
+        <v>375.9816159145485</v>
       </c>
       <c r="C11" t="n">
-        <v>243.695703274581</v>
+        <v>375.9816159145485</v>
       </c>
       <c r="D11" t="n">
-        <v>17.88426584446517</v>
+        <v>375.9816159145485</v>
       </c>
       <c r="E11" t="n">
-        <v>17.88426584446517</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="F11" t="n">
-        <v>17.88426584446517</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="G11" t="n">
-        <v>17.88426584446517</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="H11" t="n">
-        <v>17.88426584446517</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="I11" t="n">
         <v>17.88426584446517</v>
@@ -5047,46 +5047,46 @@
         <v>221.1920301477629</v>
       </c>
       <c r="L11" t="n">
-        <v>442.5098199730194</v>
+        <v>309.9995988211292</v>
       </c>
       <c r="M11" t="n">
-        <v>572.9947889528037</v>
+        <v>440.4845678009135</v>
       </c>
       <c r="N11" t="n">
-        <v>710.2049495273488</v>
+        <v>661.8023576261699</v>
       </c>
       <c r="O11" t="n">
-        <v>826.4333520883665</v>
+        <v>829.1038454978474</v>
       </c>
       <c r="P11" t="n">
-        <v>891.13060377611</v>
+        <v>893.8010971855908</v>
       </c>
       <c r="Q11" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232585</v>
       </c>
       <c r="R11" t="n">
-        <v>894.2132922232586</v>
+        <v>873.6947423127451</v>
       </c>
       <c r="S11" t="n">
-        <v>894.2132922232586</v>
+        <v>710.0363051146563</v>
       </c>
       <c r="T11" t="n">
-        <v>695.3185781348127</v>
+        <v>601.7930533446643</v>
       </c>
       <c r="U11" t="n">
-        <v>695.3185781348127</v>
+        <v>601.7930533446643</v>
       </c>
       <c r="V11" t="n">
-        <v>695.3185781348127</v>
+        <v>601.7930533446643</v>
       </c>
       <c r="W11" t="n">
-        <v>469.5071407046968</v>
+        <v>601.7930533446643</v>
       </c>
       <c r="X11" t="n">
-        <v>469.5071407046968</v>
+        <v>375.9816159145485</v>
       </c>
       <c r="Y11" t="n">
-        <v>469.5071407046968</v>
+        <v>375.9816159145485</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>442.590417363027</v>
+        <v>456.7050842947488</v>
       </c>
       <c r="C12" t="n">
-        <v>442.590417363027</v>
+        <v>365.2753887597734</v>
       </c>
       <c r="D12" t="n">
-        <v>442.590417363027</v>
+        <v>216.3409790985222</v>
       </c>
       <c r="E12" t="n">
-        <v>283.3529623575715</v>
+        <v>216.3409790985222</v>
       </c>
       <c r="F12" t="n">
-        <v>283.3529623575715</v>
+        <v>69.80642112540713</v>
       </c>
       <c r="G12" t="n">
-        <v>145.7367947797429</v>
+        <v>69.80642112540713</v>
       </c>
       <c r="H12" t="n">
-        <v>69.80642112540714</v>
+        <v>69.80642112540713</v>
       </c>
       <c r="I12" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J12" t="n">
-        <v>120.3601786590473</v>
+        <v>60.43941262409547</v>
       </c>
       <c r="K12" t="n">
-        <v>160.3080942547725</v>
+        <v>100.3873282198207</v>
       </c>
       <c r="L12" t="n">
-        <v>260.3455378073621</v>
+        <v>200.4247717724103</v>
       </c>
       <c r="M12" t="n">
-        <v>396.4413841441195</v>
+        <v>336.5206181091677</v>
       </c>
       <c r="N12" t="n">
-        <v>550.5479274833285</v>
+        <v>490.6271614483766</v>
       </c>
       <c r="O12" t="n">
-        <v>669.3055122829846</v>
+        <v>609.3847462480327</v>
       </c>
       <c r="P12" t="n">
-        <v>745.28587769505</v>
+        <v>685.365111660098</v>
       </c>
       <c r="Q12" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232585</v>
       </c>
       <c r="R12" t="n">
-        <v>894.2132922232586</v>
+        <v>862.2503258320777</v>
       </c>
       <c r="S12" t="n">
-        <v>894.2132922232586</v>
+        <v>862.2503258320777</v>
       </c>
       <c r="T12" t="n">
-        <v>894.2132922232586</v>
+        <v>664.5565845002816</v>
       </c>
       <c r="U12" t="n">
-        <v>894.2132922232586</v>
+        <v>664.5565845002816</v>
       </c>
       <c r="V12" t="n">
-        <v>668.4018547931428</v>
+        <v>664.5565845002816</v>
       </c>
       <c r="W12" t="n">
-        <v>442.590417363027</v>
+        <v>664.5565845002816</v>
       </c>
       <c r="X12" t="n">
-        <v>442.590417363027</v>
+        <v>456.7050842947488</v>
       </c>
       <c r="Y12" t="n">
-        <v>442.590417363027</v>
+        <v>456.7050842947488</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.7742133423755</v>
+        <v>650.3768561016127</v>
       </c>
       <c r="C13" t="n">
-        <v>164.7742133423755</v>
+        <v>481.4406731737058</v>
       </c>
       <c r="D13" t="n">
-        <v>164.7742133423755</v>
+        <v>481.4406731737058</v>
       </c>
       <c r="E13" t="n">
-        <v>164.7742133423755</v>
+        <v>333.5275795913127</v>
       </c>
       <c r="F13" t="n">
-        <v>17.88426584446517</v>
+        <v>186.6376320934023</v>
       </c>
       <c r="G13" t="n">
         <v>17.88426584446517</v>
@@ -5202,49 +5202,49 @@
         <v>17.88426584446517</v>
       </c>
       <c r="K13" t="n">
-        <v>102.247850653548</v>
+        <v>102.2478506535479</v>
       </c>
       <c r="L13" t="n">
-        <v>265.7306284464742</v>
+        <v>265.7306284464741</v>
       </c>
       <c r="M13" t="n">
         <v>448.4894187467696</v>
       </c>
       <c r="N13" t="n">
-        <v>632.3372299215587</v>
+        <v>632.3372299215586</v>
       </c>
       <c r="O13" t="n">
-        <v>786.1341446575033</v>
+        <v>786.1341446575032</v>
       </c>
       <c r="P13" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232585</v>
       </c>
       <c r="Q13" t="n">
-        <v>885.4318611792464</v>
+        <v>885.4318611792462</v>
       </c>
       <c r="R13" t="n">
-        <v>885.4318611792464</v>
+        <v>748.3657719494743</v>
       </c>
       <c r="S13" t="n">
-        <v>885.4318611792464</v>
+        <v>748.3657719494743</v>
       </c>
       <c r="T13" t="n">
-        <v>885.4318611792464</v>
+        <v>748.3657719494743</v>
       </c>
       <c r="U13" t="n">
-        <v>659.6204237491306</v>
+        <v>748.3657719494743</v>
       </c>
       <c r="V13" t="n">
-        <v>433.8089863190148</v>
+        <v>748.3657719494743</v>
       </c>
       <c r="W13" t="n">
-        <v>346.4226781726152</v>
+        <v>650.3768561016127</v>
       </c>
       <c r="X13" t="n">
-        <v>346.4226781726152</v>
+        <v>650.3768561016127</v>
       </c>
       <c r="Y13" t="n">
-        <v>346.4226781726152</v>
+        <v>650.3768561016127</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>267.9951219296736</v>
+        <v>243.695703274581</v>
       </c>
       <c r="C14" t="n">
-        <v>267.9951219296736</v>
+        <v>243.695703274581</v>
       </c>
       <c r="D14" t="n">
-        <v>267.9951219296736</v>
+        <v>243.695703274581</v>
       </c>
       <c r="E14" t="n">
-        <v>267.9951219296736</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="F14" t="n">
-        <v>267.9951219296736</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G14" t="n">
-        <v>42.18368449955776</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18368449955776</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I14" t="n">
         <v>17.88426584446517</v>
@@ -5281,13 +5281,13 @@
         <v>179.3523629982428</v>
       </c>
       <c r="K14" t="n">
-        <v>356.3727447091341</v>
+        <v>356.3727447091337</v>
       </c>
       <c r="L14" t="n">
-        <v>445.1803133825004</v>
+        <v>445.1803133825002</v>
       </c>
       <c r="M14" t="n">
-        <v>575.6652823622846</v>
+        <v>575.6652823622845</v>
       </c>
       <c r="N14" t="n">
         <v>712.8754429368298</v>
@@ -5302,28 +5302,28 @@
         <v>894.2132922232586</v>
       </c>
       <c r="R14" t="n">
-        <v>873.6947423127452</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="S14" t="n">
-        <v>710.0363051146564</v>
+        <v>730.5548550251698</v>
       </c>
       <c r="T14" t="n">
-        <v>493.8065593597894</v>
+        <v>514.3251092703027</v>
       </c>
       <c r="U14" t="n">
-        <v>493.8065593597894</v>
+        <v>514.3251092703027</v>
       </c>
       <c r="V14" t="n">
-        <v>493.8065593597894</v>
+        <v>514.3251092703027</v>
       </c>
       <c r="W14" t="n">
-        <v>493.8065593597894</v>
+        <v>288.5136718401869</v>
       </c>
       <c r="X14" t="n">
-        <v>267.9951219296736</v>
+        <v>243.695703274581</v>
       </c>
       <c r="Y14" t="n">
-        <v>267.9951219296736</v>
+        <v>243.695703274581</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>470.7081134613467</v>
+        <v>323.6562788230357</v>
       </c>
       <c r="C15" t="n">
-        <v>296.2550841802197</v>
+        <v>323.6562788230357</v>
       </c>
       <c r="D15" t="n">
-        <v>296.2550841802197</v>
+        <v>323.6562788230357</v>
       </c>
       <c r="E15" t="n">
-        <v>296.2550841802197</v>
+        <v>164.4188238175802</v>
       </c>
       <c r="F15" t="n">
-        <v>149.7205262071047</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G15" t="n">
-        <v>120.4881533548595</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H15" t="n">
         <v>17.88426584446517</v>
@@ -5360,49 +5360,49 @@
         <v>120.3601786590473</v>
       </c>
       <c r="K15" t="n">
-        <v>160.3080942547725</v>
+        <v>308.3638430783112</v>
       </c>
       <c r="L15" t="n">
-        <v>260.3455378073621</v>
+        <v>408.4012866309008</v>
       </c>
       <c r="M15" t="n">
-        <v>396.4413841441195</v>
+        <v>544.4971329676582</v>
       </c>
       <c r="N15" t="n">
-        <v>550.5479274833285</v>
+        <v>698.6036763068672</v>
       </c>
       <c r="O15" t="n">
-        <v>669.3055122829846</v>
+        <v>817.3612611065233</v>
       </c>
       <c r="P15" t="n">
-        <v>745.28587769505</v>
+        <v>893.3416265185887</v>
       </c>
       <c r="Q15" t="n">
         <v>894.2132922232586</v>
       </c>
       <c r="R15" t="n">
-        <v>894.2132922232586</v>
+        <v>862.2503258320779</v>
       </c>
       <c r="S15" t="n">
-        <v>894.2132922232586</v>
+        <v>862.2503258320779</v>
       </c>
       <c r="T15" t="n">
-        <v>696.5195508914625</v>
+        <v>775.2791536832673</v>
       </c>
       <c r="U15" t="n">
-        <v>696.5195508914625</v>
+        <v>549.4677162531515</v>
       </c>
       <c r="V15" t="n">
-        <v>470.7081134613467</v>
+        <v>323.6562788230357</v>
       </c>
       <c r="W15" t="n">
-        <v>470.7081134613467</v>
+        <v>323.6562788230357</v>
       </c>
       <c r="X15" t="n">
-        <v>470.7081134613467</v>
+        <v>323.6562788230357</v>
       </c>
       <c r="Y15" t="n">
-        <v>470.7081134613467</v>
+        <v>323.6562788230357</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>223.8152358863074</v>
+        <v>484.8501817671009</v>
       </c>
       <c r="C16" t="n">
-        <v>223.8152358863074</v>
+        <v>315.9139988391941</v>
       </c>
       <c r="D16" t="n">
         <v>165.7973594268583</v>
@@ -5439,7 +5439,7 @@
         <v>17.88426584446517</v>
       </c>
       <c r="K16" t="n">
-        <v>102.2478506535481</v>
+        <v>102.247850653548</v>
       </c>
       <c r="L16" t="n">
         <v>265.7306284464742</v>
@@ -5457,31 +5457,31 @@
         <v>894.2132922232586</v>
       </c>
       <c r="Q16" t="n">
-        <v>885.4318611792464</v>
+        <v>892.3100840274565</v>
       </c>
       <c r="R16" t="n">
-        <v>885.4318611792464</v>
+        <v>892.3100840274565</v>
       </c>
       <c r="S16" t="n">
-        <v>675.438110746539</v>
+        <v>892.3100840274565</v>
       </c>
       <c r="T16" t="n">
-        <v>675.438110746539</v>
+        <v>666.4986465973407</v>
       </c>
       <c r="U16" t="n">
-        <v>449.6266733164232</v>
+        <v>666.4986465973407</v>
       </c>
       <c r="V16" t="n">
-        <v>449.6266733164232</v>
+        <v>666.4986465973407</v>
       </c>
       <c r="W16" t="n">
-        <v>223.8152358863074</v>
+        <v>666.4986465973407</v>
       </c>
       <c r="X16" t="n">
-        <v>223.8152358863074</v>
+        <v>666.4986465973407</v>
       </c>
       <c r="Y16" t="n">
-        <v>223.8152358863074</v>
+        <v>666.4986465973407</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>668.4018547931428</v>
+        <v>469.5071407046969</v>
       </c>
       <c r="C17" t="n">
-        <v>668.4018547931428</v>
+        <v>469.5071407046969</v>
       </c>
       <c r="D17" t="n">
-        <v>668.4018547931428</v>
+        <v>469.5071407046969</v>
       </c>
       <c r="E17" t="n">
-        <v>442.590417363027</v>
+        <v>469.5071407046969</v>
       </c>
       <c r="F17" t="n">
-        <v>216.7789799329111</v>
+        <v>243.695703274581</v>
       </c>
       <c r="G17" t="n">
         <v>17.88426584446517</v>
@@ -5518,49 +5518,49 @@
         <v>179.3523629982428</v>
       </c>
       <c r="K17" t="n">
-        <v>356.3727447091341</v>
+        <v>221.192030147763</v>
       </c>
       <c r="L17" t="n">
-        <v>445.1803133825004</v>
+        <v>309.9995988211294</v>
       </c>
       <c r="M17" t="n">
-        <v>575.6652823622846</v>
+        <v>440.4845678009138</v>
       </c>
       <c r="N17" t="n">
-        <v>712.8754429368298</v>
+        <v>577.694728375459</v>
       </c>
       <c r="O17" t="n">
-        <v>829.1038454978475</v>
+        <v>693.9231309364767</v>
       </c>
       <c r="P17" t="n">
-        <v>893.8010971855909</v>
+        <v>758.6203826242202</v>
       </c>
       <c r="Q17" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232587</v>
       </c>
       <c r="R17" t="n">
-        <v>894.2132922232586</v>
+        <v>873.6947423127453</v>
       </c>
       <c r="S17" t="n">
-        <v>894.2132922232586</v>
+        <v>710.0363051146566</v>
       </c>
       <c r="T17" t="n">
-        <v>894.2132922232586</v>
+        <v>710.0363051146566</v>
       </c>
       <c r="U17" t="n">
-        <v>894.2132922232586</v>
+        <v>484.2248676845407</v>
       </c>
       <c r="V17" t="n">
-        <v>894.2132922232586</v>
+        <v>484.2248676845407</v>
       </c>
       <c r="W17" t="n">
-        <v>894.2132922232586</v>
+        <v>469.5071407046969</v>
       </c>
       <c r="X17" t="n">
-        <v>894.2132922232586</v>
+        <v>469.5071407046969</v>
       </c>
       <c r="Y17" t="n">
-        <v>894.2132922232586</v>
+        <v>469.5071407046969</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>351.5747501310477</v>
+        <v>498.1093081041627</v>
       </c>
       <c r="C18" t="n">
-        <v>177.1217208499207</v>
+        <v>323.6562788230357</v>
       </c>
       <c r="D18" t="n">
-        <v>177.1217208499207</v>
+        <v>323.6562788230357</v>
       </c>
       <c r="E18" t="n">
-        <v>17.88426584446517</v>
+        <v>164.4188238175802</v>
       </c>
       <c r="F18" t="n">
         <v>17.88426584446517</v>
@@ -5597,49 +5597,49 @@
         <v>120.3601786590473</v>
       </c>
       <c r="K18" t="n">
-        <v>308.3638430783113</v>
+        <v>160.3080942547726</v>
       </c>
       <c r="L18" t="n">
-        <v>408.4012866309009</v>
+        <v>260.3455378073622</v>
       </c>
       <c r="M18" t="n">
-        <v>544.4971329676583</v>
+        <v>396.4413841441196</v>
       </c>
       <c r="N18" t="n">
-        <v>698.6036763068673</v>
+        <v>550.5479274833286</v>
       </c>
       <c r="O18" t="n">
-        <v>817.3612611065234</v>
+        <v>669.3055122829848</v>
       </c>
       <c r="P18" t="n">
-        <v>893.3416265185888</v>
+        <v>745.2858776950501</v>
       </c>
       <c r="Q18" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232587</v>
       </c>
       <c r="R18" t="n">
-        <v>894.2132922232586</v>
+        <v>862.250325832078</v>
       </c>
       <c r="S18" t="n">
-        <v>894.2132922232586</v>
+        <v>709.5372617674798</v>
       </c>
       <c r="T18" t="n">
-        <v>745.6015245812316</v>
+        <v>709.5372617674798</v>
       </c>
       <c r="U18" t="n">
-        <v>745.6015245812316</v>
+        <v>666.3246451242308</v>
       </c>
       <c r="V18" t="n">
-        <v>519.7900871511158</v>
+        <v>666.3246451242308</v>
       </c>
       <c r="W18" t="n">
-        <v>519.7900871511158</v>
+        <v>666.3246451242308</v>
       </c>
       <c r="X18" t="n">
-        <v>519.7900871511158</v>
+        <v>666.3246451242308</v>
       </c>
       <c r="Y18" t="n">
-        <v>519.7900871511158</v>
+        <v>666.3246451242308</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>312.6873069247687</v>
+        <v>447.6092756496126</v>
       </c>
       <c r="C19" t="n">
-        <v>312.6873069247687</v>
+        <v>447.6092756496126</v>
       </c>
       <c r="D19" t="n">
-        <v>312.6873069247687</v>
+        <v>297.4926362372769</v>
       </c>
       <c r="E19" t="n">
-        <v>164.7742133423755</v>
+        <v>149.5795426548838</v>
       </c>
       <c r="F19" t="n">
-        <v>17.88426584446517</v>
+        <v>149.5795426548838</v>
       </c>
       <c r="G19" t="n">
-        <v>17.88426584446517</v>
+        <v>149.5795426548838</v>
       </c>
       <c r="H19" t="n">
         <v>17.88426584446517</v>
@@ -5676,49 +5676,49 @@
         <v>17.88426584446517</v>
       </c>
       <c r="K19" t="n">
-        <v>102.247850653548</v>
+        <v>102.2478506535482</v>
       </c>
       <c r="L19" t="n">
-        <v>265.7306284464742</v>
+        <v>265.7306284464744</v>
       </c>
       <c r="M19" t="n">
-        <v>448.4894187467696</v>
+        <v>448.4894187467698</v>
       </c>
       <c r="N19" t="n">
-        <v>632.3372299215587</v>
+        <v>632.3372299215588</v>
       </c>
       <c r="O19" t="n">
-        <v>786.1341446575033</v>
+        <v>786.1341446575034</v>
       </c>
       <c r="P19" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232587</v>
       </c>
       <c r="Q19" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232587</v>
       </c>
       <c r="R19" t="n">
-        <v>757.1472029934866</v>
+        <v>894.2132922232587</v>
       </c>
       <c r="S19" t="n">
-        <v>757.1472029934866</v>
+        <v>894.2132922232587</v>
       </c>
       <c r="T19" t="n">
-        <v>531.3357655633708</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="U19" t="n">
-        <v>531.3357655633708</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="V19" t="n">
-        <v>494.3357717550084</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="W19" t="n">
-        <v>494.3357717550084</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="X19" t="n">
-        <v>494.3357717550084</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="Y19" t="n">
-        <v>494.3357717550084</v>
+        <v>447.6092756496126</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17.88426584446517</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="C20" t="n">
-        <v>17.88426584446517</v>
+        <v>469.5071407046968</v>
       </c>
       <c r="D20" t="n">
-        <v>17.88426584446517</v>
+        <v>243.695703274581</v>
       </c>
       <c r="E20" t="n">
         <v>17.88426584446517</v>
@@ -5752,19 +5752,19 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J20" t="n">
-        <v>104.3412368063083</v>
+        <v>104.3412368063079</v>
       </c>
       <c r="K20" t="n">
-        <v>146.1809039558284</v>
+        <v>146.1809039558281</v>
       </c>
       <c r="L20" t="n">
-        <v>234.9884726291947</v>
+        <v>234.9884726291945</v>
       </c>
       <c r="M20" t="n">
-        <v>365.473441608979</v>
+        <v>365.4734416089789</v>
       </c>
       <c r="N20" t="n">
-        <v>502.6836021835242</v>
+        <v>502.6836021835241</v>
       </c>
       <c r="O20" t="n">
         <v>618.9120047445418</v>
@@ -5779,25 +5779,25 @@
         <v>873.6947423127452</v>
       </c>
       <c r="S20" t="n">
-        <v>710.0363051146564</v>
+        <v>873.6947423127452</v>
       </c>
       <c r="T20" t="n">
-        <v>493.8065593597894</v>
+        <v>873.6947423127452</v>
       </c>
       <c r="U20" t="n">
-        <v>493.8065593597894</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="V20" t="n">
-        <v>267.9951219296736</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="W20" t="n">
-        <v>267.9951219296736</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="X20" t="n">
-        <v>42.18368449955776</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.18368449955776</v>
+        <v>695.3185781348127</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>192.3372951255922</v>
+        <v>338.8718530987072</v>
       </c>
       <c r="C21" t="n">
-        <v>17.88426584446517</v>
+        <v>164.4188238175802</v>
       </c>
       <c r="D21" t="n">
-        <v>17.88426584446517</v>
+        <v>164.4188238175802</v>
       </c>
       <c r="E21" t="n">
-        <v>17.88426584446517</v>
+        <v>164.4188238175802</v>
       </c>
       <c r="F21" t="n">
         <v>17.88426584446517</v>
@@ -5831,52 +5831,52 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J21" t="n">
-        <v>17.88426584446517</v>
+        <v>120.3601786590473</v>
       </c>
       <c r="K21" t="n">
-        <v>205.803638052711</v>
+        <v>308.3638430783112</v>
       </c>
       <c r="L21" t="n">
-        <v>305.8410816053006</v>
+        <v>408.4012866309008</v>
       </c>
       <c r="M21" t="n">
-        <v>441.936927942058</v>
+        <v>544.4971329676582</v>
       </c>
       <c r="N21" t="n">
-        <v>596.043471281267</v>
+        <v>698.6036763068672</v>
       </c>
       <c r="O21" t="n">
-        <v>817.3612611065234</v>
+        <v>817.3612611065233</v>
       </c>
       <c r="P21" t="n">
-        <v>893.3416265185888</v>
+        <v>893.3416265185887</v>
       </c>
       <c r="Q21" t="n">
         <v>894.2132922232586</v>
       </c>
       <c r="R21" t="n">
-        <v>894.2132922232586</v>
+        <v>862.2503258320779</v>
       </c>
       <c r="S21" t="n">
-        <v>894.2132922232586</v>
+        <v>862.2503258320779</v>
       </c>
       <c r="T21" t="n">
-        <v>894.2132922232586</v>
+        <v>862.2503258320779</v>
       </c>
       <c r="U21" t="n">
-        <v>668.4018547931428</v>
+        <v>862.2503258320779</v>
       </c>
       <c r="V21" t="n">
-        <v>442.590417363027</v>
+        <v>714.938690324308</v>
       </c>
       <c r="W21" t="n">
-        <v>442.590417363027</v>
+        <v>714.938690324308</v>
       </c>
       <c r="X21" t="n">
-        <v>400.0975938905461</v>
+        <v>507.0871901187753</v>
       </c>
       <c r="Y21" t="n">
-        <v>192.3372951255922</v>
+        <v>507.0871901187753</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>491.7722482494887</v>
+        <v>186.8204487723721</v>
       </c>
       <c r="C22" t="n">
-        <v>322.8360653215818</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="D22" t="n">
-        <v>322.8360653215818</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="E22" t="n">
-        <v>322.8360653215818</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9461178236715</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G22" t="n">
         <v>17.88426584446517</v>
@@ -5910,7 +5910,7 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J22" t="n">
-        <v>17.8842658444652</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="K22" t="n">
         <v>102.247850653548</v>
@@ -5931,31 +5931,31 @@
         <v>894.2132922232586</v>
       </c>
       <c r="Q22" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="R22" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="S22" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="T22" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="U22" t="n">
-        <v>894.2132922232586</v>
+        <v>659.6204237491306</v>
       </c>
       <c r="V22" t="n">
-        <v>894.2132922232586</v>
+        <v>659.6204237491306</v>
       </c>
       <c r="W22" t="n">
-        <v>894.2132922232586</v>
+        <v>659.6204237491306</v>
       </c>
       <c r="X22" t="n">
-        <v>894.2132922232586</v>
+        <v>433.8089863190148</v>
       </c>
       <c r="Y22" t="n">
-        <v>673.4207130797284</v>
+        <v>368.4689136026118</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1218.900721686206</v>
+        <v>1957.883505317773</v>
       </c>
       <c r="C23" t="n">
-        <v>849.9382047457946</v>
+        <v>1588.920988377362</v>
       </c>
       <c r="D23" t="n">
-        <v>849.9382047457946</v>
+        <v>1588.920988377362</v>
       </c>
       <c r="E23" t="n">
-        <v>464.1499521475503</v>
+        <v>1203.132735779117</v>
       </c>
       <c r="F23" t="n">
-        <v>53.16404735794277</v>
+        <v>792.1468309895099</v>
       </c>
       <c r="G23" t="n">
-        <v>53.16404735794277</v>
+        <v>374.732405245908</v>
       </c>
       <c r="H23" t="n">
         <v>53.16404735794277</v>
@@ -5998,7 +5998,7 @@
         <v>1079.667941185006</v>
       </c>
       <c r="M23" t="n">
-        <v>1433.889616742973</v>
+        <v>1210.15291016479</v>
       </c>
       <c r="N23" t="n">
         <v>1571.099777317518</v>
@@ -6019,22 +6019,22 @@
         <v>2474.025380788536</v>
       </c>
       <c r="T23" t="n">
-        <v>2257.795635033669</v>
+        <v>2474.025380788536</v>
       </c>
       <c r="U23" t="n">
-        <v>2004.077800260418</v>
+        <v>2348.022837293585</v>
       </c>
       <c r="V23" t="n">
-        <v>1673.014912916847</v>
+        <v>2348.022837293585</v>
       </c>
       <c r="W23" t="n">
-        <v>1673.014912916847</v>
+        <v>2348.022837293585</v>
       </c>
       <c r="X23" t="n">
-        <v>1605.500561750328</v>
+        <v>2348.022837293585</v>
       </c>
       <c r="Y23" t="n">
-        <v>1605.500561750328</v>
+        <v>1957.883505317773</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>974.4657096480555</v>
+        <v>974.4657096480563</v>
       </c>
       <c r="C24" t="n">
-        <v>800.0126803669285</v>
+        <v>800.0126803669293</v>
       </c>
       <c r="D24" t="n">
-        <v>651.0782707056774</v>
+        <v>651.0782707056781</v>
       </c>
       <c r="E24" t="n">
-        <v>491.8408157002218</v>
+        <v>491.8408157002226</v>
       </c>
       <c r="F24" t="n">
-        <v>345.3062577271069</v>
+        <v>345.3062577271076</v>
       </c>
       <c r="G24" t="n">
-        <v>207.6900901492786</v>
+        <v>207.690090149279</v>
       </c>
       <c r="H24" t="n">
         <v>105.0862026388847</v>
@@ -6077,10 +6077,10 @@
         <v>924.5778458137172</v>
       </c>
       <c r="M24" t="n">
-        <v>1310.682602229392</v>
+        <v>1395.307856745547</v>
       </c>
       <c r="N24" t="n">
-        <v>1939.338096168719</v>
+        <v>1549.414400084757</v>
       </c>
       <c r="O24" t="n">
         <v>2058.095680968375</v>
@@ -6095,22 +6095,22 @@
         <v>2626.239401505958</v>
       </c>
       <c r="S24" t="n">
-        <v>2473.526337441359</v>
+        <v>2473.52633744136</v>
       </c>
       <c r="T24" t="n">
-        <v>2275.832596109563</v>
+        <v>2275.832596109564</v>
       </c>
       <c r="U24" t="n">
         <v>2047.682310598555</v>
       </c>
       <c r="V24" t="n">
-        <v>1812.530202366812</v>
+        <v>1812.530202366813</v>
       </c>
       <c r="W24" t="n">
-        <v>1558.29284563861</v>
+        <v>1558.292845638611</v>
       </c>
       <c r="X24" t="n">
-        <v>1350.441345433077</v>
+        <v>1350.441345433078</v>
       </c>
       <c r="Y24" t="n">
         <v>1142.681046668124</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>221.9174136068799</v>
+        <v>519.8550580084791</v>
       </c>
       <c r="C25" t="n">
-        <v>221.9174136068799</v>
+        <v>350.9188750805722</v>
       </c>
       <c r="D25" t="n">
-        <v>221.9174136068799</v>
+        <v>200.8022356682365</v>
       </c>
       <c r="E25" t="n">
-        <v>221.9174136068799</v>
+        <v>200.8022356682365</v>
       </c>
       <c r="F25" t="n">
-        <v>221.9174136068799</v>
+        <v>200.8022356682365</v>
       </c>
       <c r="G25" t="n">
         <v>53.16404735794277</v>
@@ -6171,28 +6171,28 @@
         <v>929.4930737367362</v>
       </c>
       <c r="R25" t="n">
-        <v>792.4269845069641</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="S25" t="n">
-        <v>792.4269845069641</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="T25" t="n">
-        <v>792.4269845069641</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="U25" t="n">
-        <v>792.4269845069641</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="V25" t="n">
-        <v>631.555429335137</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="W25" t="n">
-        <v>631.555429335137</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="X25" t="n">
-        <v>403.5658784371196</v>
+        <v>701.5035228387188</v>
       </c>
       <c r="Y25" t="n">
-        <v>403.5658784371196</v>
+        <v>701.5035228387188</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1528.694540587091</v>
+        <v>1171.50656263376</v>
       </c>
       <c r="C26" t="n">
-        <v>1528.694540587091</v>
+        <v>1171.50656263376</v>
       </c>
       <c r="D26" t="n">
-        <v>1170.42884198034</v>
+        <v>1171.50656263376</v>
       </c>
       <c r="E26" t="n">
-        <v>1170.42884198034</v>
+        <v>785.7183100355155</v>
       </c>
       <c r="F26" t="n">
-        <v>759.4429371907329</v>
+        <v>374.732405245908</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0285114471311</v>
+        <v>374.732405245908</v>
       </c>
       <c r="H26" t="n">
         <v>53.16404735794277</v>
@@ -6226,25 +6226,25 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J26" t="n">
-        <v>89.14955960720829</v>
+        <v>214.6321445117204</v>
       </c>
       <c r="K26" t="n">
-        <v>451.8931852021815</v>
+        <v>577.3757701066936</v>
       </c>
       <c r="L26" t="n">
-        <v>954.1853562804938</v>
+        <v>1079.667941185006</v>
       </c>
       <c r="M26" t="n">
-        <v>1529.688723418182</v>
+        <v>1433.889616742973</v>
       </c>
       <c r="N26" t="n">
-        <v>2099.872339160592</v>
+        <v>1571.099777317518</v>
       </c>
       <c r="O26" t="n">
-        <v>2593.092921171728</v>
+        <v>2064.320359328654</v>
       </c>
       <c r="P26" t="n">
-        <v>2657.790172859471</v>
+        <v>2447.598332106165</v>
       </c>
       <c r="Q26" t="n">
         <v>2658.202367897139</v>
@@ -6259,19 +6259,19 @@
         <v>2658.202367897139</v>
       </c>
       <c r="U26" t="n">
-        <v>2658.202367897139</v>
+        <v>2404.484533123887</v>
       </c>
       <c r="V26" t="n">
-        <v>2658.202367897139</v>
+        <v>2073.421645780316</v>
       </c>
       <c r="W26" t="n">
-        <v>2305.433712627024</v>
+        <v>1948.245734673693</v>
       </c>
       <c r="X26" t="n">
-        <v>2305.433712627024</v>
+        <v>1948.245734673693</v>
       </c>
       <c r="Y26" t="n">
-        <v>1915.294380651213</v>
+        <v>1558.106402697882</v>
       </c>
     </row>
     <row r="27">
@@ -6314,16 +6314,16 @@
         <v>924.5778458137172</v>
       </c>
       <c r="M27" t="n">
-        <v>1060.673692150475</v>
+        <v>1521.721705262974</v>
       </c>
       <c r="N27" t="n">
-        <v>1689.329186089802</v>
+        <v>1939.338096168719</v>
       </c>
       <c r="O27" t="n">
-        <v>2198.01046697342</v>
+        <v>2058.095680968375</v>
       </c>
       <c r="P27" t="n">
-        <v>2589.268973339023</v>
+        <v>2449.354187333978</v>
       </c>
       <c r="Q27" t="n">
         <v>2658.202367897139</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>666.8370940995192</v>
+        <v>482.4452525889288</v>
       </c>
       <c r="C28" t="n">
-        <v>666.8370940995192</v>
+        <v>482.4452525889288</v>
       </c>
       <c r="D28" t="n">
-        <v>516.7204546871834</v>
+        <v>482.4452525889288</v>
       </c>
       <c r="E28" t="n">
-        <v>368.8073611047903</v>
+        <v>377.4747637702553</v>
       </c>
       <c r="F28" t="n">
-        <v>221.9174136068799</v>
+        <v>377.4747637702553</v>
       </c>
       <c r="G28" t="n">
-        <v>53.16404735794277</v>
+        <v>208.7213975213182</v>
       </c>
       <c r="H28" t="n">
         <v>53.16404735794277</v>
@@ -6414,22 +6414,22 @@
         <v>929.4930737367362</v>
       </c>
       <c r="T28" t="n">
-        <v>921.521582305406</v>
+        <v>703.237831732459</v>
       </c>
       <c r="U28" t="n">
-        <v>921.521582305406</v>
+        <v>703.237831732459</v>
       </c>
       <c r="V28" t="n">
-        <v>666.8370940995192</v>
+        <v>703.237831732459</v>
       </c>
       <c r="W28" t="n">
-        <v>666.8370940995192</v>
+        <v>703.237831732459</v>
       </c>
       <c r="X28" t="n">
-        <v>666.8370940995192</v>
+        <v>703.237831732459</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.8370940995192</v>
+        <v>482.4452525889288</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1487.478887685612</v>
+        <v>1561.398434385868</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.203903352545</v>
+        <v>1561.398434385868</v>
       </c>
       <c r="D29" t="n">
-        <v>849.9382047457946</v>
+        <v>1203.132735779117</v>
       </c>
       <c r="E29" t="n">
-        <v>464.1499521475503</v>
+        <v>1203.132735779117</v>
       </c>
       <c r="F29" t="n">
-        <v>53.16404735794277</v>
+        <v>792.1468309895099</v>
       </c>
       <c r="G29" t="n">
-        <v>53.16404735794277</v>
+        <v>374.732405245908</v>
       </c>
       <c r="H29" t="n">
         <v>53.16404735794277</v>
@@ -6463,52 +6463,52 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J29" t="n">
-        <v>53.16404735794277</v>
+        <v>214.6321445117204</v>
       </c>
       <c r="K29" t="n">
-        <v>415.907672952916</v>
+        <v>577.3757701066936</v>
       </c>
       <c r="L29" t="n">
-        <v>918.1998440312283</v>
+        <v>666.18333878006</v>
       </c>
       <c r="M29" t="n">
-        <v>1493.703211168917</v>
+        <v>1241.686705917748</v>
       </c>
       <c r="N29" t="n">
-        <v>2063.886826911326</v>
+        <v>1571.099777317518</v>
       </c>
       <c r="O29" t="n">
-        <v>2557.107408922462</v>
+        <v>2064.320359328654</v>
       </c>
       <c r="P29" t="n">
-        <v>2621.804660610206</v>
+        <v>2447.598332106165</v>
       </c>
       <c r="Q29" t="n">
         <v>2658.202367897139</v>
       </c>
       <c r="R29" t="n">
-        <v>2637.683817986625</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="S29" t="n">
-        <v>2637.683817986625</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="T29" t="n">
-        <v>2637.683817986625</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="U29" t="n">
-        <v>2637.683817986625</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="V29" t="n">
-        <v>2637.683817986625</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="W29" t="n">
-        <v>2637.683817986625</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="X29" t="n">
-        <v>2264.218059725546</v>
+        <v>2338.137606425801</v>
       </c>
       <c r="Y29" t="n">
-        <v>1874.078727749734</v>
+        <v>1947.99827444999</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>974.4657096480565</v>
+        <v>974.4657096480562</v>
       </c>
       <c r="C30" t="n">
-        <v>800.0126803669295</v>
+        <v>800.0126803669293</v>
       </c>
       <c r="D30" t="n">
-        <v>651.0782707056783</v>
+        <v>651.0782707056781</v>
       </c>
       <c r="E30" t="n">
-        <v>491.8408157002227</v>
+        <v>491.8408157002226</v>
       </c>
       <c r="F30" t="n">
-        <v>345.3062577271077</v>
+        <v>345.3062577271076</v>
       </c>
       <c r="G30" t="n">
         <v>207.690090149279</v>
@@ -6545,22 +6545,22 @@
         <v>155.6399601725249</v>
       </c>
       <c r="K30" t="n">
-        <v>195.5878757682501</v>
+        <v>457.408460410703</v>
       </c>
       <c r="L30" t="n">
-        <v>662.7572611712643</v>
+        <v>557.4459039632926</v>
       </c>
       <c r="M30" t="n">
-        <v>1259.901120620522</v>
+        <v>1154.58976341255</v>
       </c>
       <c r="N30" t="n">
-        <v>1888.556614559849</v>
+        <v>1783.245257351877</v>
       </c>
       <c r="O30" t="n">
-        <v>2397.237895443467</v>
+        <v>2058.095680968375</v>
       </c>
       <c r="P30" t="n">
-        <v>2473.218260855532</v>
+        <v>2449.354187333978</v>
       </c>
       <c r="Q30" t="n">
         <v>2658.202367897139</v>
@@ -6587,7 +6587,7 @@
         <v>1350.441345433078</v>
       </c>
       <c r="Y30" t="n">
-        <v>1142.681046668125</v>
+        <v>1142.681046668124</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>516.7204546871834</v>
+        <v>546.4109466981622</v>
       </c>
       <c r="C31" t="n">
-        <v>516.7204546871834</v>
+        <v>377.4747637702553</v>
       </c>
       <c r="D31" t="n">
-        <v>516.7204546871834</v>
+        <v>377.4747637702553</v>
       </c>
       <c r="E31" t="n">
-        <v>368.8073611047903</v>
+        <v>377.4747637702553</v>
       </c>
       <c r="F31" t="n">
-        <v>221.9174136068799</v>
+        <v>377.4747637702553</v>
       </c>
       <c r="G31" t="n">
-        <v>53.16404735794277</v>
+        <v>208.7213975213182</v>
       </c>
       <c r="H31" t="n">
         <v>53.16404735794277</v>
@@ -6651,22 +6651,22 @@
         <v>929.4930737367362</v>
       </c>
       <c r="T31" t="n">
-        <v>805.8806231773756</v>
+        <v>703.237831732459</v>
       </c>
       <c r="U31" t="n">
-        <v>516.7204546871834</v>
+        <v>703.237831732459</v>
       </c>
       <c r="V31" t="n">
-        <v>516.7204546871834</v>
+        <v>703.237831732459</v>
       </c>
       <c r="W31" t="n">
-        <v>516.7204546871834</v>
+        <v>703.237831732459</v>
       </c>
       <c r="X31" t="n">
-        <v>516.7204546871834</v>
+        <v>546.4109466981622</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.7204546871834</v>
+        <v>546.4109466981622</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1267.352630489396</v>
+        <v>1207.882802266376</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.352630489396</v>
+        <v>838.9202853259644</v>
       </c>
       <c r="D32" t="n">
-        <v>1267.352630489396</v>
+        <v>480.6545867192139</v>
       </c>
       <c r="E32" t="n">
-        <v>881.5643778911522</v>
+        <v>480.6545867192139</v>
       </c>
       <c r="F32" t="n">
-        <v>470.5784731015446</v>
+        <v>69.66868192960635</v>
       </c>
       <c r="G32" t="n">
-        <v>53.16404735794277</v>
+        <v>69.66868192960635</v>
       </c>
       <c r="H32" t="n">
         <v>53.16404735794277</v>
@@ -6709,10 +6709,10 @@
         <v>1079.667941185006</v>
       </c>
       <c r="M32" t="n">
-        <v>1433.889616742973</v>
+        <v>1377.908341025227</v>
       </c>
       <c r="N32" t="n">
-        <v>1571.099777317518</v>
+        <v>1948.091956767636</v>
       </c>
       <c r="O32" t="n">
         <v>2064.320359328654</v>
@@ -6727,25 +6727,25 @@
         <v>2658.202367897139</v>
       </c>
       <c r="S32" t="n">
-        <v>2628.872524646152</v>
+        <v>2494.54393069905</v>
       </c>
       <c r="T32" t="n">
-        <v>2628.872524646152</v>
+        <v>2278.314184944183</v>
       </c>
       <c r="U32" t="n">
-        <v>2375.154689872901</v>
+        <v>2278.314184944183</v>
       </c>
       <c r="V32" t="n">
-        <v>2044.09180252933</v>
+        <v>1947.251297600612</v>
       </c>
       <c r="W32" t="n">
-        <v>2044.09180252933</v>
+        <v>1594.482642330498</v>
       </c>
       <c r="X32" t="n">
-        <v>2044.09180252933</v>
+        <v>1594.482642330498</v>
       </c>
       <c r="Y32" t="n">
-        <v>1653.952470553518</v>
+        <v>1594.482642330498</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>974.4657096480555</v>
+        <v>974.4657096480563</v>
       </c>
       <c r="C33" t="n">
-        <v>800.0126803669285</v>
+        <v>800.0126803669293</v>
       </c>
       <c r="D33" t="n">
-        <v>651.0782707056774</v>
+        <v>651.0782707056781</v>
       </c>
       <c r="E33" t="n">
-        <v>491.8408157002218</v>
+        <v>491.8408157002226</v>
       </c>
       <c r="F33" t="n">
-        <v>345.3062577271069</v>
+        <v>345.3062577271076</v>
       </c>
       <c r="G33" t="n">
-        <v>207.6900901492786</v>
+        <v>207.690090149279</v>
       </c>
       <c r="H33" t="n">
         <v>105.0862026388847</v>
@@ -6779,25 +6779,25 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J33" t="n">
-        <v>53.16404735794277</v>
+        <v>155.6399601725249</v>
       </c>
       <c r="K33" t="n">
-        <v>93.11196295366801</v>
+        <v>457.408460410703</v>
       </c>
       <c r="L33" t="n">
-        <v>560.2813483566822</v>
+        <v>924.5778458137172</v>
       </c>
       <c r="M33" t="n">
-        <v>1157.425207805939</v>
+        <v>1395.307856745547</v>
       </c>
       <c r="N33" t="n">
-        <v>1786.080701745266</v>
+        <v>1549.414400084757</v>
       </c>
       <c r="O33" t="n">
-        <v>2294.761982628885</v>
+        <v>2058.095680968375</v>
       </c>
       <c r="P33" t="n">
-        <v>2657.330702192469</v>
+        <v>2449.354187333978</v>
       </c>
       <c r="Q33" t="n">
         <v>2658.202367897139</v>
@@ -6806,22 +6806,22 @@
         <v>2626.239401505958</v>
       </c>
       <c r="S33" t="n">
-        <v>2473.526337441359</v>
+        <v>2473.52633744136</v>
       </c>
       <c r="T33" t="n">
-        <v>2275.832596109563</v>
+        <v>2275.832596109564</v>
       </c>
       <c r="U33" t="n">
         <v>2047.682310598555</v>
       </c>
       <c r="V33" t="n">
-        <v>1812.530202366812</v>
+        <v>1812.530202366813</v>
       </c>
       <c r="W33" t="n">
-        <v>1558.29284563861</v>
+        <v>1558.292845638611</v>
       </c>
       <c r="X33" t="n">
-        <v>1350.441345433077</v>
+        <v>1350.441345433078</v>
       </c>
       <c r="Y33" t="n">
         <v>1142.681046668124</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>385.6484170406571</v>
+        <v>835.773277027426</v>
       </c>
       <c r="C34" t="n">
-        <v>385.6484170406571</v>
+        <v>666.8370940995192</v>
       </c>
       <c r="D34" t="n">
-        <v>385.6484170406571</v>
+        <v>516.7204546871834</v>
       </c>
       <c r="E34" t="n">
-        <v>237.735323458264</v>
+        <v>368.8073611047903</v>
       </c>
       <c r="F34" t="n">
         <v>221.9174136068799</v>
@@ -6891,19 +6891,19 @@
         <v>929.4930737367362</v>
       </c>
       <c r="U34" t="n">
-        <v>640.332905246544</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="V34" t="n">
-        <v>385.6484170406571</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="W34" t="n">
-        <v>385.6484170406571</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="X34" t="n">
-        <v>385.6484170406571</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="Y34" t="n">
-        <v>385.6484170406571</v>
+        <v>929.4930737367362</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>316.5524428233036</v>
+        <v>863.680112046687</v>
       </c>
       <c r="C35" t="n">
-        <v>316.5524428233036</v>
+        <v>863.680112046687</v>
       </c>
       <c r="D35" t="n">
-        <v>316.5524428233036</v>
+        <v>863.680112046687</v>
       </c>
       <c r="E35" t="n">
-        <v>316.5524428233036</v>
+        <v>863.680112046687</v>
       </c>
       <c r="F35" t="n">
-        <v>316.5524428233036</v>
+        <v>452.6942072570794</v>
       </c>
       <c r="G35" t="n">
         <v>35.2797815134776</v>
@@ -6940,22 +6940,22 @@
         <v>35.2797815134776</v>
       </c>
       <c r="K35" t="n">
-        <v>77.11944866299768</v>
+        <v>77.11944866299774</v>
       </c>
       <c r="L35" t="n">
-        <v>513.706744892283</v>
+        <v>465.8246413217803</v>
       </c>
       <c r="M35" t="n">
-        <v>644.1917138720673</v>
+        <v>596.3096103015647</v>
       </c>
       <c r="N35" t="n">
-        <v>1080.779010101353</v>
+        <v>733.51977087611</v>
       </c>
       <c r="O35" t="n">
-        <v>1197.00741266237</v>
+        <v>1170.107067105395</v>
       </c>
       <c r="P35" t="n">
-        <v>1580.285385439882</v>
+        <v>1553.385039882907</v>
       </c>
       <c r="Q35" t="n">
         <v>1763.98907567388</v>
@@ -6967,22 +6967,22 @@
         <v>1763.98907567388</v>
       </c>
       <c r="T35" t="n">
-        <v>1763.98907567388</v>
+        <v>1547.759329919013</v>
       </c>
       <c r="U35" t="n">
-        <v>1763.98907567388</v>
+        <v>1294.041495145761</v>
       </c>
       <c r="V35" t="n">
-        <v>1432.926188330309</v>
+        <v>962.9786078021908</v>
       </c>
       <c r="W35" t="n">
-        <v>1080.157533060195</v>
+        <v>863.680112046687</v>
       </c>
       <c r="X35" t="n">
-        <v>706.6917747991154</v>
+        <v>863.680112046687</v>
       </c>
       <c r="Y35" t="n">
-        <v>316.5524428233036</v>
+        <v>863.680112046687</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>630.8375262324405</v>
+        <v>627.602371731128</v>
       </c>
       <c r="C36" t="n">
-        <v>630.8375262324405</v>
+        <v>627.602371731128</v>
       </c>
       <c r="D36" t="n">
-        <v>630.8375262324405</v>
+        <v>478.6679620698768</v>
       </c>
       <c r="E36" t="n">
-        <v>471.600071226985</v>
+        <v>319.4305070644212</v>
       </c>
       <c r="F36" t="n">
-        <v>325.06551325387</v>
+        <v>172.8959490913062</v>
       </c>
       <c r="G36" t="n">
-        <v>187.4493456760414</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="H36" t="n">
-        <v>84.8454581656471</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="I36" t="n">
         <v>35.2797815134776</v>
       </c>
       <c r="J36" t="n">
-        <v>35.2797815134776</v>
+        <v>137.7556943280597</v>
       </c>
       <c r="K36" t="n">
-        <v>75.22769710920284</v>
+        <v>439.5241945662378</v>
       </c>
       <c r="L36" t="n">
-        <v>511.8149933384881</v>
+        <v>539.5616381188274</v>
       </c>
       <c r="M36" t="n">
-        <v>948.4022895677734</v>
+        <v>675.6574844555848</v>
       </c>
       <c r="N36" t="n">
-        <v>1253.101318803951</v>
+        <v>1112.24478068487</v>
       </c>
       <c r="O36" t="n">
-        <v>1371.858903603607</v>
+        <v>1231.002365484526</v>
       </c>
       <c r="P36" t="n">
-        <v>1763.11740996921</v>
+        <v>1622.260871850129</v>
       </c>
       <c r="Q36" t="n">
         <v>1763.98907567388</v>
       </c>
       <c r="R36" t="n">
-        <v>1763.98907567388</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="S36" t="n">
-        <v>1763.98907567388</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="T36" t="n">
-        <v>1763.98907567388</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="U36" t="n">
-        <v>1535.838790162871</v>
+        <v>1503.875823771691</v>
       </c>
       <c r="V36" t="n">
-        <v>1300.686681931129</v>
+        <v>1268.723715539948</v>
       </c>
       <c r="W36" t="n">
-        <v>1046.449325202927</v>
+        <v>1014.486358811746</v>
       </c>
       <c r="X36" t="n">
-        <v>838.5978249973944</v>
+        <v>806.6348586062136</v>
       </c>
       <c r="Y36" t="n">
-        <v>630.8375262324405</v>
+        <v>795.8177087511961</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>204.0331477624147</v>
+        <v>186.1996469650941</v>
       </c>
       <c r="C37" t="n">
-        <v>204.0331477624147</v>
+        <v>186.1996469650941</v>
       </c>
       <c r="D37" t="n">
-        <v>204.0331477624147</v>
+        <v>36.0830075527584</v>
       </c>
       <c r="E37" t="n">
-        <v>204.0331477624147</v>
+        <v>36.0830075527584</v>
       </c>
       <c r="F37" t="n">
-        <v>204.0331477624147</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="G37" t="n">
         <v>35.2797815134776</v>
@@ -7122,25 +7122,25 @@
         <v>911.608807892271</v>
       </c>
       <c r="S37" t="n">
-        <v>911.608807892271</v>
+        <v>701.6150574595636</v>
       </c>
       <c r="T37" t="n">
-        <v>685.3535658879938</v>
+        <v>475.3598154552864</v>
       </c>
       <c r="U37" t="n">
-        <v>679.5102151118317</v>
+        <v>186.1996469650941</v>
       </c>
       <c r="V37" t="n">
-        <v>424.8257269059449</v>
+        <v>186.1996469650941</v>
       </c>
       <c r="W37" t="n">
-        <v>424.8257269059449</v>
+        <v>186.1996469650941</v>
       </c>
       <c r="X37" t="n">
-        <v>424.8257269059449</v>
+        <v>186.1996469650941</v>
       </c>
       <c r="Y37" t="n">
-        <v>204.0331477624147</v>
+        <v>186.1996469650941</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1390.701870493252</v>
+        <v>804.5313849098357</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.945810653438</v>
+        <v>804.5313849098357</v>
       </c>
       <c r="D38" t="n">
-        <v>863.680112046687</v>
+        <v>446.2656863030851</v>
       </c>
       <c r="E38" t="n">
-        <v>863.680112046687</v>
+        <v>446.2656863030851</v>
       </c>
       <c r="F38" t="n">
-        <v>452.6942072570794</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="G38" t="n">
         <v>35.2797815134776</v>
@@ -7177,19 +7177,19 @@
         <v>196.7478786672552</v>
       </c>
       <c r="K38" t="n">
-        <v>559.4915042622283</v>
+        <v>559.4915042622285</v>
       </c>
       <c r="L38" t="n">
-        <v>648.2990729355947</v>
+        <v>648.2990729355949</v>
       </c>
       <c r="M38" t="n">
-        <v>778.784041915379</v>
+        <v>778.7840419153792</v>
       </c>
       <c r="N38" t="n">
-        <v>915.9942024899242</v>
+        <v>915.9942024899245</v>
       </c>
       <c r="O38" t="n">
-        <v>1170.107067105396</v>
+        <v>1170.107067105395</v>
       </c>
       <c r="P38" t="n">
         <v>1553.385039882907</v>
@@ -7198,28 +7198,28 @@
         <v>1763.98907567388</v>
       </c>
       <c r="R38" t="n">
-        <v>1743.470525763367</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="S38" t="n">
-        <v>1743.470525763367</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="T38" t="n">
-        <v>1743.470525763367</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="U38" t="n">
-        <v>1743.470525763367</v>
+        <v>1530.76579844103</v>
       </c>
       <c r="V38" t="n">
-        <v>1743.470525763367</v>
+        <v>1530.76579844103</v>
       </c>
       <c r="W38" t="n">
-        <v>1390.701870493252</v>
+        <v>1177.997143170915</v>
       </c>
       <c r="X38" t="n">
-        <v>1390.701870493252</v>
+        <v>804.5313849098357</v>
       </c>
       <c r="Y38" t="n">
-        <v>1390.701870493252</v>
+        <v>804.5313849098357</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>653.9217945416153</v>
+        <v>644.5122469446355</v>
       </c>
       <c r="C39" t="n">
-        <v>583.6717012684073</v>
+        <v>644.5122469446355</v>
       </c>
       <c r="D39" t="n">
-        <v>434.737291607156</v>
+        <v>495.5778372833843</v>
       </c>
       <c r="E39" t="n">
-        <v>275.4998366017005</v>
+        <v>336.3403822779288</v>
       </c>
       <c r="F39" t="n">
-        <v>275.4998366017005</v>
+        <v>189.8058243048138</v>
       </c>
       <c r="G39" t="n">
-        <v>137.8836690238719</v>
+        <v>189.8058243048138</v>
       </c>
       <c r="H39" t="n">
-        <v>35.2797815134776</v>
+        <v>87.20193679441957</v>
       </c>
       <c r="I39" t="n">
         <v>35.2797815134776</v>
       </c>
       <c r="J39" t="n">
-        <v>137.7556943280597</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="K39" t="n">
-        <v>439.5241945662378</v>
+        <v>75.22769710920286</v>
       </c>
       <c r="L39" t="n">
-        <v>876.1114907955232</v>
+        <v>175.2651406617925</v>
       </c>
       <c r="M39" t="n">
-        <v>1206.296401559789</v>
+        <v>611.8524368910778</v>
       </c>
       <c r="N39" t="n">
-        <v>1360.402944898998</v>
+        <v>1042.573233469369</v>
       </c>
       <c r="O39" t="n">
         <v>1479.160529698654</v>
@@ -7277,28 +7277,28 @@
         <v>1763.98907567388</v>
       </c>
       <c r="R39" t="n">
-        <v>1732.026109282699</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="S39" t="n">
-        <v>1579.313045218101</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="T39" t="n">
-        <v>1579.313045218101</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="U39" t="n">
-        <v>1351.162759707092</v>
+        <v>1535.838790162871</v>
       </c>
       <c r="V39" t="n">
-        <v>1116.01065147535</v>
+        <v>1300.686681931129</v>
       </c>
       <c r="W39" t="n">
-        <v>861.7732947471482</v>
+        <v>1046.449325202927</v>
       </c>
       <c r="X39" t="n">
-        <v>653.9217945416153</v>
+        <v>838.5978249973944</v>
       </c>
       <c r="Y39" t="n">
-        <v>653.9217945416153</v>
+        <v>644.5122469446355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>475.2758548561444</v>
+        <v>350.9230952603251</v>
       </c>
       <c r="C40" t="n">
-        <v>475.2758548561444</v>
+        <v>350.9230952603251</v>
       </c>
       <c r="D40" t="n">
-        <v>325.1592154438086</v>
+        <v>350.9230952603251</v>
       </c>
       <c r="E40" t="n">
-        <v>177.2461218614155</v>
+        <v>350.9230952603251</v>
       </c>
       <c r="F40" t="n">
-        <v>35.2797815134776</v>
+        <v>204.0331477624147</v>
       </c>
       <c r="G40" t="n">
         <v>35.2797815134776</v>
@@ -7362,22 +7362,22 @@
         <v>911.608807892271</v>
       </c>
       <c r="T40" t="n">
-        <v>911.608807892271</v>
+        <v>894.7677519564043</v>
       </c>
       <c r="U40" t="n">
-        <v>911.608807892271</v>
+        <v>605.607583466212</v>
       </c>
       <c r="V40" t="n">
-        <v>656.9243196863841</v>
+        <v>350.9230952603251</v>
       </c>
       <c r="W40" t="n">
-        <v>656.9243196863841</v>
+        <v>350.9230952603251</v>
       </c>
       <c r="X40" t="n">
-        <v>656.9243196863841</v>
+        <v>350.9230952603251</v>
       </c>
       <c r="Y40" t="n">
-        <v>656.9243196863841</v>
+        <v>350.9230952603251</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>920.7542899651339</v>
+        <v>790.0305510521335</v>
       </c>
       <c r="C41" t="n">
-        <v>863.680112046687</v>
+        <v>421.0680341117218</v>
       </c>
       <c r="D41" t="n">
-        <v>863.680112046687</v>
+        <v>421.0680341117218</v>
       </c>
       <c r="E41" t="n">
-        <v>863.680112046687</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="F41" t="n">
-        <v>452.6942072570794</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="G41" t="n">
         <v>35.2797815134776</v>
@@ -7414,19 +7414,19 @@
         <v>196.7478786672552</v>
       </c>
       <c r="K41" t="n">
-        <v>238.5875458167753</v>
+        <v>559.4915042622285</v>
       </c>
       <c r="L41" t="n">
-        <v>327.3951144901416</v>
+        <v>648.2990729355949</v>
       </c>
       <c r="M41" t="n">
-        <v>763.982410719427</v>
+        <v>778.7840419153792</v>
       </c>
       <c r="N41" t="n">
-        <v>1200.569706948712</v>
+        <v>915.9942024899245</v>
       </c>
       <c r="O41" t="n">
-        <v>1316.79810950973</v>
+        <v>1170.107067105395</v>
       </c>
       <c r="P41" t="n">
         <v>1553.385039882907</v>
@@ -7435,28 +7435,28 @@
         <v>1763.98907567388</v>
       </c>
       <c r="R41" t="n">
-        <v>1743.470525763367</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="S41" t="n">
-        <v>1743.470525763367</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="T41" t="n">
-        <v>1527.2407800085</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="U41" t="n">
-        <v>1273.522945235248</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="V41" t="n">
-        <v>1273.522945235248</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="W41" t="n">
-        <v>920.7542899651339</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="X41" t="n">
-        <v>920.7542899651339</v>
+        <v>1390.5233174128</v>
       </c>
       <c r="Y41" t="n">
-        <v>920.7542899651339</v>
+        <v>1176.630391116255</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>802.0554010122549</v>
+        <v>430.6592228211917</v>
       </c>
       <c r="C42" t="n">
-        <v>627.602371731128</v>
+        <v>430.6592228211917</v>
       </c>
       <c r="D42" t="n">
-        <v>478.6679620698768</v>
+        <v>430.6592228211917</v>
       </c>
       <c r="E42" t="n">
         <v>319.4305070644212</v>
@@ -7493,19 +7493,19 @@
         <v>137.7556943280597</v>
       </c>
       <c r="K42" t="n">
-        <v>439.5241945662378</v>
+        <v>177.703609923785</v>
       </c>
       <c r="L42" t="n">
-        <v>876.1114907955232</v>
+        <v>614.2909061530703</v>
       </c>
       <c r="M42" t="n">
-        <v>1206.296401559789</v>
+        <v>750.3867524898277</v>
       </c>
       <c r="N42" t="n">
-        <v>1360.402944898998</v>
+        <v>904.4932958290367</v>
       </c>
       <c r="O42" t="n">
-        <v>1479.160529698654</v>
+        <v>1163.882388745116</v>
       </c>
       <c r="P42" t="n">
         <v>1555.14089511072</v>
@@ -7520,22 +7520,22 @@
         <v>1732.026109282699</v>
       </c>
       <c r="T42" t="n">
-        <v>1534.332367950903</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="U42" t="n">
-        <v>1534.332367950903</v>
+        <v>1503.875823771691</v>
       </c>
       <c r="V42" t="n">
-        <v>1534.332367950903</v>
+        <v>1268.723715539948</v>
       </c>
       <c r="W42" t="n">
-        <v>1280.095011222702</v>
+        <v>1014.486358811746</v>
       </c>
       <c r="X42" t="n">
-        <v>1072.243511017169</v>
+        <v>806.6348586062136</v>
       </c>
       <c r="Y42" t="n">
-        <v>864.483212252215</v>
+        <v>598.8745598412597</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>911.608807892271</v>
       </c>
       <c r="R43" t="n">
-        <v>805.6366817606023</v>
+        <v>774.5427186624991</v>
       </c>
       <c r="S43" t="n">
-        <v>805.6366817606023</v>
+        <v>564.5489682297916</v>
       </c>
       <c r="T43" t="n">
-        <v>579.3814397563251</v>
+        <v>338.2937262255144</v>
       </c>
       <c r="U43" t="n">
-        <v>579.3814397563251</v>
+        <v>338.2937262255144</v>
       </c>
       <c r="V43" t="n">
-        <v>324.6969515504382</v>
+        <v>83.60923801962755</v>
       </c>
       <c r="W43" t="n">
         <v>35.2797815134776</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1100.902090606437</v>
+        <v>569.8736316626064</v>
       </c>
       <c r="C44" t="n">
-        <v>1100.902090606437</v>
+        <v>553.3539467516894</v>
       </c>
       <c r="D44" t="n">
-        <v>742.636391999687</v>
+        <v>553.3539467516894</v>
       </c>
       <c r="E44" t="n">
-        <v>356.8481394014428</v>
+        <v>167.5656941534451</v>
       </c>
       <c r="F44" t="n">
-        <v>356.8481394014428</v>
+        <v>167.5656941534451</v>
       </c>
       <c r="G44" t="n">
-        <v>356.8481394014428</v>
+        <v>167.5656941534451</v>
       </c>
       <c r="H44" t="n">
-        <v>35.2797815134776</v>
+        <v>167.5656941534451</v>
       </c>
       <c r="I44" t="n">
         <v>35.2797815134776</v>
@@ -7651,16 +7651,16 @@
         <v>196.7478786672552</v>
       </c>
       <c r="K44" t="n">
-        <v>253.6857522645678</v>
+        <v>253.6857522645676</v>
       </c>
       <c r="L44" t="n">
-        <v>690.2730484938531</v>
+        <v>690.2730484938529</v>
       </c>
       <c r="M44" t="n">
         <v>1126.860344723138</v>
       </c>
       <c r="N44" t="n">
-        <v>1264.070505297684</v>
+        <v>1264.070505297683</v>
       </c>
       <c r="O44" t="n">
         <v>1380.298907858701</v>
@@ -7681,19 +7681,19 @@
         <v>1600.330638475791</v>
       </c>
       <c r="U44" t="n">
-        <v>1600.330638475791</v>
+        <v>1346.61280370254</v>
       </c>
       <c r="V44" t="n">
-        <v>1600.330638475791</v>
+        <v>1346.61280370254</v>
       </c>
       <c r="W44" t="n">
-        <v>1600.330638475791</v>
+        <v>1346.61280370254</v>
       </c>
       <c r="X44" t="n">
-        <v>1491.041422582249</v>
+        <v>1346.61280370254</v>
       </c>
       <c r="Y44" t="n">
-        <v>1100.902090606437</v>
+        <v>956.4734717267281</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>655.52084303914</v>
+        <v>401.1808185094637</v>
       </c>
       <c r="C45" t="n">
-        <v>481.067813758013</v>
+        <v>226.7277892283367</v>
       </c>
       <c r="D45" t="n">
-        <v>332.1334040967617</v>
+        <v>226.7277892283367</v>
       </c>
       <c r="E45" t="n">
-        <v>172.8959490913062</v>
+        <v>67.49033422288116</v>
       </c>
       <c r="F45" t="n">
-        <v>172.8959490913062</v>
+        <v>67.49033422288116</v>
       </c>
       <c r="G45" t="n">
-        <v>35.2797815134776</v>
+        <v>67.49033422288116</v>
       </c>
       <c r="H45" t="n">
-        <v>35.2797815134776</v>
+        <v>67.49033422288116</v>
       </c>
       <c r="I45" t="n">
         <v>35.2797815134776</v>
       </c>
       <c r="J45" t="n">
-        <v>35.2797815134776</v>
+        <v>137.7556943280597</v>
       </c>
       <c r="K45" t="n">
-        <v>75.22769710920284</v>
+        <v>439.5241945662378</v>
       </c>
       <c r="L45" t="n">
-        <v>511.8149933384881</v>
+        <v>754.922414269494</v>
       </c>
       <c r="M45" t="n">
-        <v>813.9624520985742</v>
+        <v>891.0182606062514</v>
       </c>
       <c r="N45" t="n">
-        <v>1250.54974832786</v>
+        <v>1045.12480394546</v>
       </c>
       <c r="O45" t="n">
-        <v>1687.137044557145</v>
+        <v>1163.882388745116</v>
       </c>
       <c r="P45" t="n">
-        <v>1763.11740996921</v>
+        <v>1555.14089511072</v>
       </c>
       <c r="Q45" t="n">
         <v>1763.98907567388</v>
       </c>
       <c r="R45" t="n">
-        <v>1763.98907567388</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="S45" t="n">
-        <v>1763.98907567388</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="T45" t="n">
-        <v>1763.98907567388</v>
+        <v>1534.332367950903</v>
       </c>
       <c r="U45" t="n">
-        <v>1535.838790162871</v>
+        <v>1306.182082439895</v>
       </c>
       <c r="V45" t="n">
-        <v>1300.686681931129</v>
+        <v>1071.029974208152</v>
       </c>
       <c r="W45" t="n">
-        <v>1239.347979029695</v>
+        <v>816.7926174799504</v>
       </c>
       <c r="X45" t="n">
-        <v>1031.496478824162</v>
+        <v>608.9411172744176</v>
       </c>
       <c r="Y45" t="n">
-        <v>823.736180059208</v>
+        <v>401.1808185094637</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>396.1933973978016</v>
+        <v>204.0331477624147</v>
       </c>
       <c r="C46" t="n">
-        <v>396.1933973978016</v>
+        <v>204.0331477624147</v>
       </c>
       <c r="D46" t="n">
-        <v>330.0828225937811</v>
+        <v>204.0331477624147</v>
       </c>
       <c r="E46" t="n">
-        <v>182.169729011388</v>
+        <v>204.0331477624147</v>
       </c>
       <c r="F46" t="n">
-        <v>35.2797815134776</v>
+        <v>204.0331477624147</v>
       </c>
       <c r="G46" t="n">
         <v>35.2797815134776</v>
@@ -7836,22 +7836,22 @@
         <v>911.608807892271</v>
       </c>
       <c r="T46" t="n">
-        <v>685.3535658879938</v>
+        <v>721.1828671506244</v>
       </c>
       <c r="U46" t="n">
-        <v>396.1933973978016</v>
+        <v>432.0226986604321</v>
       </c>
       <c r="V46" t="n">
-        <v>396.1933973978016</v>
+        <v>432.0226986604321</v>
       </c>
       <c r="W46" t="n">
-        <v>396.1933973978016</v>
+        <v>432.0226986604321</v>
       </c>
       <c r="X46" t="n">
-        <v>396.1933973978016</v>
+        <v>204.0331477624147</v>
       </c>
       <c r="Y46" t="n">
-        <v>396.1933973978016</v>
+        <v>204.0331477624147</v>
       </c>
     </row>
   </sheetData>
@@ -8695,22 +8695,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>133.8487082342324</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>84.95720126334479</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>51.58897506127258</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.697468090384853</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.5650090424777</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>149.5512614379179</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>136.5461763246174</v>
+        <v>136.5461763246169</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>149.5512614379178</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>149.5512614379179</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>136.5461763246174</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>136.5461763246171</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>149.551261437918</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>149.5512614379179</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>93.32780083678642</v>
+        <v>93.32780083678601</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>22.58001229537638</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>149.4661177904248</v>
+        <v>149.5512614379178</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>103.5961666925257</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>225.996673311296</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>225.9966733112959</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9725,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>252.5342526049668</v>
+        <v>338.0143076717908</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>42.34652940994036</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9883,19 +9883,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>225.9966733112959</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>266.1715631985205</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>68.74922106408621</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.997527137954989</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>194.1443543689138</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.34900227198519</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>157.669534158426</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>185.9721629666026</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10357,13 +10357,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>225.996673311296</v>
+        <v>169.449930162057</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>22.58001229537638</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>338.0143076717908</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>289.4831860116352</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.997527137954989</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>351.2926540968878</v>
+        <v>302.9268929145618</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>302.4011471260002</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>323.5948420891592</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>185.1429244407383</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>22.58001229537638</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>339.9493461380765</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>303.5267170631595</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>152.1136221181501</v>
+        <v>285.3340938283599</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>142.2793314334149</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>139.2772343984381</v>
+        <v>139.2772343984375</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10901,22 +10901,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>339.9493461380765</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>196.0495600277866</v>
+        <v>303.5267170631595</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>279.4083366051334</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>321.040112555181</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>309.194269948991</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>302.4011471260002</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>139.2772343984375</v>
       </c>
       <c r="P41" t="n">
-        <v>173.6259380660943</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>339.9493461380765</v>
+        <v>339.9493461380764</v>
       </c>
       <c r="M42" t="n">
-        <v>196.0495600277866</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.052028400428</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>15.25071358362887</v>
+        <v>15.25071358362852</v>
       </c>
       <c r="L44" t="n">
-        <v>351.2926540968879</v>
+        <v>351.2926540968878</v>
       </c>
       <c r="M44" t="n">
-        <v>309.194269948991</v>
+        <v>309.1942699489908</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>22.58001229537638</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>339.9493461380765</v>
+        <v>217.5361375259257</v>
       </c>
       <c r="M45" t="n">
-        <v>167.7289014377058</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>285.3340938283599</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>321.0401125551811</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>141.7195687151929</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>131.1297185648683</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>158.3770470164472</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23278,7 +23278,7 @@
         <v>318.3526743090856</v>
       </c>
       <c r="I11" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.16168134975695</v>
+        <v>106.9066290450262</v>
       </c>
       <c r="U11" t="n">
         <v>251.1806564255189</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>125.6876456615984</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>146.1777776226544</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,22 +23339,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>82.19310040869016</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H12" t="n">
-        <v>26.40677871749797</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>151.1859334239523</v>
       </c>
       <c r="T12" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.8687826558985</v>
       </c>
       <c r="V12" t="n">
-        <v>9.247264093610625</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>28.14166010510496</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>154.0017766617416</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>207.8938129283803</v>
@@ -23472,13 +23472,13 @@
         <v>223.9926895842344</v>
       </c>
       <c r="U13" t="n">
-        <v>62.71524374947563</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V13" t="n">
-        <v>28.58432026801336</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>200.0105532716554</v>
+        <v>189.5139716472081</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>158.3770470164471</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>189.6869584303511</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H14" t="n">
         <v>318.3526743090856</v>
       </c>
       <c r="I14" t="n">
-        <v>106.9066290450261</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>125.6876456615984</v>
       </c>
       <c r="X14" t="n">
-        <v>146.1777776226544</v>
+        <v>325.3613117985192</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>107.2999567783276</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I15" t="n">
-        <v>51.40293372813255</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>151.1859334239523</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>109.6153434911556</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8687826558985</v>
+        <v>2.315459600083841</v>
       </c>
       <c r="V15" t="n">
         <v>9.247264093610625</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>91.17777532335778</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>127.628788365327</v>
       </c>
       <c r="J16" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>6.809440619727984</v>
       </c>
       <c r="R16" t="n">
         <v>135.6954283374743</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T16" t="n">
-        <v>223.9926895842344</v>
+        <v>0.4393665284197823</v>
       </c>
       <c r="U16" t="n">
-        <v>62.71524374947563</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>62.96967528077636</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.1805186076659</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>158.3770470164471</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>183.3227226858968</v>
       </c>
       <c r="G17" t="n">
-        <v>216.3345145386043</v>
+        <v>189.6869584303511</v>
       </c>
       <c r="H17" t="n">
         <v>318.3526743090856</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>20.31336441140823</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>214.0674482973184</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1806564255189</v>
+        <v>27.62733336970427</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>334.6704190073676</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.2400059020503</v>
@@ -23831,7 +23831,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I18" t="n">
-        <v>51.40293372813255</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>48.59115395287142</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8687826558985</v>
+        <v>183.088292179082</v>
       </c>
       <c r="V18" t="n">
-        <v>9.247264093610625</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.0658325864478</v>
       </c>
       <c r="H19" t="n">
-        <v>154.0017766617416</v>
+        <v>23.62345261942724</v>
       </c>
       <c r="I19" t="n">
         <v>127.628788365327</v>
       </c>
       <c r="J19" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.693616733572085</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S19" t="n">
         <v>207.8938129283803</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4393665284197823</v>
+        <v>0.4393665284197539</v>
       </c>
       <c r="U19" t="n">
         <v>286.2685668052903</v>
       </c>
       <c r="V19" t="n">
-        <v>215.5076494535492</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>358.6774171949389</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>141.7195687151929</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>131.1297185648683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>158.3770470164471</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1806564255189</v>
+        <v>74.58825388936575</v>
       </c>
       <c r="V20" t="n">
-        <v>104.1989354143203</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>146.1777776226544</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.2400059020503</v>
@@ -24068,7 +24068,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I21" t="n">
-        <v>51.40293372813255</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>151.1859334239523</v>
@@ -24104,19 +24104,19 @@
         <v>195.7168039184781</v>
       </c>
       <c r="U21" t="n">
-        <v>2.315459600083841</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V21" t="n">
-        <v>9.247264093610625</v>
+        <v>86.96206799673308</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>163.7050899657214</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>10.58459912703353</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H22" t="n">
         <v>154.0017766617416</v>
@@ -24150,7 +24150,7 @@
         <v>127.628788365327</v>
       </c>
       <c r="J22" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.693616733572085</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>135.6954283374743</v>
@@ -24183,7 +24183,7 @@
         <v>223.9926895842344</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2685668052903</v>
+        <v>62.71524374947563</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>2.156332333222508</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>153.8979813628558</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>130.9630535135678</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>126.4381383655173</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>302.891893023615</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>20.904026159257</v>
       </c>
       <c r="H25" t="n">
         <v>154.0017766617416</v>
@@ -24387,7 +24387,7 @@
         <v>127.628788365327</v>
       </c>
       <c r="J25" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.693616733572085</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S25" t="n">
         <v>207.8938129283803</v>
@@ -24423,7 +24423,7 @@
         <v>286.2685668052903</v>
       </c>
       <c r="V25" t="n">
-        <v>92.87480370371915</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24448,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H26" t="n">
-        <v>32.37685486078919</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>130.9630535135678</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>20.31336441140823</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S26" t="n">
         <v>162.0218528261079</v>
@@ -24499,13 +24499,13 @@
         <v>214.0674482973184</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>225.3168167218562</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24606,25 +24606,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>42.51317871608239</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>127.628788365327</v>
       </c>
       <c r="J28" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.693616733572085</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R28" t="n">
         <v>135.6954283374743</v>
@@ -24654,13 +24654,13 @@
         <v>207.8938129283803</v>
       </c>
       <c r="T28" t="n">
-        <v>216.1009130672176</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2685668052903</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>88.79065728127114</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>130.9630535135678</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S29" t="n">
         <v>162.0218528261079</v>
       </c>
       <c r="T29" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.1806564255189</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>266.9344351191633</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>127.628788365327</v>
       </c>
       <c r="J31" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.693616733572085</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R31" t="n">
         <v>135.6954283374743</v>
@@ -24891,10 +24891,10 @@
         <v>207.8938129283803</v>
       </c>
       <c r="T31" t="n">
-        <v>101.6163635304675</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>70.45103920508336</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H32" t="n">
-        <v>318.3526743090856</v>
+        <v>302.0130860831386</v>
       </c>
       <c r="I32" t="n">
         <v>130.9630535135678</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>20.31336441140823</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9853080076313</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>87.04938143972029</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>129.761317270061</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>127.628788365327</v>
       </c>
       <c r="J34" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.693616733572085</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R34" t="n">
         <v>135.6954283374743</v>
@@ -25131,10 +25131,10 @@
         <v>223.9926895842344</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>134.780346789438</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>318.3526743090856</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>20.31336441140823</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S35" t="n">
         <v>162.0218528261079</v>
       </c>
       <c r="T35" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>250.9354579194642</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I36" t="n">
-        <v>2.332913842484743</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>151.1859334239523</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>194.973717420837</v>
       </c>
     </row>
     <row r="37">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>144.6258542440432</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H37" t="n">
         <v>154.0017766617416</v>
@@ -25335,7 +25335,7 @@
         <v>127.628788365327</v>
       </c>
       <c r="J37" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>8.693616733572085</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R37" t="n">
         <v>135.6954283374743</v>
       </c>
       <c r="S37" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>280.4836495368898</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>198.2043925295908</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H38" t="n">
         <v>318.3526743090856</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S38" t="n">
         <v>162.0218528261079</v>
@@ -25447,7 +25447,7 @@
         <v>214.0674482973184</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1806564255189</v>
+        <v>20.28961196499699</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>103.1609066478398</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>51.40293372813255</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T39" t="n">
         <v>195.7168039184781</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>13.53797350507315</v>
       </c>
     </row>
     <row r="40">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>4.874371078472677</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>154.0017766617416</v>
@@ -25572,7 +25572,7 @@
         <v>127.628788365327</v>
       </c>
       <c r="J40" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.693616733572085</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R40" t="n">
         <v>135.6954283374743</v>
@@ -25602,10 +25602,10 @@
         <v>207.8938129283803</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9926895842344</v>
+        <v>207.3200442077264</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2685668052903</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>308.7694556317451</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H41" t="n">
         <v>318.3526743090856</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S41" t="n">
         <v>162.0218528261079</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>174.4839416224742</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104.7296505223069</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>47.52865185619821</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I42" t="n">
-        <v>51.40293372813255</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,13 +25760,13 @@
         <v>151.1859334239523</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8687826558985</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>127.628788365327</v>
       </c>
       <c r="J43" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.693616733572085</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R43" t="n">
-        <v>30.78302346712226</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>238.6768363955026</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>348.9184037091997</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>413.2402814861658</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I44" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>20.31336441140823</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>214.0674482973184</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>261.5347769438625</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H45" t="n">
         <v>101.5778486352903</v>
       </c>
       <c r="I45" t="n">
-        <v>51.40293372813255</v>
+        <v>19.51448654582302</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>151.1859334239523</v>
       </c>
       <c r="T45" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>190.9696672884999</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.1660039622321</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>154.0017766617416</v>
@@ -26046,7 +26046,7 @@
         <v>127.628788365327</v>
       </c>
       <c r="J46" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.693616733572085</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R46" t="n">
         <v>135.6954283374743</v>
@@ -26076,7 +26076,7 @@
         <v>207.8938129283803</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>35.47100825000427</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>446653.3040061438</v>
+        <v>446653.3040061439</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>446653.3040061439</v>
+        <v>446653.3040061438</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>745455.8598772328</v>
+        <v>745455.8598772329</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>593984.8440444749</v>
+        <v>593984.844044475</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>593984.8440444747</v>
+        <v>593984.8440444748</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>593984.844044475</v>
+        <v>593984.8440444748</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981492</v>
+        <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
         <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
-        <v>236806.6184998543</v>
+        <v>236806.6184998544</v>
       </c>
       <c r="F2" t="n">
-        <v>236806.6184998545</v>
+        <v>236806.6184998544</v>
       </c>
       <c r="G2" t="n">
         <v>236806.6184998544</v>
       </c>
       <c r="H2" t="n">
-        <v>236806.6184998544</v>
+        <v>236806.6184998545</v>
       </c>
       <c r="I2" t="n">
         <v>367302.5613427878</v>
       </c>
       <c r="J2" t="n">
-        <v>367302.5613427879</v>
+        <v>367302.5613427878</v>
       </c>
       <c r="K2" t="n">
         <v>367302.5613427878</v>
       </c>
       <c r="L2" t="n">
-        <v>367302.5613427878</v>
+        <v>367302.5613427876</v>
       </c>
       <c r="M2" t="n">
-        <v>301150.6739640187</v>
+        <v>301150.6739640186</v>
       </c>
       <c r="N2" t="n">
         <v>301150.6739640186</v>
       </c>
       <c r="O2" t="n">
-        <v>301150.6739640187</v>
+        <v>301150.6739640188</v>
       </c>
       <c r="P2" t="n">
-        <v>301150.6739640187</v>
+        <v>301150.6739640188</v>
       </c>
     </row>
     <row r="3">
@@ -26429,13 +26429,13 @@
         <v>20595.24530921082</v>
       </c>
       <c r="F4" t="n">
-        <v>20595.24530921082</v>
+        <v>20595.2453092108</v>
       </c>
       <c r="G4" t="n">
-        <v>20595.24530921082</v>
+        <v>20595.24530921081</v>
       </c>
       <c r="H4" t="n">
-        <v>20595.24530921082</v>
+        <v>20595.2453092108</v>
       </c>
       <c r="I4" t="n">
         <v>84824.65335678867</v>
@@ -26444,19 +26444,19 @@
         <v>84824.65335678865</v>
       </c>
       <c r="K4" t="n">
+        <v>84824.65335678865</v>
+      </c>
+      <c r="L4" t="n">
         <v>84824.65335678867</v>
       </c>
-      <c r="L4" t="n">
-        <v>84824.65335678868</v>
-      </c>
       <c r="M4" t="n">
-        <v>52265.04671306024</v>
+        <v>52265.04671306022</v>
       </c>
       <c r="N4" t="n">
-        <v>52265.04671306024</v>
+        <v>52265.04671306022</v>
       </c>
       <c r="O4" t="n">
-        <v>52265.04671306023</v>
+        <v>52265.04671306022</v>
       </c>
       <c r="P4" t="n">
         <v>52265.04671306023</v>
@@ -26481,37 +26481,37 @@
         <v>24776.22547288668</v>
       </c>
       <c r="F5" t="n">
-        <v>24776.22547288668</v>
+        <v>24776.22547288669</v>
       </c>
       <c r="G5" t="n">
-        <v>24776.22547288668</v>
+        <v>24776.22547288669</v>
       </c>
       <c r="H5" t="n">
-        <v>24776.22547288668</v>
+        <v>24776.22547288669</v>
       </c>
       <c r="I5" t="n">
-        <v>51588.85942312966</v>
+        <v>51588.85942312967</v>
       </c>
       <c r="J5" t="n">
-        <v>51588.85942312966</v>
+        <v>51588.85942312967</v>
       </c>
       <c r="K5" t="n">
-        <v>51588.85942312966</v>
+        <v>51588.85942312967</v>
       </c>
       <c r="L5" t="n">
-        <v>51588.85942312966</v>
+        <v>51588.85942312967</v>
       </c>
       <c r="M5" t="n">
-        <v>37996.81738133613</v>
+        <v>37996.81738133614</v>
       </c>
       <c r="N5" t="n">
-        <v>37996.81738133613</v>
+        <v>37996.81738133614</v>
       </c>
       <c r="O5" t="n">
-        <v>37996.81738133613</v>
+        <v>37996.81738133614</v>
       </c>
       <c r="P5" t="n">
-        <v>37996.81738133613</v>
+        <v>37996.81738133614</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68978.94758308148</v>
+        <v>69018.66978389432</v>
       </c>
       <c r="C6" t="n">
-        <v>68978.94758308124</v>
+        <v>69018.66978389432</v>
       </c>
       <c r="D6" t="n">
-        <v>68978.9475830813</v>
+        <v>69018.66978389432</v>
       </c>
       <c r="E6" t="n">
-        <v>-298541.3469394139</v>
+        <v>-288592.9453834622</v>
       </c>
       <c r="F6" t="n">
-        <v>180381.3682111441</v>
+        <v>190329.7697670956</v>
       </c>
       <c r="G6" t="n">
-        <v>180381.3682111439</v>
+        <v>190329.7697670956</v>
       </c>
       <c r="H6" t="n">
-        <v>180381.368211144</v>
+        <v>190329.7697670957</v>
       </c>
       <c r="I6" t="n">
-        <v>107784.6720219054</v>
+        <v>113035.2196355114</v>
       </c>
       <c r="J6" t="n">
-        <v>225055.106769974</v>
+        <v>230305.6543835799</v>
       </c>
       <c r="K6" t="n">
-        <v>225055.1067699739</v>
+        <v>230305.6543835799</v>
       </c>
       <c r="L6" t="n">
-        <v>225055.1067699739</v>
+        <v>230305.6543835797</v>
       </c>
       <c r="M6" t="n">
-        <v>202408.792581576</v>
+        <v>210040.8081408177</v>
       </c>
       <c r="N6" t="n">
-        <v>202408.792581576</v>
+        <v>210040.8081408176</v>
       </c>
       <c r="O6" t="n">
-        <v>202408.792581576</v>
+        <v>210040.8081408178</v>
       </c>
       <c r="P6" t="n">
-        <v>202408.792581576</v>
+        <v>210040.8081408178</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>513.035937206108</v>
       </c>
       <c r="F3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="G3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="H3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="I3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="J3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="K3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="L3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="M3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="N3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="O3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="P3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
     </row>
     <row r="4">
@@ -26804,7 +26804,7 @@
         <v>223.5533230558146</v>
       </c>
       <c r="G4" t="n">
-        <v>223.5533230558146</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="H4" t="n">
         <v>223.5533230558146</v>
@@ -31995,40 +31995,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I14" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J14" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K14" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L14" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M14" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N14" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O14" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P14" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R14" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S14" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T14" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U14" t="n">
         <v>0.1649964823175421</v>
@@ -32074,43 +32074,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I15" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J15" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K15" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L15" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M15" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N15" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O15" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P15" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q15" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R15" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S15" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T15" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H16" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I16" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J16" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K16" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L16" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M16" t="n">
         <v>145.0209617253265</v>
@@ -32177,19 +32177,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R16" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S16" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T16" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I17" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J17" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K17" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L17" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M17" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N17" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O17" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P17" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q17" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R17" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S17" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T17" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U17" t="n">
         <v>0.1649964823175421</v>
@@ -32311,43 +32311,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I18" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J18" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K18" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L18" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M18" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N18" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O18" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P18" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R18" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S18" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T18" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H19" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I19" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J19" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K19" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L19" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M19" t="n">
         <v>145.0209617253265</v>
@@ -32414,19 +32414,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R19" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S19" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T19" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I20" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J20" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K20" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L20" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M20" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N20" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O20" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P20" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q20" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R20" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S20" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T20" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U20" t="n">
         <v>0.1649964823175421</v>
@@ -32548,43 +32548,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I21" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J21" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K21" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L21" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M21" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N21" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O21" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P21" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q21" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R21" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S21" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T21" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H22" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I22" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J22" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K22" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L22" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M22" t="n">
         <v>145.0209617253265</v>
@@ -32651,19 +32651,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R22" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S22" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T22" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,40 +32706,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I23" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J23" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K23" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L23" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M23" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N23" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O23" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P23" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q23" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R23" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S23" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T23" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U23" t="n">
         <v>0.1649964823175421</v>
@@ -32785,43 +32785,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I24" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J24" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K24" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L24" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M24" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N24" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O24" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P24" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q24" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R24" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S24" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T24" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H25" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I25" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J25" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K25" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L25" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M25" t="n">
         <v>145.0209617253265</v>
@@ -32888,19 +32888,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q25" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R25" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S25" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T25" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,40 +32943,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I26" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J26" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K26" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L26" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M26" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N26" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O26" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P26" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R26" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S26" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T26" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U26" t="n">
         <v>0.1649964823175421</v>
@@ -33022,43 +33022,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I27" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J27" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K27" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L27" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M27" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N27" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O27" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P27" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q27" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R27" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S27" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T27" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H28" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I28" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J28" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K28" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L28" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M28" t="n">
         <v>145.0209617253265</v>
@@ -33125,19 +33125,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R28" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S28" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T28" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,40 +33180,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I29" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J29" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K29" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L29" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M29" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N29" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O29" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P29" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q29" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R29" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S29" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T29" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U29" t="n">
         <v>0.1649964823175421</v>
@@ -33259,43 +33259,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I30" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J30" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K30" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L30" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M30" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N30" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O30" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P30" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q30" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R30" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S30" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T30" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H31" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I31" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J31" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K31" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L31" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M31" t="n">
         <v>145.0209617253265</v>
@@ -33362,19 +33362,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q31" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R31" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S31" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T31" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,40 +33417,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I32" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J32" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K32" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L32" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M32" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N32" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O32" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P32" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q32" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R32" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S32" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T32" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U32" t="n">
         <v>0.1649964823175421</v>
@@ -33496,43 +33496,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I33" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J33" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K33" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L33" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M33" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N33" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O33" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P33" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q33" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R33" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S33" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T33" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H34" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I34" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J34" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K34" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L34" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M34" t="n">
         <v>145.0209617253265</v>
@@ -33599,19 +33599,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R34" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S34" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T34" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,40 +33654,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I35" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J35" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K35" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L35" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M35" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N35" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O35" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P35" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R35" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S35" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T35" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U35" t="n">
         <v>0.1649964823175421</v>
@@ -33733,43 +33733,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I36" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J36" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K36" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L36" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M36" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N36" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O36" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P36" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q36" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R36" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S36" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T36" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H37" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I37" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J37" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K37" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L37" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M37" t="n">
         <v>145.0209617253265</v>
@@ -33836,19 +33836,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q37" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R37" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S37" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T37" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,40 +33891,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I38" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J38" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K38" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L38" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M38" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N38" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O38" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P38" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R38" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S38" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T38" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U38" t="n">
         <v>0.1649964823175421</v>
@@ -33970,43 +33970,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I39" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J39" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K39" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L39" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M39" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N39" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O39" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P39" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q39" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R39" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S39" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T39" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H40" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I40" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J40" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K40" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L40" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M40" t="n">
         <v>145.0209617253265</v>
@@ -34073,19 +34073,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q40" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R40" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S40" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T40" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,40 +34128,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I41" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J41" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K41" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L41" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M41" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N41" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O41" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P41" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R41" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S41" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T41" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U41" t="n">
         <v>0.1649964823175421</v>
@@ -34207,43 +34207,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I42" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J42" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K42" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L42" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M42" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N42" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O42" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P42" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q42" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R42" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S42" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T42" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H43" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I43" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J43" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K43" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L43" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M43" t="n">
         <v>145.0209617253265</v>
@@ -34310,19 +34310,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R43" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S43" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T43" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I44" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J44" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K44" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L44" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M44" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N44" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O44" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P44" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R44" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S44" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T44" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U44" t="n">
         <v>0.1649964823175421</v>
@@ -34444,43 +34444,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I45" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J45" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K45" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L45" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M45" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N45" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O45" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P45" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q45" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R45" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S45" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T45" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H46" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I46" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J46" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K46" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L46" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M46" t="n">
         <v>145.0209617253265</v>
@@ -34547,19 +34547,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R46" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S46" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T46" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>42.26229005002028</v>
       </c>
       <c r="L11" t="n">
-        <v>223.5533230558146</v>
+        <v>89.7046148215822</v>
       </c>
       <c r="M11" t="n">
         <v>131.802998969479</v>
       </c>
       <c r="N11" t="n">
-        <v>138.5961217924698</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="O11" t="n">
-        <v>117.4024268293108</v>
+        <v>168.9914018905833</v>
       </c>
       <c r="P11" t="n">
         <v>65.35075928054891</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.113826714291513</v>
+        <v>0.4163586239066603</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>103.5110230450325</v>
+        <v>42.98499674710131</v>
       </c>
       <c r="K12" t="n">
         <v>40.35142989467195</v>
@@ -35509,7 +35509,7 @@
         <v>76.747843850571</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.4317318466753</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K14" t="n">
-        <v>178.8084663746377</v>
+        <v>178.8084663746372</v>
       </c>
       <c r="L14" t="n">
-        <v>89.7046148215822</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M14" t="n">
-        <v>131.802998969479</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N14" t="n">
-        <v>138.5961217924698</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O14" t="n">
         <v>117.4024268293108</v>
       </c>
       <c r="P14" t="n">
-        <v>65.35075928054891</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4163586239066603</v>
+        <v>0.4163586239066888</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>103.5110230450325</v>
       </c>
       <c r="K15" t="n">
-        <v>40.35142989467195</v>
+        <v>189.9026913325897</v>
       </c>
       <c r="L15" t="n">
-        <v>101.0479227803935</v>
+        <v>101.0479227803936</v>
       </c>
       <c r="M15" t="n">
         <v>137.4705518553105</v>
@@ -35743,10 +35743,10 @@
         <v>119.957156363289</v>
       </c>
       <c r="P15" t="n">
-        <v>76.747843850571</v>
+        <v>76.74784385057103</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.4317318466753</v>
+        <v>0.8804704087574464</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L16" t="n">
         <v>165.1341189827537</v>
@@ -35819,7 +35819,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O16" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P16" t="n">
         <v>109.1708561270256</v>
@@ -35886,25 +35886,25 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K17" t="n">
-        <v>178.8084663746377</v>
+        <v>42.26229005002034</v>
       </c>
       <c r="L17" t="n">
-        <v>89.7046148215822</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M17" t="n">
-        <v>131.802998969479</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N17" t="n">
-        <v>138.5961217924698</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O17" t="n">
         <v>117.4024268293108</v>
       </c>
       <c r="P17" t="n">
-        <v>65.35075928054891</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4163586239066603</v>
+        <v>136.9625349485238</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>103.5110230450325</v>
       </c>
       <c r="K18" t="n">
-        <v>189.9026913325899</v>
+        <v>40.35142989467198</v>
       </c>
       <c r="L18" t="n">
-        <v>101.0479227803935</v>
+        <v>101.0479227803936</v>
       </c>
       <c r="M18" t="n">
         <v>137.4705518553105</v>
@@ -35980,10 +35980,10 @@
         <v>119.957156363289</v>
       </c>
       <c r="P18" t="n">
-        <v>76.747843850571</v>
+        <v>76.74784385057103</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.880470408757418</v>
+        <v>150.4317318466753</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L19" t="n">
         <v>165.1341189827537</v>
@@ -36056,7 +36056,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O19" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P19" t="n">
         <v>109.1708561270256</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>87.33027369883143</v>
+        <v>87.33027369883108</v>
       </c>
       <c r="K20" t="n">
-        <v>42.26229005002028</v>
+        <v>42.26229005002034</v>
       </c>
       <c r="L20" t="n">
-        <v>89.7046148215822</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M20" t="n">
-        <v>131.802998969479</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N20" t="n">
-        <v>138.5961217924698</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O20" t="n">
         <v>117.4024268293108</v>
       </c>
       <c r="P20" t="n">
-        <v>65.35075928054891</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.7313492838113</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K21" t="n">
-        <v>189.8175476850968</v>
+        <v>189.9026913325897</v>
       </c>
       <c r="L21" t="n">
-        <v>101.0479227803935</v>
+        <v>101.0479227803936</v>
       </c>
       <c r="M21" t="n">
         <v>137.4705518553105</v>
@@ -36214,13 +36214,13 @@
         <v>155.6631750901101</v>
       </c>
       <c r="O21" t="n">
-        <v>223.5533230558146</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P21" t="n">
-        <v>76.747843850571</v>
+        <v>76.74784385057103</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.880470408757418</v>
+        <v>0.8804704087574464</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L22" t="n">
         <v>165.1341189827537</v>
@@ -36293,7 +36293,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O22" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P22" t="n">
         <v>109.1708561270256</v>
@@ -36360,16 +36360,16 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K23" t="n">
-        <v>366.407702621185</v>
+        <v>366.4077026211851</v>
       </c>
       <c r="L23" t="n">
-        <v>507.3658293720326</v>
+        <v>507.3658293720327</v>
       </c>
       <c r="M23" t="n">
-        <v>357.799672280775</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N23" t="n">
-        <v>138.5961217924698</v>
+        <v>364.5927951037658</v>
       </c>
       <c r="O23" t="n">
         <v>498.2026080920562</v>
@@ -36378,7 +36378,7 @@
         <v>387.1494674520316</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.7313492838113</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>471.8882680838527</v>
       </c>
       <c r="M24" t="n">
-        <v>390.0048044602773</v>
+        <v>475.4848595271013</v>
       </c>
       <c r="N24" t="n">
-        <v>635.0055494336636</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O24" t="n">
-        <v>119.957156363289</v>
+        <v>513.8194756400185</v>
       </c>
       <c r="P24" t="n">
         <v>395.2106124905082</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L25" t="n">
         <v>165.1341189827537</v>
@@ -36530,7 +36530,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O25" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P25" t="n">
         <v>109.1708561270256</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>36.34900227198537</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K26" t="n">
-        <v>366.407702621185</v>
+        <v>366.4077026211851</v>
       </c>
       <c r="L26" t="n">
-        <v>507.3658293720326</v>
+        <v>507.3658293720327</v>
       </c>
       <c r="M26" t="n">
-        <v>581.3165324623116</v>
+        <v>357.799672280775</v>
       </c>
       <c r="N26" t="n">
-        <v>575.943046204454</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O26" t="n">
         <v>498.2026080920562</v>
       </c>
       <c r="P26" t="n">
-        <v>65.35075928054891</v>
+        <v>387.1494674520316</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4163586239066603</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>471.8882680838527</v>
       </c>
       <c r="M27" t="n">
-        <v>137.4705518553105</v>
+        <v>603.1756156053104</v>
       </c>
       <c r="N27" t="n">
-        <v>635.0055494336636</v>
+        <v>421.8347382886306</v>
       </c>
       <c r="O27" t="n">
-        <v>513.8194756400185</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P27" t="n">
         <v>395.2106124905082</v>
       </c>
       <c r="Q27" t="n">
-        <v>69.62969147284363</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L28" t="n">
         <v>165.1341189827537</v>
@@ -36767,7 +36767,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O28" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P28" t="n">
         <v>109.1708561270256</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K29" t="n">
-        <v>366.407702621185</v>
+        <v>366.4077026211851</v>
       </c>
       <c r="L29" t="n">
-        <v>507.3658293720326</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M29" t="n">
-        <v>581.3165324623116</v>
+        <v>581.3165324623117</v>
       </c>
       <c r="N29" t="n">
-        <v>575.943046204454</v>
+        <v>332.7404761613838</v>
       </c>
       <c r="O29" t="n">
         <v>498.2026080920562</v>
       </c>
       <c r="P29" t="n">
-        <v>65.35075928054891</v>
+        <v>387.1494674520316</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.76536089589185</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>103.5110230450325</v>
       </c>
       <c r="K30" t="n">
-        <v>40.35142989467195</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L30" t="n">
-        <v>471.8882680838527</v>
+        <v>101.0479227803936</v>
       </c>
       <c r="M30" t="n">
         <v>603.1756156053104</v>
@@ -36925,13 +36925,13 @@
         <v>635.0055494336636</v>
       </c>
       <c r="O30" t="n">
-        <v>513.8194756400185</v>
+        <v>277.626690521715</v>
       </c>
       <c r="P30" t="n">
-        <v>76.747843850571</v>
+        <v>395.2106124905082</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.85263337536</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L31" t="n">
         <v>165.1341189827537</v>
@@ -37004,7 +37004,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O31" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P31" t="n">
         <v>109.1708561270256</v>
@@ -37071,25 +37071,25 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K32" t="n">
-        <v>366.407702621185</v>
+        <v>366.4077026211851</v>
       </c>
       <c r="L32" t="n">
-        <v>507.3658293720326</v>
+        <v>507.3658293720327</v>
       </c>
       <c r="M32" t="n">
-        <v>357.799672280775</v>
+        <v>301.2529291315362</v>
       </c>
       <c r="N32" t="n">
-        <v>138.5961217924698</v>
+        <v>575.943046204454</v>
       </c>
       <c r="O32" t="n">
-        <v>498.2026080920562</v>
+        <v>117.4024268293108</v>
       </c>
       <c r="P32" t="n">
         <v>387.1494674520316</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.7313492838113</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K33" t="n">
-        <v>40.35142989467195</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L33" t="n">
         <v>471.8882680838527</v>
       </c>
       <c r="M33" t="n">
-        <v>603.1756156053104</v>
+        <v>475.4848595271013</v>
       </c>
       <c r="N33" t="n">
-        <v>635.0055494336636</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O33" t="n">
         <v>513.8194756400185</v>
       </c>
       <c r="P33" t="n">
-        <v>366.2310298622062</v>
+        <v>395.2106124905082</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.880470408757418</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L34" t="n">
         <v>165.1341189827537</v>
@@ -37241,7 +37241,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O34" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P34" t="n">
         <v>109.1708561270256</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>42.26229005002028</v>
+        <v>42.26229005002034</v>
       </c>
       <c r="L35" t="n">
+        <v>392.631507736144</v>
+      </c>
+      <c r="M35" t="n">
+        <v>131.8029989694791</v>
+      </c>
+      <c r="N35" t="n">
+        <v>138.5961217924699</v>
+      </c>
+      <c r="O35" t="n">
         <v>440.99726891847</v>
-      </c>
-      <c r="M35" t="n">
-        <v>131.802998969479</v>
-      </c>
-      <c r="N35" t="n">
-        <v>440.99726891847</v>
-      </c>
-      <c r="O35" t="n">
-        <v>117.4024268293108</v>
       </c>
       <c r="P35" t="n">
         <v>387.1494674520316</v>
       </c>
       <c r="Q35" t="n">
-        <v>185.5592830646449</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K36" t="n">
-        <v>40.35142989467195</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L36" t="n">
+        <v>101.0479227803936</v>
+      </c>
+      <c r="M36" t="n">
+        <v>137.4705518553105</v>
+      </c>
+      <c r="N36" t="n">
         <v>440.99726891847</v>
-      </c>
-      <c r="M36" t="n">
-        <v>440.99726891847</v>
-      </c>
-      <c r="N36" t="n">
-        <v>307.7767972082602</v>
       </c>
       <c r="O36" t="n">
         <v>119.957156363289</v>
@@ -37405,7 +37405,7 @@
         <v>395.2106124905082</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.880470408757418</v>
+        <v>143.1598018421724</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L37" t="n">
         <v>165.1341189827537</v>
@@ -37478,7 +37478,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O37" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P37" t="n">
         <v>109.1708561270256</v>
@@ -37545,25 +37545,25 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K38" t="n">
-        <v>366.407702621185</v>
+        <v>366.4077026211851</v>
       </c>
       <c r="L38" t="n">
-        <v>89.7046148215822</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M38" t="n">
-        <v>131.802998969479</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N38" t="n">
-        <v>138.5961217924698</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O38" t="n">
-        <v>256.6796612277489</v>
+        <v>256.6796612277483</v>
       </c>
       <c r="P38" t="n">
         <v>387.1494674520316</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.7313492838113</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>304.8166669072506</v>
+        <v>40.35142989467198</v>
       </c>
       <c r="L39" t="n">
+        <v>101.0479227803936</v>
+      </c>
+      <c r="M39" t="n">
         <v>440.99726891847</v>
       </c>
-      <c r="M39" t="n">
-        <v>333.5201118830971</v>
-      </c>
       <c r="N39" t="n">
-        <v>155.6631750901101</v>
+        <v>435.0715116952435</v>
       </c>
       <c r="O39" t="n">
-        <v>119.957156363289</v>
+        <v>440.99726891847</v>
       </c>
       <c r="P39" t="n">
-        <v>76.747843850571</v>
+        <v>76.74784385057103</v>
       </c>
       <c r="Q39" t="n">
         <v>210.9577581446065</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L40" t="n">
         <v>165.1341189827537</v>
@@ -37715,7 +37715,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O40" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P40" t="n">
         <v>109.1708561270256</v>
@@ -37782,25 +37782,25 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K41" t="n">
-        <v>42.26229005002028</v>
+        <v>366.4077026211851</v>
       </c>
       <c r="L41" t="n">
-        <v>89.7046148215822</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M41" t="n">
-        <v>440.99726891847</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N41" t="n">
-        <v>440.99726891847</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O41" t="n">
-        <v>117.4024268293108</v>
+        <v>256.6796612277483</v>
       </c>
       <c r="P41" t="n">
-        <v>238.9766973466432</v>
+        <v>387.1494674520316</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.7313492838113</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>103.5110230450325</v>
       </c>
       <c r="K42" t="n">
-        <v>304.8166669072506</v>
+        <v>40.35142989467198</v>
       </c>
       <c r="L42" t="n">
         <v>440.99726891847</v>
       </c>
       <c r="M42" t="n">
-        <v>333.5201118830971</v>
+        <v>137.4705518553105</v>
       </c>
       <c r="N42" t="n">
         <v>155.6631750901101</v>
       </c>
       <c r="O42" t="n">
-        <v>119.957156363289</v>
+        <v>262.009184763717</v>
       </c>
       <c r="P42" t="n">
-        <v>76.747843850571</v>
+        <v>395.2106124905082</v>
       </c>
       <c r="Q42" t="n">
         <v>210.9577581446065</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L43" t="n">
         <v>165.1341189827537</v>
@@ -37952,7 +37952,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O43" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P43" t="n">
         <v>109.1708561270256</v>
@@ -38019,7 +38019,7 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K44" t="n">
-        <v>57.51300363364915</v>
+        <v>57.51300363364886</v>
       </c>
       <c r="L44" t="n">
         <v>440.99726891847</v>
@@ -38028,7 +38028,7 @@
         <v>440.99726891847</v>
       </c>
       <c r="N44" t="n">
-        <v>138.5961217924698</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O44" t="n">
         <v>117.4024268293108</v>
@@ -38037,7 +38037,7 @@
         <v>387.1494674520316</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.4163586239066603</v>
+        <v>0.4163586239066888</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K45" t="n">
-        <v>40.35142989467195</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L45" t="n">
-        <v>440.99726891847</v>
+        <v>318.5840603063193</v>
       </c>
       <c r="M45" t="n">
-        <v>305.1994532930162</v>
+        <v>137.4705518553105</v>
       </c>
       <c r="N45" t="n">
-        <v>440.99726891847</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O45" t="n">
-        <v>440.99726891847</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P45" t="n">
-        <v>76.747843850571</v>
+        <v>395.2106124905082</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.880470408757418</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L46" t="n">
         <v>165.1341189827537</v>
@@ -38189,7 +38189,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O46" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P46" t="n">
         <v>109.1708561270256</v>
